--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\O2SparingPID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E569C44C-9790-473D-9F50-B6A151A27058}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D7A25-B066-49AF-A312-CCC2E315CB0B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" firstSheet="3" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
     <sheet name="Reactors" sheetId="2" r:id="rId2"/>
     <sheet name="Feed &amp; Media Composition" sheetId="3" r:id="rId3"/>
     <sheet name="PID &amp; Gas Output" sheetId="4" r:id="rId4"/>
+    <sheet name="Reactor Dim" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>Vessel</t>
   </si>
@@ -255,32 +256,81 @@
     <t>Max N (rpm)</t>
   </si>
   <si>
-    <t>ST20</t>
-  </si>
-  <si>
-    <t>ST80</t>
-  </si>
-  <si>
-    <t>ST400</t>
-  </si>
-  <si>
-    <t>ST100</t>
-  </si>
-  <si>
     <t>Concentration in Batch Feed (mM) (3% vv)</t>
   </si>
   <si>
     <t>Concentration in CryoVial</t>
+  </si>
+  <si>
+    <t>Vessel Volume (mL)</t>
+  </si>
+  <si>
+    <t>D (m)</t>
+  </si>
+  <si>
+    <t>H (m)</t>
+  </si>
+  <si>
+    <t>Hydrostatic drop (kPa)</t>
+  </si>
+  <si>
+    <t>Perfusion 20 L</t>
+  </si>
+  <si>
+    <t>Perfusion 100L</t>
+  </si>
+  <si>
+    <t>Perfusion 500L</t>
+  </si>
+  <si>
+    <t>Batch 20L</t>
+  </si>
+  <si>
+    <t>Batch 80L</t>
+  </si>
+  <si>
+    <t>Batch 400L</t>
+  </si>
+  <si>
+    <t>Batch 2000L</t>
+  </si>
+  <si>
+    <t>N Impeller</t>
+  </si>
+  <si>
+    <t>max flow CO2</t>
+  </si>
+  <si>
+    <t>max flow air</t>
+  </si>
+  <si>
+    <t>max Flow O2</t>
+  </si>
+  <si>
+    <t>ST Perf 20</t>
+  </si>
+  <si>
+    <t>ST Perf 100</t>
+  </si>
+  <si>
+    <t>ST Batch 20</t>
+  </si>
+  <si>
+    <t>ST Batch 80</t>
+  </si>
+  <si>
+    <t>ST Batch 400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -299,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -388,46 +438,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,19 +454,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -461,48 +491,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,12 +854,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -984,10 +1018,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1009,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D2CE3-3D89-4AB3-BA7A-E3A4CFD9BA85}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
@@ -1090,22 +1124,22 @@
     <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>80</v>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B2">
@@ -1322,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1337,495 +1371,868 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="H2" s="9" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="41"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="31">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>300</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>10</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27">
+        <v>2289.5093864493401</v>
+      </c>
+      <c r="S4" s="28">
+        <v>326.38210442599001</v>
+      </c>
+      <c r="T4" s="28">
+        <v>3467.55272819728</v>
+      </c>
+      <c r="U4" s="28">
+        <v>4.6200570038971199E-3</v>
+      </c>
+      <c r="V4" s="28">
+        <v>4.2550085526043299E-4</v>
+      </c>
+      <c r="W4" s="28">
+        <v>5.3139903719532904E-3</v>
+      </c>
+      <c r="X4" s="42">
+        <v>91.127393678000701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="31">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>500</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>10</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="27">
+        <v>1495.65166230195</v>
+      </c>
+      <c r="S5" s="28">
+        <v>490.93161425208399</v>
+      </c>
+      <c r="T5" s="28">
+        <v>5284.1821326639401</v>
+      </c>
+      <c r="U5" s="28">
+        <v>4.1419102404373397E-3</v>
+      </c>
+      <c r="V5" s="28">
+        <v>2.1843935623334999E-4</v>
+      </c>
+      <c r="W5" s="28">
+        <v>2.30559738238223E-3</v>
+      </c>
+      <c r="X5" s="42">
+        <v>92.038667614780707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="25">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <v>500</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>10</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="27">
+        <v>93.839267166910403</v>
+      </c>
+      <c r="S6" s="28">
+        <v>14.5315802609725</v>
+      </c>
+      <c r="T6" s="28">
+        <v>93.913502505450495</v>
+      </c>
+      <c r="U6" s="28">
+        <v>5.0402247745511702E-4</v>
+      </c>
+      <c r="V6" s="28">
+        <v>7.6097305204646807E-5</v>
+      </c>
+      <c r="W6" s="28">
+        <v>6.0375491082068999E-4</v>
+      </c>
+      <c r="X6" s="42">
+        <v>146.91796047890901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="31">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>500</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>10</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>93.491266469534594</v>
+      </c>
+      <c r="S7" s="28">
+        <v>14.4941712300609</v>
+      </c>
+      <c r="T7" s="28">
+        <v>93.840217562687201</v>
+      </c>
+      <c r="U7" s="28">
+        <v>5.0263013554254204E-4</v>
+      </c>
+      <c r="V7" s="28">
+        <v>7.6097305204646807E-5</v>
+      </c>
+      <c r="W7" s="28">
+        <v>6.0377253657266795E-4</v>
+      </c>
+      <c r="X7" s="42">
+        <v>116.86468527519899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="25">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="25">
+        <v>2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25">
+        <v>500</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <v>10</v>
+      </c>
+      <c r="M8" s="25">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
+        <v>56.737330637456097</v>
+      </c>
+      <c r="S8" s="28">
+        <v>7.3985114218279904</v>
+      </c>
+      <c r="T8" s="28">
+        <v>5.0444324957423197</v>
+      </c>
+      <c r="U8" s="28">
+        <v>3.08067246131356E-4</v>
+      </c>
+      <c r="V8" s="28">
+        <v>3.9102757678946303E-5</v>
+      </c>
+      <c r="W8" s="28">
+        <v>1.1611381670112299E-4</v>
+      </c>
+      <c r="X8" s="42">
+        <v>145.463327206841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="14">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G9" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+      <c r="I9" s="15">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13">
+        <v>500</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>20</v>
+      </c>
+      <c r="M9" s="13">
+        <v>500</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="27">
+        <v>81.104064901404698</v>
+      </c>
+      <c r="S9" s="28">
+        <v>11.046028887234399</v>
+      </c>
+      <c r="T9" s="28">
+        <v>58.307575278750797</v>
+      </c>
+      <c r="U9" s="28">
+        <v>4.8767541608568698E-4</v>
+      </c>
+      <c r="V9" s="28">
+        <v>6.4431333493765705E-5</v>
+      </c>
+      <c r="W9" s="28">
+        <v>4.5611236970920699E-4</v>
+      </c>
+      <c r="X9" s="42">
+        <v>118.033332127951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="32">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="F10" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2</v>
+      </c>
+      <c r="I10" s="22">
         <v>1</v>
       </c>
-      <c r="I4" s="18">
-        <v>300</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="J10" s="19">
+        <v>500</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
         <v>10</v>
       </c>
-      <c r="L4" s="18">
+      <c r="M10" s="19">
         <v>1000</v>
       </c>
-      <c r="M4" s="21">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="37">
-        <v>2290.1350052541102</v>
-      </c>
-      <c r="R4" s="38">
-        <v>326.472382341951</v>
-      </c>
-      <c r="S4" s="38">
-        <v>3466.8368314765398</v>
-      </c>
-      <c r="T4" s="33">
-        <v>91.127393678000701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D5" s="41">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="F5" s="19">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G5" s="33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18">
-        <v>500</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>10</v>
-      </c>
-      <c r="L5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>1495.99437859866</v>
-      </c>
-      <c r="R5" s="38">
-        <v>490.96905145549499</v>
-      </c>
-      <c r="S5" s="38">
-        <v>5284.2845416525197</v>
-      </c>
-      <c r="T5" s="33">
-        <v>92.038667614780707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="34">
-        <v>0</v>
-      </c>
-      <c r="C6" s="34">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="41">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="E6" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H6" s="36">
-        <v>1</v>
-      </c>
-      <c r="I6" s="34">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="36">
-        <v>10</v>
-      </c>
-      <c r="L6" s="34">
-        <v>100</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="36">
-        <v>0</v>
-      </c>
-      <c r="O6" s="34">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="37">
-        <v>55.6366014088212</v>
-      </c>
-      <c r="R6" s="38">
-        <v>7.2912410455840204</v>
-      </c>
-      <c r="S6" s="38">
-        <v>4.8405897627635603</v>
-      </c>
-      <c r="T6" s="33">
-        <v>145.463327206841</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="24">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D7" s="41">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="F7" s="19">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H7" s="20">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>500</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>20</v>
-      </c>
-      <c r="L7" s="18">
-        <v>500</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0</v>
-      </c>
-      <c r="P7" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="37">
-        <v>81.141075873835604</v>
-      </c>
-      <c r="R7" s="38">
-        <v>10.9381262131011</v>
-      </c>
-      <c r="S7" s="38">
-        <v>57.340827883436702</v>
-      </c>
-      <c r="T7" s="33">
-        <v>118.033332127951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="24">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D8" s="41">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="H8" s="20">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18">
-        <v>500</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>20</v>
-      </c>
-      <c r="L8" s="18">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>0</v>
-      </c>
-      <c r="P8" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="37">
-        <v>163.736149622249</v>
-      </c>
-      <c r="R8" s="38">
-        <v>31.569076689312901</v>
-      </c>
-      <c r="S8" s="38">
-        <v>304.01685149148898</v>
-      </c>
-      <c r="T8" s="33">
-        <v>97.700900307557404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="26">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="42">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0.45</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0.08</v>
-      </c>
-      <c r="G9" s="35">
-        <v>0.45</v>
-      </c>
-      <c r="H9" s="29">
-        <v>1</v>
-      </c>
-      <c r="I9" s="26">
-        <v>500</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
-        <v>10</v>
-      </c>
-      <c r="L9" s="26">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="30">
-        <v>0</v>
-      </c>
-      <c r="N9" s="29">
-        <v>0</v>
-      </c>
-      <c r="O9" s="26">
-        <v>0</v>
-      </c>
-      <c r="P9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>93.491266469534594</v>
-      </c>
-      <c r="R9" s="40">
-        <v>14.4941712300609</v>
-      </c>
-      <c r="S9" s="40">
-        <v>93.840217562687201</v>
-      </c>
-      <c r="T9" s="35">
-        <v>116.86468527519899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
+        <v>152.94146600386699</v>
+      </c>
+      <c r="S10" s="30">
+        <v>32.445441066469499</v>
+      </c>
+      <c r="T10" s="30">
+        <v>324.33771402027799</v>
+      </c>
+      <c r="U10" s="30">
+        <v>7.9868056452813698E-4</v>
+      </c>
+      <c r="V10" s="30">
+        <v>1.67663596182553E-4</v>
+      </c>
+      <c r="W10" s="30">
+        <v>1.8177574074561701E-3</v>
+      </c>
+      <c r="X10" s="43">
+        <v>90.225142255446201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="33">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="34">
+        <f>C3</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D2" s="34">
+        <f>B2/1000000/(C2^2*PI()/4)</f>
+        <v>0.13184415301017743</v>
+      </c>
+      <c r="E2" s="35">
+        <f>D2*9.8</f>
+        <v>1.2920726994997389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="33">
+        <v>100000</v>
+      </c>
+      <c r="C3" s="34">
+        <f>(B3*4/(1.5*PI()))^(1/3)/100</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D3" s="34">
+        <f>C3*1.5</f>
+        <v>0.65922076505088656</v>
+      </c>
+      <c r="E3" s="35">
+        <f t="shared" ref="E3:E4" si="0">D3*9.8</f>
+        <v>6.4603634974986885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="33">
+        <v>500000</v>
+      </c>
+      <c r="C4" s="34">
+        <f>(B4*4/(1.5*PI()))^(1/3)/100</f>
+        <v>0.75150110119121716</v>
+      </c>
+      <c r="D4" s="34">
+        <f>C4*1.5</f>
+        <v>1.1272516517868256</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" si="0"/>
+        <v>11.047066187510891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="33">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="34">
+        <f>(B5*4/(3*PI()))^(1/3)/100</f>
+        <v>0.20398878279639124</v>
+      </c>
+      <c r="D5" s="34">
+        <f>C5*3</f>
+        <v>0.61196634838917374</v>
+      </c>
+      <c r="E5" s="35">
+        <f>D5*9.8</f>
+        <v>5.9972702142139029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="33">
+        <v>80000</v>
+      </c>
+      <c r="C6" s="34">
+        <f>(B6*4/(3*PI()))^(1/3)/100</f>
+        <v>0.32381200840070401</v>
+      </c>
+      <c r="D6" s="34">
+        <f>C6*3</f>
+        <v>0.97143602520211203</v>
+      </c>
+      <c r="E6" s="35">
+        <f>D6*9.8</f>
+        <v>9.5200730469806985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="33">
+        <v>400000</v>
+      </c>
+      <c r="C7" s="34">
+        <f>(B7*4/(3*PI()))^(1/3)/100</f>
+        <v>0.55371074561027633</v>
+      </c>
+      <c r="D7" s="34">
+        <f>C7*3</f>
+        <v>1.661132236830829</v>
+      </c>
+      <c r="E7" s="35">
+        <f>D7*9.8</f>
+        <v>16.279095920942126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="C8" s="34">
+        <f>(B8*4/(3*PI()))^(1/3)/100</f>
+        <v>0.94683205640999235</v>
+      </c>
+      <c r="D8" s="34">
+        <f>C8*3</f>
+        <v>2.8404961692299771</v>
+      </c>
+      <c r="E8" s="35">
+        <f>D8*9.8</f>
+        <v>27.836862458453776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D7A25-B066-49AF-A312-CCC2E315CB0B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847582B-7B04-43A6-A523-70BE0854420A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -521,11 +521,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,8 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,10 +1018,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="40"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D2CE3-3D89-4AB3-BA7A-E3A4CFD9BA85}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,30 +1426,30 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="39" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="39" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="39" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="41"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="43"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="13">
@@ -1595,34 +1595,34 @@
       <c r="W4" s="28">
         <v>5.3139903719532904E-3</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="38">
         <v>91.127393678000701</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
       </c>
       <c r="C5" s="18">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D5" s="31">
-        <v>6.4999999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E5" s="14">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="F5" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G5" s="14">
         <v>0.35</v>
       </c>
       <c r="H5" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -1652,45 +1652,45 @@
         <v>0</v>
       </c>
       <c r="R5" s="27">
-        <v>1495.65166230195</v>
+        <v>2260.9852685870001</v>
       </c>
       <c r="S5" s="28">
-        <v>490.93161425208399</v>
+        <v>753.64441953649498</v>
       </c>
       <c r="T5" s="28">
-        <v>5284.1821326639401</v>
+        <v>8552.2953113250205</v>
       </c>
       <c r="U5" s="28">
-        <v>4.1419102404373397E-3</v>
+        <v>7.0671103760055398E-3</v>
       </c>
       <c r="V5" s="28">
-        <v>2.1843935623334999E-4</v>
+        <v>3.3795053019845198E-4</v>
       </c>
       <c r="W5" s="28">
-        <v>2.30559738238223E-3</v>
-      </c>
-      <c r="X5" s="42">
-        <v>92.038667614780707</v>
+        <v>3.7562664311527301E-3</v>
+      </c>
+      <c r="X5" s="38">
+        <v>134.332942161972</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="25">
         <v>0</v>
       </c>
       <c r="C6" s="25">
-        <v>6.0000000000000001E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D6" s="25">
-        <v>6.7999999999999996E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E6" s="25">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F6" s="25">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G6" s="25">
         <v>0.45</v>
@@ -1726,51 +1726,51 @@
         <v>0</v>
       </c>
       <c r="R6" s="27">
-        <v>93.839267166910403</v>
+        <v>184.67588778241</v>
       </c>
       <c r="S6" s="28">
-        <v>14.5315802609725</v>
+        <v>21.136100892021599</v>
       </c>
       <c r="T6" s="28">
-        <v>93.913502505450495</v>
+        <v>114.59261585334799</v>
       </c>
       <c r="U6" s="28">
-        <v>5.0402247745511702E-4</v>
+        <v>1.0166427943908501E-3</v>
       </c>
       <c r="V6" s="28">
-        <v>7.6097305204646807E-5</v>
+        <v>1.12981010682594E-4</v>
       </c>
       <c r="W6" s="28">
-        <v>6.0375491082068999E-4</v>
-      </c>
-      <c r="X6" s="42">
-        <v>146.91796047890901</v>
+        <v>9.6362866380362503E-4</v>
+      </c>
+      <c r="X6" s="38">
+        <v>114.561989290461</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="25">
         <v>0</v>
       </c>
       <c r="C7" s="25">
-        <v>6.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D7" s="31">
-        <v>6.7999999999999996E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E7" s="25">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F7" s="25">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G7" s="25">
         <v>0.45</v>
       </c>
       <c r="H7" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="26">
         <v>1</v>
@@ -1800,29 +1800,29 @@
         <v>0</v>
       </c>
       <c r="R7" s="27">
-        <v>93.491266469534594</v>
+        <v>167.088411900224</v>
       </c>
       <c r="S7" s="28">
-        <v>14.4941712300609</v>
+        <v>21.148953923110302</v>
       </c>
       <c r="T7" s="28">
-        <v>93.840217562687201</v>
+        <v>131.44069765109401</v>
       </c>
       <c r="U7" s="28">
-        <v>5.0263013554254204E-4</v>
+        <v>9.1452646933185401E-4</v>
       </c>
       <c r="V7" s="28">
-        <v>7.6097305204646807E-5</v>
+        <v>1.11371208677654E-4</v>
       </c>
       <c r="W7" s="28">
-        <v>6.0377253657266795E-4</v>
-      </c>
-      <c r="X7" s="42">
-        <v>116.86468527519899</v>
+        <v>9.7416184818438598E-4</v>
+      </c>
+      <c r="X7" s="38">
+        <v>126.547708101365</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="25">
@@ -1891,12 +1891,12 @@
       <c r="W8" s="28">
         <v>1.1611381670112299E-4</v>
       </c>
-      <c r="X8" s="42">
+      <c r="X8" s="38">
         <v>145.463327206841</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="13">
@@ -1912,7 +1912,7 @@
         <v>0.45</v>
       </c>
       <c r="F9" s="14">
-        <v>7.1999999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G9" s="14">
         <v>0.55000000000000004</v>
@@ -1948,29 +1948,29 @@
         <v>0</v>
       </c>
       <c r="R9" s="27">
-        <v>81.104064901404698</v>
+        <v>81.108840781181698</v>
       </c>
       <c r="S9" s="28">
-        <v>11.046028887234399</v>
+        <v>11.0640495696386</v>
       </c>
       <c r="T9" s="28">
-        <v>58.307575278750797</v>
+        <v>58.284778716569598</v>
       </c>
       <c r="U9" s="28">
-        <v>4.8767541608568698E-4</v>
+        <v>4.8767018199222001E-4</v>
       </c>
       <c r="V9" s="28">
-        <v>6.4431333493765705E-5</v>
+        <v>6.55786696603339E-5</v>
       </c>
       <c r="W9" s="28">
-        <v>4.5611236970920699E-4</v>
-      </c>
-      <c r="X9" s="42">
+        <v>4.4930211738727498E-4</v>
+      </c>
+      <c r="X9" s="38">
         <v>118.033332127951</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="19">
@@ -1986,7 +1986,7 @@
         <v>0.45</v>
       </c>
       <c r="F10" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G10" s="20">
         <v>0.35</v>
@@ -2022,24 +2022,24 @@
         <v>0</v>
       </c>
       <c r="R10" s="29">
-        <v>152.94146600386699</v>
+        <v>152.93776307011899</v>
       </c>
       <c r="S10" s="30">
-        <v>32.445441066469499</v>
+        <v>32.431468898795202</v>
       </c>
       <c r="T10" s="30">
-        <v>324.33771402027799</v>
+        <v>324.35538912170102</v>
       </c>
       <c r="U10" s="30">
-        <v>7.9868056452813698E-4</v>
+        <v>7.9868301603877503E-4</v>
       </c>
       <c r="V10" s="30">
-        <v>1.67663596182553E-4</v>
+        <v>1.5977092882234E-4</v>
       </c>
       <c r="W10" s="30">
-        <v>1.8177574074561701E-3</v>
-      </c>
-      <c r="X10" s="43">
+        <v>1.829851947594E-3</v>
+      </c>
+      <c r="X10" s="39">
         <v>90.225142255446201</v>
       </c>
     </row>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847582B-7B04-43A6-A523-70BE0854420A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78989EBC-B076-4BD9-BD25-27B12CB76607}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>Vessel</t>
   </si>
   <si>
-    <t>20L</t>
-  </si>
-  <si>
     <t>80 L</t>
   </si>
   <si>
@@ -79,30 +76,6 @@
     <t>0.14976 ASN + 0.013544 C_C + 1 GLC + 0.082288 GLN + 0.23308 O2 + 0.058009 SER --&gt; 0.047775 ALA + 0.098059 ANTI + 0.01121 ASP + 0.54856 BIOM + 0.49974 CO2 + 0.068901 GLU + 0.0065587 GLY + 0.54516 LAC + 0.0061431 NH3 + 0.29542 H2O</t>
   </si>
   <si>
-    <t>0.1483 ASN + 0.011884 C_C + 1 GLC + 0.067854 GLN + 0.19627 O2 + 0.051883 SER --&gt; 0.045686 ALA + 0.10715 ANTI + 0.018108 ASP + 0.45788 BIOM + 0.42109 CO2 + 0.065638 GLU + 0.0063276 GLY + 0.60986 LAC + 0.0065008 NH3 + 0.26204 H2O</t>
-  </si>
-  <si>
-    <t>0.15132 ASN + 0.013801 C_C + 1 GLC + 0.084315 GLN + 0.23876 O2 + 0.059343 SER --&gt; 0.046833 ALA + 0.099362 ANTI + 0.011453 ASP + 0.55955 BIOM + 0.51067 CO2 + 0.06998 GLU + 0.0070431 GLY + 0.5368 LAC + 0.0063685 NH3 + 0.30052 H2O</t>
-  </si>
-  <si>
-    <t>0.15018 ASN + 0.013709 C_C + 1 GLC + 0.083829 GLN + 0.23672 O2 + 0.058693 SER --&gt; 0.04739 ALA + 0.098307 ANTI + 0.011062 ASP + 0.55629 BIOM + 0.50706 CO2 + 0.069139 GLU + 0.0066442 GLY + 0.53977 LAC + 0.0062615 NH3 + 0.2988 H2O</t>
-  </si>
-  <si>
-    <t>0.1501 ASN + 0.013679 C_C + 1 GLC + 0.083519 GLN + 0.23606 O2 + 0.058535 SER --&gt; 0.047505 ALA + 0.098095 ANTI + 0.011085 ASP + 0.55506 BIOM + 0.50581 CO2 + 0.069002 GLU + 0.0065882 GLY + 0.54071 LAC + 0.0062397 NH3 + 0.2982 H2O</t>
-  </si>
-  <si>
-    <t>0.15035 ASN + 0.013755 C_C + 1 GLC + 0.08435 GLN + 0.23773 O2 + 0.058842 SER --&gt; 0.047359 ALA + 0.097938 ANTI + 0.011007 ASP + 0.55889 BIOM + 0.50928 CO2 + 0.069234 GLU + 0.0066307 GLY + 0.53817 LAC + 0.0063173 NH3 + 0.2998 H2O</t>
-  </si>
-  <si>
-    <t>0.1502 ASN + 0.013723 C_C + 1 GLC + 0.083978 GLN + 0.23702 O2 + 0.058702 SER --&gt; 0.047424 ALA + 0.098008 ANTI + 0.011041 ASP + 0.55725 BIOM + 0.5078 CO2 + 0.06905 GLU + 0.0065994 GLY + 0.53928 LAC + 0.0062798 NH3 + 0.29912 H2O</t>
-  </si>
-  <si>
-    <t>0.15013 ASN + 0.013714 C_C + 1 GLC + 0.08394 GLN + 0.23682 O2 + 0.058665 SER --&gt; 0.047444 ALA + 0.097999 ANTI + 0.011035 ASP + 0.55683 BIOM + 0.5074 CO2 + 0.069023 GLU + 0.0065943 GLY + 0.5396 LAC + 0.0062739 NH3 + 0.29894 H2O</t>
-  </si>
-  <si>
-    <t>0.14973 ASN + 0.013545 C_C + 1 GLC + 0.082319 GLN + 0.2331 O2 + 0.058012 SER --&gt; 0.047771 ALA + 0.098049 ANTI + 0.011196 ASP + 0.5486 BIOM + 0.49977 CO2 + 0.068909 GLU + 0.0065596 GLY + 0.54515 LAC + 0.006144 NH3 + 0.29544 H2O</t>
-  </si>
-  <si>
     <t>rxn</t>
   </si>
   <si>
@@ -320,6 +293,39 @@
   </si>
   <si>
     <t>ST Batch 400</t>
+  </si>
+  <si>
+    <t>'0.1483 ASN + 0.011884 C_C + 1 GLC + 0.067854 GLN + 0.19627 O2 + 0.051883 SER --&gt; 0.045686 ALA + 0.10715 ANTI + 0.018108 ASP + 0.45788 BIOM + 0.42109 CO2 + 0.065638 GLU + 0.0063276 GLY + 0.60986 LAC + 0.0065008 NH3 + 0.26204 H2O'</t>
+  </si>
+  <si>
+    <t>'0.15132 ASN + 0.013801 C_C + 1 GLC + 0.084315 GLN + 0.23876 O2 + 0.059343 SER --&gt; 0.046833 ALA + 0.099362 ANTI + 0.011453 ASP + 0.55955 BIOM + 0.51067 CO2 + 0.06998 GLU + 0.0070431 GLY + 0.5368 LAC + 0.0063685 NH3 + 0.30052 H2O'</t>
+  </si>
+  <si>
+    <t>'0.15018 ASN + 0.013709 C_C + 1 GLC + 0.083829 GLN + 0.23672 O2 + 0.058693 SER --&gt; 0.04739 ALA + 0.098307 ANTI + 0.011062 ASP + 0.55629 BIOM + 0.50706 CO2 + 0.069139 GLU + 0.0066442 GLY + 0.53977 LAC + 0.0062615 NH3 + 0.2988 H2O'</t>
+  </si>
+  <si>
+    <t>'0.1501 ASN + 0.013679 C_C + 1 GLC + 0.083519 GLN + 0.23606 O2 + 0.058535 SER --&gt; 0.047505 ALA + 0.098095 ANTI + 0.011085 ASP + 0.55506 BIOM + 0.50581 CO2 + 0.069002 GLU + 0.0065882 GLY + 0.54071 LAC + 0.0062397 NH3 + 0.2982 H2O'</t>
+  </si>
+  <si>
+    <t>'0.1502 ASN + 0.013723 C_C + 1 GLC + 0.083978 GLN + 0.23702 O2 + 0.058702 SER --&gt; 0.047424 ALA + 0.098008 ANTI + 0.011041 ASP + 0.55725 BIOM + 0.5078 CO2 + 0.06905 GLU + 0.0065994 GLY + 0.53928 LAC + 0.0062798 NH3 + 0.29912 H2O'</t>
+  </si>
+  <si>
+    <t>'0.15013 ASN + 0.013714 C_C + 1 GLC + 0.08394 GLN + 0.23682 O2 + 0.058665 SER --&gt; 0.047444 ALA + 0.097999 ANTI + 0.011035 ASP + 0.55683 BIOM + 0.5074 CO2 + 0.069023 GLU + 0.0065943 GLY + 0.5396 LAC + 0.0062739 NH3 + 0.29894 H2O'</t>
+  </si>
+  <si>
+    <t>'0.14976 ASN + 0.013544 C_C + 1 GLC + 0.082288 GLN + 0.23308 O2 + 0.058009 SER --&gt; 0.047775 ALA + 0.098059 ANTI + 0.01121 ASP + 0.54856 BIOM + 0.49974 CO2 + 0.068901 GLU + 0.0065587 GLY + 0.54516 LAC + 0.0061431 NH3 + 0.29542 H2O'</t>
+  </si>
+  <si>
+    <t>'0.15035 ASN + 0.013755 C_C + 1 GLC + 0.08435 GLN + 0.23773 O2 + 0.058842 SER --&gt; 0.047359 ALA + 0.097938 ANTI + 0.011007 ASP + 0.55889 BIOM + 0.50928 CO2 + 0.069234 GLU + 0.0066307 GLY + 0.53817 LAC + 0.0063173 NH3 + 0.2998 H2O'</t>
+  </si>
+  <si>
+    <t>'0.14973 ASN + 0.013545 C_C + 1 GLC + 0.082319 GLN + 0.2331 O2 + 0.058012 SER --&gt; 0.047771 ALA + 0.098049 ANTI + 0.011196 ASP + 0.5486 BIOM + 0.49977 CO2 + 0.068909 GLU + 0.0065596 GLY + 0.54515 LAC + 0.006144 NH3 + 0.29544 H2O'</t>
+  </si>
+  <si>
+    <t>20L (batch)</t>
+  </si>
+  <si>
+    <t>20 L</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -537,6 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDBD7ED-5FE1-4A26-8155-C2FD3E504F3F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,18 +875,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2.6</v>
@@ -888,12 +895,12 @@
         <v>0.59709999999999996</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2.0699999999999998</v>
@@ -902,12 +909,12 @@
         <v>0.43630000000000002</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2.1349999999999998</v>
@@ -916,12 +923,12 @@
         <v>0.4229</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2.19</v>
@@ -930,12 +937,12 @@
         <v>0.42280000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2.125</v>
@@ -944,12 +951,12 @@
         <v>0.4163</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2.125</v>
@@ -958,12 +965,12 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>2.4550000000000001</v>
@@ -972,12 +979,12 @@
         <v>0.44030000000000002</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2.12</v>
@@ -986,12 +993,12 @@
         <v>0.41470000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2.4550000000000001</v>
@@ -1000,26 +1007,40 @@
         <v>0.44019999999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
+      <c r="A11" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="B11">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.44030000000000002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.43930000000000002</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="40"/>
     </row>
@@ -1028,7 +1049,7 @@
         <v>25.799999999999997</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1054,24 +1075,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1083,12 +1104,12 @@
         <v>0.81659999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -1100,7 +1121,7 @@
         <v>0.44290000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1126,21 +1147,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0.67</v>
@@ -1154,7 +1175,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1168,7 +1189,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>20.27</v>
@@ -1182,7 +1203,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2.0499999999999998</v>
@@ -1196,7 +1217,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1211,7 +1232,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1.5</v>
@@ -1225,7 +1246,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1.7481</v>
@@ -1239,7 +1260,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>73</v>
@@ -1253,7 +1274,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>3.9</v>
@@ -1267,7 +1288,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0.62</v>
@@ -1281,7 +1302,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>3.3</v>
@@ -1295,7 +1316,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1309,7 +1330,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1323,7 +1344,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>0.41889999999999999</v>
@@ -1337,7 +1358,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>11.06</v>
@@ -1358,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1412,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1427,22 +1448,22 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="41" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
       <c r="L2" s="41" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
       <c r="O2" s="41" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P2" s="42"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="41" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -1453,81 +1474,81 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="Q3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="R3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="S3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="T3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="U3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -1601,7 +1622,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
@@ -1675,7 +1696,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B6" s="25">
         <v>0</v>
@@ -1749,7 +1770,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B7" s="25">
         <v>0</v>
@@ -1823,7 +1844,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B8" s="25">
         <v>0</v>
@@ -1897,7 +1918,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B9" s="13">
         <v>0</v>
@@ -1971,7 +1992,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B10" s="19">
         <v>0</v>
@@ -2080,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B2" s="33">
         <v>20000</v>
@@ -2114,7 +2135,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B3" s="33">
         <v>100000</v>
@@ -2134,7 +2155,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B4" s="33">
         <v>500000</v>
@@ -2154,7 +2175,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B5" s="33">
         <v>20000</v>
@@ -2174,7 +2195,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B6" s="33">
         <v>80000</v>
@@ -2194,7 +2215,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B7" s="33">
         <v>400000</v>
@@ -2214,7 +2235,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B8" s="33">
         <v>2000000</v>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78989EBC-B076-4BD9-BD25-27B12CB76607}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB536F0-1519-4202-B2BB-E7E0336BBFD7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDBD7ED-5FE1-4A26-8155-C2FD3E504F3F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,15 +2084,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB536F0-1519-4202-B2BB-E7E0336BBFD7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F9BF54-0775-429A-B3D5-6515D72A5559}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="3" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
     <sheet name="Reactors" sheetId="2" r:id="rId2"/>
     <sheet name="Feed &amp; Media Composition" sheetId="3" r:id="rId3"/>
     <sheet name="PID &amp; Gas Output" sheetId="4" r:id="rId4"/>
-    <sheet name="Reactor Dim" sheetId="5" r:id="rId5"/>
+    <sheet name="Reactor Heating" sheetId="6" r:id="rId5"/>
+    <sheet name="Reactor Dim" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>Vessel</t>
   </si>
@@ -326,6 +327,36 @@
   </si>
   <si>
     <t>20 L</t>
+  </si>
+  <si>
+    <t>Min Eddy size (micro m)</t>
+  </si>
+  <si>
+    <t>Pre Shift Jacket Feed Temp</t>
+  </si>
+  <si>
+    <t>Post Shift Jacket Feed Temp</t>
+  </si>
+  <si>
+    <t>Jacket Volume (L)</t>
+  </si>
+  <si>
+    <t>Jacket Flow Rate (L/s)</t>
+  </si>
+  <si>
+    <t>Min T Before Shift</t>
+  </si>
+  <si>
+    <t>Max T Before Shift</t>
+  </si>
+  <si>
+    <t>Min T After Shift</t>
+  </si>
+  <si>
+    <t>Max T After Shift</t>
+  </si>
+  <si>
+    <t>Total Duty (J)</t>
   </si>
 </sst>
 </file>
@@ -347,15 +378,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -480,11 +517,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -505,14 +581,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -529,8 +603,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,10 +615,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,16 +961,16 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -898,7 +998,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -912,7 +1012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -926,7 +1026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -940,7 +1040,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -954,7 +1054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -968,7 +1068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
@@ -982,7 +1082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -996,7 +1096,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1010,8 +1110,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B11">
@@ -1024,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1038,13 +1138,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="40"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25.799999999999997</v>
       </c>
@@ -1068,12 +1168,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1137,15 +1237,15 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
@@ -1155,11 +1255,11 @@
       <c r="C1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1187,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1215,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1230,7 +1330,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1272,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1286,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1328,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1342,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1377,102 +1477,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="41" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+    </row>
+    <row r="2" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="41" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
       <c r="X2" s="43"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="44"/>
+    </row>
+    <row r="3" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1521,7 +1616,7 @@
       <c r="P3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>61</v>
       </c>
       <c r="R3" s="12" t="s">
@@ -1542,21 +1637,24 @@
       <c r="W3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="Y3" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E4" s="14">
@@ -1595,42 +1693,45 @@
       <c r="P4" s="13">
         <v>0</v>
       </c>
-      <c r="Q4" s="16">
-        <v>0</v>
-      </c>
-      <c r="R4" s="27">
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
         <v>2289.5093864493401</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="26">
         <v>326.38210442599001</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="26">
         <v>3467.55272819728</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="26">
         <v>4.6200570038971199E-3</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="26">
         <v>4.2550085526043299E-4</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="26">
         <v>5.3139903719532904E-3</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="37">
         <v>91.127393678000701</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="Y4" s="3">
+        <v>43.261320828720699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E5" s="14">
@@ -1669,264 +1770,276 @@
       <c r="P5" s="13">
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="27">
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
         <v>2260.9852685870001</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="26">
         <v>753.64441953649498</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="26">
         <v>8552.2953113250205</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="26">
         <v>7.0671103760055398E-3</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="26">
         <v>3.3795053019845198E-4</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="26">
         <v>3.7562664311527301E-3</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="37">
         <v>134.332942161972</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="Y5" s="3">
+        <v>47.507993206739101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="25">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="23">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>0.36</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="23">
         <v>0.45</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>1</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>1</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="23">
         <v>500</v>
       </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26">
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
         <v>10</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="23">
         <v>1000</v>
       </c>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0</v>
-      </c>
-      <c r="P6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="27">
-        <v>184.67588778241</v>
-      </c>
-      <c r="S6" s="28">
-        <v>21.136100892021599</v>
-      </c>
-      <c r="T6" s="28">
-        <v>114.59261585334799</v>
-      </c>
-      <c r="U6" s="28">
-        <v>1.0166427943908501E-3</v>
-      </c>
-      <c r="V6" s="28">
-        <v>1.12981010682594E-4</v>
-      </c>
-      <c r="W6" s="28">
-        <v>9.6362866380362503E-4</v>
-      </c>
-      <c r="X6" s="38">
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>231.027168398382</v>
+      </c>
+      <c r="S6" s="26">
+        <v>18.562111227642902</v>
+      </c>
+      <c r="T6" s="26">
+        <v>71.517110254851801</v>
+      </c>
+      <c r="U6" s="26">
+        <v>1.29648057193552E-3</v>
+      </c>
+      <c r="V6" s="26">
+        <v>1.13209194699769E-4</v>
+      </c>
+      <c r="W6" s="26">
+        <v>9.6507230400850303E-4</v>
+      </c>
+      <c r="X6" s="37">
         <v>114.561989290461</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="Y6" s="3">
+        <v>59.550522390457303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="25">
-        <v>0</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B7" s="23">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>0.36</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="23">
         <v>0.45</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>1</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>1</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>500</v>
       </c>
-      <c r="K7" s="25">
-        <v>0</v>
-      </c>
-      <c r="L7" s="26">
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
         <v>10</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="23">
         <v>1000</v>
       </c>
-      <c r="N7" s="25">
-        <v>0</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="27">
-        <v>167.088411900224</v>
-      </c>
-      <c r="S7" s="28">
-        <v>21.148953923110302</v>
-      </c>
-      <c r="T7" s="28">
-        <v>131.44069765109401</v>
-      </c>
-      <c r="U7" s="28">
-        <v>9.1452646933185401E-4</v>
-      </c>
-      <c r="V7" s="28">
-        <v>1.11371208677654E-4</v>
-      </c>
-      <c r="W7" s="28">
-        <v>9.7416184818438598E-4</v>
-      </c>
-      <c r="X7" s="38">
+      <c r="N7" s="23">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>206.98110265419101</v>
+      </c>
+      <c r="S7" s="26">
+        <v>18.941672151772899</v>
+      </c>
+      <c r="T7" s="26">
+        <v>94.455482671555203</v>
+      </c>
+      <c r="U7" s="26">
+        <v>1.15548822568161E-3</v>
+      </c>
+      <c r="V7" s="26">
+        <v>1.05720529760361E-4</v>
+      </c>
+      <c r="W7" s="26">
+        <v>9.7531859873896301E-4</v>
+      </c>
+      <c r="X7" s="37">
         <v>126.547708101365</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="Y7" s="3">
+        <v>55.2681938511654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <v>0.5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <v>0.12</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="23">
         <v>0.7</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>2</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>1</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="23">
         <v>500</v>
       </c>
-      <c r="K8" s="25">
-        <v>0</v>
-      </c>
-      <c r="L8" s="26">
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="L8" s="24">
         <v>10</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="23">
         <v>1000</v>
       </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
-      <c r="O8" s="26">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="27">
+      <c r="N8" s="23">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
         <v>56.737330637456097</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="26">
         <v>7.3985114218279904</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="26">
         <v>5.0444324957423197</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="26">
         <v>3.08067246131356E-4</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="26">
         <v>3.9102757678946303E-5</v>
       </c>
-      <c r="W8" s="28">
+      <c r="W8" s="26">
         <v>1.1611381670112299E-4</v>
       </c>
-      <c r="X8" s="38">
+      <c r="X8" s="37">
         <v>145.463327206841</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="Y8" s="3">
+        <v>41.942236686282399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E9" s="14">
@@ -1965,137 +2078,427 @@
       <c r="P9" s="13">
         <v>0</v>
       </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="27">
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
         <v>81.108840781181698</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="26">
         <v>11.0640495696386</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="26">
         <v>58.284778716569598</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="26">
         <v>4.8767018199222001E-4</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="26">
         <v>6.55786696603339E-5</v>
       </c>
-      <c r="W9" s="28">
+      <c r="W9" s="26">
         <v>4.4930211738727498E-4</v>
       </c>
-      <c r="X9" s="38">
+      <c r="X9" s="37">
         <v>118.033332127951</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="Y9" s="3">
+        <v>43.3637076844864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19">
-        <v>0</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>0.45</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>0.35</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>2</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <v>1</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>500</v>
       </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
         <v>10</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <v>1000</v>
       </c>
-      <c r="N10" s="19">
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>0</v>
-      </c>
-      <c r="R10" s="29">
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="27">
         <v>152.93776307011899</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="28">
         <v>32.431468898795202</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T10" s="28">
         <v>324.35538912170102</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="28">
         <v>7.9868301603877503E-4</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="28">
         <v>1.5977092882234E-4</v>
       </c>
-      <c r="W10" s="30">
+      <c r="W10" s="28">
         <v>1.829851947594E-3</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="38">
         <v>90.225142255446201</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="Y10" s="2">
+        <v>39.515087305645999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U12" s="31"/>
+      <c r="W12" s="31"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U15" s="31"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="R2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43169691-B23A-4265-B676-8F187760D4B1}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="F2" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="23">
+        <v>36.5</v>
+      </c>
+      <c r="C4" s="23">
+        <v>30.5</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>22</v>
+      </c>
+      <c r="F4" s="24">
+        <v>36.592567572438803</v>
+      </c>
+      <c r="G4" s="23">
+        <v>37.2312696208365</v>
+      </c>
+      <c r="H4" s="23">
+        <v>31.1437958420656</v>
+      </c>
+      <c r="I4" s="23">
+        <v>31.445205735232399</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1167229732.08617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="23">
+        <v>36.5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>29.5</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>18</v>
+      </c>
+      <c r="F5" s="24">
+        <v>36.481675964937502</v>
+      </c>
+      <c r="G5" s="23">
+        <v>37.494771043852097</v>
+      </c>
+      <c r="H5" s="23">
+        <v>30.660168947758301</v>
+      </c>
+      <c r="I5" s="23">
+        <v>31.2098393659283</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3365133673.1628098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="23">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>10</v>
+      </c>
+      <c r="F6" s="24">
+        <v>36.806747602328201</v>
+      </c>
+      <c r="G6" s="23">
+        <v>37</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="55">
+        <v>-4338596.2089324398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="23">
+        <v>37</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>15</v>
+      </c>
+      <c r="F7" s="24">
+        <v>36.949941360231399</v>
+      </c>
+      <c r="G7" s="23">
+        <v>37.037509595048903</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="55">
+        <v>-683094.04759064899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="23">
+        <v>37</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>10</v>
+      </c>
+      <c r="F8" s="24">
+        <v>36.972840967377103</v>
+      </c>
+      <c r="G8" s="23">
+        <v>37.018061063235798</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="55">
+        <v>-146296.83817255599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="23">
+        <v>37</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24">
+        <v>36.983424155856198</v>
+      </c>
+      <c r="G9" s="23">
+        <v>37.049588238855002</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="55">
+        <v>967802.336210376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1">
+        <v>37</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+      <c r="F10" s="51">
+        <v>36.991359445650701</v>
+      </c>
+      <c r="G10" s="1">
+        <v>37.124308429397701</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="56">
+        <v>9557874.4047890399</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2112,142 +2515,142 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>20000</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="32">
         <f>C3</f>
         <v>0.43948051003392441</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="32">
         <f>B2/1000000/(C2^2*PI()/4)</f>
         <v>0.13184415301017743</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="33">
         <f>D2*9.8</f>
         <v>1.2920726994997389</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>100000</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="32">
         <f>(B3*4/(1.5*PI()))^(1/3)/100</f>
         <v>0.43948051003392441</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="32">
         <f>C3*1.5</f>
         <v>0.65922076505088656</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <f t="shared" ref="E3:E4" si="0">D3*9.8</f>
         <v>6.4603634974986885</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>500000</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="32">
         <f>(B4*4/(1.5*PI()))^(1/3)/100</f>
         <v>0.75150110119121716</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="32">
         <f>C4*1.5</f>
         <v>1.1272516517868256</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
         <v>11.047066187510891</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>20000</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="32">
         <f>(B5*4/(3*PI()))^(1/3)/100</f>
         <v>0.20398878279639124</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <f>C5*3</f>
         <v>0.61196634838917374</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <f>D5*9.8</f>
         <v>5.9972702142139029</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>80000</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <f>(B6*4/(3*PI()))^(1/3)/100</f>
         <v>0.32381200840070401</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <f>C6*3</f>
         <v>0.97143602520211203</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <f>D6*9.8</f>
         <v>9.5200730469806985</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>400000</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <f>(B7*4/(3*PI()))^(1/3)/100</f>
         <v>0.55371074561027633</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <f>C7*3</f>
         <v>1.661132236830829</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <f>D7*9.8</f>
         <v>16.279095920942126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>2000000</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <f>(B8*4/(3*PI()))^(1/3)/100</f>
         <v>0.94683205640999235</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <f>C8*3</f>
         <v>2.8404961692299771</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <f>D8*9.8</f>
         <v>27.836862458453776</v>
       </c>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F9BF54-0775-429A-B3D5-6515D72A5559}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31A9517-A612-443D-8081-B06295BDC560}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="3" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="3" activeTab="4" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -606,24 +606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -644,6 +626,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,10 +1139,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1479,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -1541,31 +1541,31 @@
       <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="40" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="40" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="44"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2217,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43169691-B23A-4265-B676-8F187760D4B1}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,48 +2239,48 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="23">
@@ -2312,7 +2312,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="23">
@@ -2328,29 +2328,29 @@
         <v>18</v>
       </c>
       <c r="F5" s="24">
-        <v>36.481675964937502</v>
+        <v>36.494147107463299</v>
       </c>
       <c r="G5" s="23">
-        <v>37.494771043852097</v>
+        <v>37.485239175019402</v>
       </c>
       <c r="H5" s="23">
-        <v>30.660168947758301</v>
+        <v>30.829038979634799</v>
       </c>
       <c r="I5" s="23">
-        <v>31.2098393659283</v>
+        <v>31.352023482288899</v>
       </c>
       <c r="J5" s="3">
-        <v>3365133673.1628098</v>
+        <v>3653682032.5007401</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="23">
         <v>37.200000000000003</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="23">
         <v>0.1</v>
       </c>
@@ -2363,20 +2363,20 @@
       <c r="G6" s="23">
         <v>37</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="55">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="49">
         <v>-4338596.2089324398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="47" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="23">
         <v>37</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="23">
         <v>1</v>
       </c>
@@ -2389,20 +2389,20 @@
       <c r="G7" s="23">
         <v>37.037509595048903</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="55">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="49">
         <v>-683094.04759064899</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="47" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="23">
         <v>37</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="23">
         <v>0.1</v>
       </c>
@@ -2415,20 +2415,20 @@
       <c r="G8" s="23">
         <v>37.018061063235798</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="55">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="49">
         <v>-146296.83817255599</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="23">
         <v>37</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="23">
         <v>1</v>
       </c>
@@ -2441,35 +2441,35 @@
       <c r="G9" s="23">
         <v>37.049588238855002</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="55">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="49">
         <v>967802.336210376</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="48" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="1">
         <v>37</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>18</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="45">
         <v>36.991359445650701</v>
       </c>
       <c r="G10" s="1">
         <v>37.124308429397701</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="56">
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="50">
         <v>9557874.4047890399</v>
       </c>
     </row>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31A9517-A612-443D-8081-B06295BDC560}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EEAFFD-B707-436D-B2B8-D21341DBEADD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="3" activeTab="4" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="5" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
   <si>
     <t>Vessel</t>
   </si>
@@ -357,6 +357,54 @@
   </si>
   <si>
     <t>Total Duty (J)</t>
+  </si>
+  <si>
+    <t>min Flow O2</t>
+  </si>
+  <si>
+    <t>min flow CO2</t>
+  </si>
+  <si>
+    <t>min flow air</t>
+  </si>
+  <si>
+    <t>average flow air</t>
+  </si>
+  <si>
+    <t>esimate density (g/L)</t>
+  </si>
+  <si>
+    <t>specific density</t>
+  </si>
+  <si>
+    <t>Cv</t>
+  </si>
+  <si>
+    <t>hydrostatic drop (psi)</t>
+  </si>
+  <si>
+    <t>valve drop</t>
+  </si>
+  <si>
+    <t>filter drop</t>
+  </si>
+  <si>
+    <t>total drop</t>
+  </si>
+  <si>
+    <t>av flow (SCFS)</t>
+  </si>
+  <si>
+    <t>Pre Pressure</t>
+  </si>
+  <si>
+    <t>post pressure</t>
+  </si>
+  <si>
+    <t>xT</t>
+  </si>
+  <si>
+    <t>standard density air</t>
   </si>
 </sst>
 </file>
@@ -369,8 +417,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -560,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -644,6 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +1018,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1222,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A38" sqref="A37:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,17 +1559,20 @@
     <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
@@ -1539,8 +1599,11 @@
       <c r="V1" s="23"/>
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
-    </row>
-    <row r="2" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+    </row>
+    <row r="2" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I2" s="52" t="s">
         <v>43</v>
       </c>
@@ -1565,9 +1628,12 @@
       <c r="V2" s="55"/>
       <c r="W2" s="55"/>
       <c r="X2" s="55"/>
-      <c r="Y2" s="56"/>
-    </row>
-    <row r="3" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="56"/>
+    </row>
+    <row r="3" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1629,22 +1695,31 @@
         <v>64</v>
       </c>
       <c r="U3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
@@ -1706,22 +1781,31 @@
         <v>3467.55272819728</v>
       </c>
       <c r="U4" s="26">
+        <v>1.3034382223609899E-3</v>
+      </c>
+      <c r="V4" s="26">
+        <v>3.11599928943583E-4</v>
+      </c>
+      <c r="W4" s="26">
+        <v>2.1061736989799401E-3</v>
+      </c>
+      <c r="X4" s="26">
         <v>4.6200570038971199E-3</v>
       </c>
-      <c r="V4" s="26">
+      <c r="Y4" s="26">
         <v>4.2550085526043299E-4</v>
       </c>
-      <c r="W4" s="26">
+      <c r="Z4" s="26">
         <v>5.3139903719532904E-3</v>
       </c>
-      <c r="X4" s="37">
+      <c r="AA4" s="37">
         <v>91.127393678000701</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="AB4" s="3">
         <v>43.261320828720699</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
@@ -1774,31 +1858,40 @@
         <v>0</v>
       </c>
       <c r="R5" s="25">
-        <v>2260.9852685870001</v>
+        <v>2364.7815935950098</v>
       </c>
       <c r="S5" s="26">
-        <v>753.64441953649498</v>
+        <v>748.10818100301594</v>
       </c>
       <c r="T5" s="26">
-        <v>8552.2953113250205</v>
+        <v>8445.7684366207504</v>
       </c>
       <c r="U5" s="26">
-        <v>7.0671103760055398E-3</v>
+        <v>5.1132970210149102E-4</v>
       </c>
       <c r="V5" s="26">
-        <v>3.3795053019845198E-4</v>
+        <v>1.91342629246065E-4</v>
       </c>
       <c r="W5" s="26">
-        <v>3.7562664311527301E-3</v>
-      </c>
-      <c r="X5" s="37">
-        <v>134.332942161972</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>47.507993206739101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6.8620111084161499E-5</v>
+      </c>
+      <c r="X5" s="26">
+        <v>7.2247962803913997E-3</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>3.5666642379847098E-4</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>3.6299908924129301E-3</v>
+      </c>
+      <c r="AA5" s="37">
+        <v>135.67627158359201</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>47.171691300973698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>83</v>
       </c>
@@ -1860,22 +1953,31 @@
         <v>71.517110254851801</v>
       </c>
       <c r="U6" s="26">
+        <v>4.39050630768603E-4</v>
+      </c>
+      <c r="V6" s="26">
+        <v>7.7179326839200602E-5</v>
+      </c>
+      <c r="W6" s="26">
+        <v>1.43282608221107E-4</v>
+      </c>
+      <c r="X6" s="26">
         <v>1.29648057193552E-3</v>
       </c>
-      <c r="V6" s="26">
+      <c r="Y6" s="26">
         <v>1.13209194699769E-4</v>
       </c>
-      <c r="W6" s="26">
+      <c r="Z6" s="26">
         <v>9.6507230400850303E-4</v>
       </c>
-      <c r="X6" s="37">
+      <c r="AA6" s="37">
         <v>114.561989290461</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AB6" s="3">
         <v>59.550522390457303</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>84</v>
       </c>
@@ -1937,22 +2039,31 @@
         <v>94.455482671555203</v>
       </c>
       <c r="U7" s="26">
+        <v>4.3598173807550398E-4</v>
+      </c>
+      <c r="V7" s="26">
+        <v>8.0731159677504505E-5</v>
+      </c>
+      <c r="W7" s="26">
+        <v>2.8072312163671299E-4</v>
+      </c>
+      <c r="X7" s="26">
         <v>1.15548822568161E-3</v>
       </c>
-      <c r="V7" s="26">
+      <c r="Y7" s="26">
         <v>1.05720529760361E-4</v>
       </c>
-      <c r="W7" s="26">
+      <c r="Z7" s="26">
         <v>9.7531859873896301E-4</v>
       </c>
-      <c r="X7" s="37">
+      <c r="AA7" s="37">
         <v>126.547708101365</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AB7" s="3">
         <v>55.2681938511654</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>85</v>
       </c>
@@ -2005,35 +2116,44 @@
         <v>0</v>
       </c>
       <c r="R8" s="25">
-        <v>56.737330637456097</v>
+        <v>56.595457845619002</v>
       </c>
       <c r="S8" s="26">
-        <v>7.3985114218279904</v>
+        <v>7.4111384019514297</v>
       </c>
       <c r="T8" s="26">
-        <v>5.0444324957423197</v>
+        <v>5.5585254582608501</v>
       </c>
       <c r="U8" s="26">
-        <v>3.08067246131356E-4</v>
+        <v>1.7180629264130099E-4</v>
       </c>
       <c r="V8" s="26">
+        <v>3.3294606441974197E-5</v>
+      </c>
+      <c r="W8" s="26">
+        <v>3.6123153872598101E-6</v>
+      </c>
+      <c r="X8" s="26">
+        <v>3.2326829091540899E-4</v>
+      </c>
+      <c r="Y8" s="26">
         <v>3.9102757678946303E-5</v>
       </c>
-      <c r="W8" s="26">
+      <c r="Z8" s="26">
         <v>1.1611381670112299E-4</v>
       </c>
-      <c r="X8" s="37">
-        <v>145.463327206841</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>41.942236686282399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="37">
+        <v>149.87101148453499</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>41.630397373854798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="57">
         <v>0</v>
       </c>
       <c r="C9" s="17">
@@ -2091,22 +2211,31 @@
         <v>58.284778716569598</v>
       </c>
       <c r="U9" s="26">
+        <v>3.0865755229728998E-4</v>
+      </c>
+      <c r="V9" s="26">
+        <v>5.8318507985541198E-5</v>
+      </c>
+      <c r="W9" s="26">
+        <v>2.7738531734872098E-4</v>
+      </c>
+      <c r="X9" s="26">
         <v>4.8767018199222001E-4</v>
       </c>
-      <c r="V9" s="26">
+      <c r="Y9" s="26">
         <v>6.55786696603339E-5</v>
       </c>
-      <c r="W9" s="26">
+      <c r="Z9" s="26">
         <v>4.4930211738727498E-4</v>
       </c>
-      <c r="X9" s="37">
+      <c r="AA9" s="37">
         <v>118.033332127951</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>43.3637076844864</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>87</v>
       </c>
@@ -2168,46 +2297,362 @@
         <v>324.35538912170102</v>
       </c>
       <c r="U10" s="28">
+        <v>4.2164027955509699E-4</v>
+      </c>
+      <c r="V10" s="28">
+        <v>1.4939739392426301E-4</v>
+      </c>
+      <c r="W10" s="28">
+        <v>1.4599157214174199E-3</v>
+      </c>
+      <c r="X10" s="28">
         <v>7.9868301603877503E-4</v>
       </c>
-      <c r="V10" s="28">
+      <c r="Y10" s="28">
         <v>1.5977092882234E-4</v>
       </c>
-      <c r="W10" s="28">
+      <c r="Z10" s="28">
         <v>1.829851947594E-3</v>
       </c>
-      <c r="X10" s="38">
+      <c r="AA10" s="38">
         <v>90.225142255446201</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AB10" s="2">
         <v>39.515087305645999</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U12" s="31"/>
-      <c r="W12" s="31"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U13" s="31"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U15" s="31"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X12" s="31"/>
+      <c r="Z12" s="31"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X13" s="31"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+    </row>
+    <row r="18" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+    </row>
+    <row r="19" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+    </row>
+    <row r="22" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="23" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+    </row>
+    <row r="24" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+    </row>
+    <row r="25" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L25" s="23"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+    </row>
+    <row r="26" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+    </row>
+    <row r="27" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+    </row>
+    <row r="28" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+    </row>
+    <row r="29" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+    </row>
+    <row r="30" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+    </row>
+    <row r="31" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+    </row>
+    <row r="32" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+    </row>
+    <row r="33" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+    </row>
+    <row r="34" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+    </row>
+    <row r="35" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="R2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2217,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43169691-B23A-4265-B676-8F187760D4B1}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,12 +2858,12 @@
         <v>36.972840967377103</v>
       </c>
       <c r="G8" s="23">
-        <v>37.018061063235798</v>
+        <v>37.015757009276101</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
       <c r="J8" s="49">
-        <v>-146296.83817255599</v>
+        <v>-149925.81911568</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,22 +2928,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2514,145 +2971,618 @@
       <c r="E1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" s="31">
-        <v>20000</v>
+        <v>2000000</v>
       </c>
       <c r="C2" s="32">
-        <f>C3</f>
-        <v>0.43948051003392441</v>
+        <f>(B2*4/(3*PI()))^(1/3)/100</f>
+        <v>0.94683205640999235</v>
       </c>
       <c r="D2" s="32">
-        <f>B2/1000000/(C2^2*PI()/4)</f>
-        <v>0.13184415301017743</v>
+        <f>C2*3</f>
+        <v>2.8404961692299771</v>
       </c>
       <c r="E2" s="33">
         <f>D2*9.8</f>
-        <v>1.2920726994997389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.836862458453776</v>
+      </c>
+      <c r="F2" s="31">
+        <f>'PID &amp; Gas Output'!W4</f>
+        <v>2.1061736989799401E-3</v>
+      </c>
+      <c r="G2" s="31">
+        <f>'PID &amp; Gas Output'!T4/10/24/3600</f>
+        <v>4.0133712131912962E-3</v>
+      </c>
+      <c r="H2" s="31">
+        <f>'PID &amp; Gas Output'!Z4</f>
+        <v>5.3139903719532904E-3</v>
+      </c>
+      <c r="J2">
+        <f>29*(100000+E2*1000)/(8.314*298)/1000</f>
+        <v>1.4963314936135699</v>
+      </c>
+      <c r="K2">
+        <f>29*(100000)/(8.314*288)/1000</f>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L2">
+        <f>J2/K2</f>
+        <v>1.2354703485917677</v>
+      </c>
+      <c r="M2" s="31">
+        <f>G2*127133</f>
+        <v>510.23192244664904</v>
+      </c>
+      <c r="N2">
+        <f>E2*0.145</f>
+        <v>4.0363450564757972</v>
+      </c>
+      <c r="O2">
+        <f>R11</f>
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <f>P2+O2</f>
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <f>Q2+14.7+N2-O2/2</f>
+        <v>31.236345056475798</v>
+      </c>
+      <c r="S2">
+        <f>R2-O2</f>
+        <v>26.236345056475798</v>
+      </c>
+      <c r="T2">
+        <f>M2/963*SQRT(1*537/(R2^2-S2^2))</f>
+        <v>0.72429038067673757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="31">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="C3" s="32">
         <f>(B3*4/(1.5*PI()))^(1/3)/100</f>
-        <v>0.43948051003392441</v>
+        <v>0.75150110119121716</v>
       </c>
       <c r="D3" s="32">
         <f>C3*1.5</f>
+        <v>1.1272516517868256</v>
+      </c>
+      <c r="E3" s="33">
+        <f>D3*9.8</f>
+        <v>11.047066187510891</v>
+      </c>
+      <c r="F3" s="31">
+        <f>'PID &amp; Gas Output'!W5</f>
+        <v>6.8620111084161499E-5</v>
+      </c>
+      <c r="G3" s="31">
+        <f>'PID &amp; Gas Output'!T5/30/24/3600</f>
+        <v>3.2583983165975121E-3</v>
+      </c>
+      <c r="H3" s="31">
+        <f>'PID &amp; Gas Output'!Z5</f>
+        <v>3.6299908924129301E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="0">29*(100000+E3*1000+E704)/(8.314*298)/1000</f>
+        <v>1.2998067944898537</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="1">29*(100000)/(8.314*288)/1000</f>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="2">J3/K3</f>
+        <v>1.073206545704803</v>
+      </c>
+      <c r="M3" s="31">
+        <f t="shared" ref="M3:M8" si="3">G3*127133</f>
+        <v>414.24995318399152</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="4">E3*0.145</f>
+        <v>1.6018245971890792</v>
+      </c>
+      <c r="O3">
+        <f>R11</f>
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="5">P3+O3</f>
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R8" si="6">Q3+14.7+N3-O3/2</f>
+        <v>28.801824597189079</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="7">R3-O3</f>
+        <v>23.801824597189079</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T8" si="8">M3/963*SQRT(1*537/(R3^2-S3^2))</f>
+        <v>0.61465353705828785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="31">
+        <v>20000</v>
+      </c>
+      <c r="C4" s="32">
+        <f>C5</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D4" s="32">
+        <f>B4/1000000/(C4^2*PI()/4)</f>
+        <v>0.13184415301017743</v>
+      </c>
+      <c r="E4" s="33">
+        <f>D4*9.8</f>
+        <v>1.2920726994997389</v>
+      </c>
+      <c r="F4" s="31">
+        <f>'PID &amp; Gas Output'!W6</f>
+        <v>1.43282608221107E-4</v>
+      </c>
+      <c r="G4" s="31">
+        <f>'PID &amp; Gas Output'!T6/'Seed Train'!B11/24/3600</f>
+        <v>3.3716673387102939E-4</v>
+      </c>
+      <c r="H4" s="31">
+        <f>'PID &amp; Gas Output'!Z6</f>
+        <v>9.6507230400850303E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.1856245179899887</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.97893009857234625</v>
+      </c>
+      <c r="M4" s="31">
+        <f t="shared" si="3"/>
+        <v>42.865018377225582</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>0.18735054142746213</v>
+      </c>
+      <c r="O4">
+        <f>O5+N5-N4</f>
+        <v>5.7494021657098475</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>15.749402165709848</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>27.762051624282389</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>22.01264945857254</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="8"/>
+        <v>6.0974492677692234E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="31">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="32">
+        <f>(B5*4/(1.5*PI()))^(1/3)/100</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D5" s="32">
+        <f>C5*1.5</f>
         <v>0.65922076505088656</v>
-      </c>
-      <c r="E3" s="33">
-        <f t="shared" ref="E3:E4" si="0">D3*9.8</f>
-        <v>6.4603634974986885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="31">
-        <v>500000</v>
-      </c>
-      <c r="C4" s="32">
-        <f>(B4*4/(1.5*PI()))^(1/3)/100</f>
-        <v>0.75150110119121716</v>
-      </c>
-      <c r="D4" s="32">
-        <f>C4*1.5</f>
-        <v>1.1272516517868256</v>
-      </c>
-      <c r="E4" s="33">
-        <f t="shared" si="0"/>
-        <v>11.047066187510891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="31">
-        <v>20000</v>
-      </c>
-      <c r="C5" s="32">
-        <f>(B5*4/(3*PI()))^(1/3)/100</f>
-        <v>0.20398878279639124</v>
-      </c>
-      <c r="D5" s="32">
-        <f>C5*3</f>
-        <v>0.61196634838917374</v>
       </c>
       <c r="E5" s="33">
         <f>D5*9.8</f>
-        <v>5.9972702142139029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.4603634974986885</v>
+      </c>
+      <c r="F5" s="31">
+        <f>'PID &amp; Gas Output'!W7</f>
+        <v>2.8072312163671299E-4</v>
+      </c>
+      <c r="G5" s="31">
+        <f>'PID &amp; Gas Output'!T7/'Seed Train'!B12/24/3600</f>
+        <v>4.4621826658897953E-4</v>
+      </c>
+      <c r="H5" s="31">
+        <f>'PID &amp; Gas Output'!Z7</f>
+        <v>9.7531859873896301E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.2461194029588087</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.0288786807811952</v>
+      </c>
+      <c r="M5" s="31">
+        <f t="shared" si="3"/>
+        <v>56.729066886256732</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0.93675270713730974</v>
+      </c>
+      <c r="O5">
+        <f>R11</f>
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>28.136752707137308</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>23.136752707137308</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="8"/>
+        <v>8.5257970171630115E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="31">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="C6" s="32">
         <f>(B6*4/(3*PI()))^(1/3)/100</f>
-        <v>0.32381200840070401</v>
+        <v>0.20398878279639124</v>
       </c>
       <c r="D6" s="32">
         <f>C6*3</f>
-        <v>0.97143602520211203</v>
+        <v>0.61196634838917374</v>
       </c>
       <c r="E6" s="33">
         <f>D6*9.8</f>
-        <v>9.5200730469806985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.9972702142139029</v>
+      </c>
+      <c r="F6" s="31">
+        <f>'PID &amp; Gas Output'!W8</f>
+        <v>3.6123153872598101E-6</v>
+      </c>
+      <c r="G6" s="31">
+        <f>'PID &amp; Gas Output'!T8/'Seed Train'!B8/24/3600</f>
+        <v>2.6205615232805545E-5</v>
+      </c>
+      <c r="H6" s="31">
+        <f>'PID &amp; Gas Output'!Z8</f>
+        <v>1.1611381670112299E-4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.2406988923882749</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.0244031483789797</v>
+      </c>
+      <c r="M6" s="31">
+        <f>G6*127133</f>
+        <v>3.3315984813922674</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.86960418106101589</v>
+      </c>
+      <c r="O6">
+        <f>O7+N7-N6</f>
+        <v>2.5108064107511856</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>12.510806410751186</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>26.82500738643661</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>24.314200975685424</v>
+      </c>
+      <c r="T6">
+        <f>M6/963*SQRT(1*537/(R6^2-S6^2))</f>
+        <v>7.0750562382794037E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="31">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="C7" s="32">
         <f>(B7*4/(3*PI()))^(1/3)/100</f>
-        <v>0.55371074561027633</v>
+        <v>0.32381200840070401</v>
       </c>
       <c r="D7" s="32">
         <f>C7*3</f>
-        <v>1.661132236830829</v>
+        <v>0.97143602520211203</v>
       </c>
       <c r="E7" s="33">
         <f>D7*9.8</f>
-        <v>16.279095920942126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.5200730469806985</v>
+      </c>
+      <c r="F7" s="31">
+        <f>'PID &amp; Gas Output'!W9</f>
+        <v>2.7738531734872098E-4</v>
+      </c>
+      <c r="G7" s="31">
+        <f>'PID &amp; Gas Output'!T9/'Seed Train'!B9/24/3600</f>
+        <v>3.1820393691348704E-4</v>
+      </c>
+      <c r="H7" s="31">
+        <f>'PID &amp; Gas Output'!Z9</f>
+        <v>4.4930211738727498E-4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.2819333276136637</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.058449028105048</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" si="3"/>
+        <v>40.454221111622346</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1.3804105918122012</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>27.0804105918122</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>25.0804105918122</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>9.5309785415149742E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="31">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="C8" s="32">
         <f>(B8*4/(3*PI()))^(1/3)/100</f>
-        <v>0.94683205640999235</v>
+        <v>0.55371074561027633</v>
       </c>
       <c r="D8" s="32">
         <f>C8*3</f>
-        <v>2.8404961692299771</v>
+        <v>1.661132236830829</v>
       </c>
       <c r="E8" s="33">
         <f>D8*9.8</f>
-        <v>27.836862458453776</v>
+        <v>16.279095920942126</v>
+      </c>
+      <c r="F8" s="31">
+        <f>'PID &amp; Gas Output'!W10</f>
+        <v>1.4599157214174199E-3</v>
+      </c>
+      <c r="G8" s="31">
+        <f>'PID &amp; Gas Output'!T10/'Seed Train'!B10/24/3600</f>
+        <v>1.5291703869733961E-3</v>
+      </c>
+      <c r="H8" s="31">
+        <f>'PID &amp; Gas Output'!Z10</f>
+        <v>1.829851947594E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.3610477442057471</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.1237711283634673</v>
+      </c>
+      <c r="M8" s="31">
+        <f t="shared" si="3"/>
+        <v>194.40801880708875</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>2.3604689085366082</v>
+      </c>
+      <c r="O8">
+        <f>O7+N7-N8</f>
+        <v>1.0199416832755932</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>11.019941683275594</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>27.570439750174405</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>26.550498066898811</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>0.62965796710934518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EEAFFD-B707-436D-B2B8-D21341DBEADD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B605C52-BEDD-466C-97BC-C32778253A01}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="5" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="4" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
     <sheet name="Reactors" sheetId="2" r:id="rId2"/>
     <sheet name="Feed &amp; Media Composition" sheetId="3" r:id="rId3"/>
     <sheet name="PID &amp; Gas Output" sheetId="4" r:id="rId4"/>
-    <sheet name="Reactor Heating" sheetId="6" r:id="rId5"/>
-    <sheet name="Reactor Dim" sheetId="5" r:id="rId6"/>
+    <sheet name="Reactor Dim" sheetId="5" r:id="rId5"/>
+    <sheet name="Reactor Heating" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="128">
   <si>
     <t>Vessel</t>
   </si>
@@ -176,12 +176,6 @@
     <t>BatchReactor</t>
   </si>
   <si>
-    <t>MinBubble</t>
-  </si>
-  <si>
-    <t>MaxBubble</t>
-  </si>
-  <si>
     <t>ImpellerRatio</t>
   </si>
   <si>
@@ -218,15 +212,6 @@
     <t>Kd Flow</t>
   </si>
   <si>
-    <t>Flow_O2</t>
-  </si>
-  <si>
-    <t>Flow_CO2</t>
-  </si>
-  <si>
-    <t>Flow_air</t>
-  </si>
-  <si>
     <t>Max N (rpm)</t>
   </si>
   <si>
@@ -272,15 +257,6 @@
     <t>N Impeller</t>
   </si>
   <si>
-    <t>max flow CO2</t>
-  </si>
-  <si>
-    <t>max flow air</t>
-  </si>
-  <si>
-    <t>max Flow O2</t>
-  </si>
-  <si>
     <t>ST Perf 20</t>
   </si>
   <si>
@@ -359,18 +335,6 @@
     <t>Total Duty (J)</t>
   </si>
   <si>
-    <t>min Flow O2</t>
-  </si>
-  <si>
-    <t>min flow CO2</t>
-  </si>
-  <si>
-    <t>min flow air</t>
-  </si>
-  <si>
-    <t>average flow air</t>
-  </si>
-  <si>
     <t>esimate density (g/L)</t>
   </si>
   <si>
@@ -392,19 +356,64 @@
     <t>total drop</t>
   </si>
   <si>
-    <t>av flow (SCFS)</t>
-  </si>
-  <si>
     <t>Pre Pressure</t>
   </si>
   <si>
     <t>post pressure</t>
   </si>
   <si>
-    <t>xT</t>
-  </si>
-  <si>
     <t>standard density air</t>
+  </si>
+  <si>
+    <t>Max Cv</t>
+  </si>
+  <si>
+    <t>Min Cv</t>
+  </si>
+  <si>
+    <t>CV ratio</t>
+  </si>
+  <si>
+    <t>Valve</t>
+  </si>
+  <si>
+    <t>av flow (SCFH)</t>
+  </si>
+  <si>
+    <t>min Flow O2 (m^3/s)</t>
+  </si>
+  <si>
+    <t>min flow CO2 (m^3/s)</t>
+  </si>
+  <si>
+    <t>min flow air (m^3/s)</t>
+  </si>
+  <si>
+    <t>max Flow O2 (m^3/s)</t>
+  </si>
+  <si>
+    <t>max flow CO2 (m^3/s)</t>
+  </si>
+  <si>
+    <t>max flow air (m^3/s)</t>
+  </si>
+  <si>
+    <t>MinBubble (m)</t>
+  </si>
+  <si>
+    <t>MaxBubble (m)</t>
+  </si>
+  <si>
+    <t>Total Flow O2 (m^3)</t>
+  </si>
+  <si>
+    <t>Total Flow CO2  (m^3)</t>
+  </si>
+  <si>
+    <t>Total Flow air (m^3)</t>
+  </si>
+  <si>
+    <t>average flow air (m^3/s)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -701,6 +710,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +1064,7 @@
         <v>0.59709999999999996</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,7 +1078,7 @@
         <v>0.43630000000000002</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,7 +1092,7 @@
         <v>0.4229</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1106,7 @@
         <v>0.42280000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1120,7 @@
         <v>0.4163</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,12 +1134,12 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>2.4550000000000001</v>
@@ -1136,7 +1148,7 @@
         <v>0.44030000000000002</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1162,7 @@
         <v>0.41470000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,12 +1176,12 @@
         <v>0.44019999999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>2.4550000000000001</v>
@@ -1310,10 +1322,10 @@
         <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,37 +1549,37 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1634,93 +1646,93 @@
       <c r="AB2" s="56"/>
     </row>
     <row r="3" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="R3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="AB3" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13">
@@ -1741,7 +1753,7 @@
       <c r="G4" s="14">
         <v>0.39</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>2</v>
       </c>
       <c r="I4" s="15">
@@ -1806,7 +1818,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="13">
@@ -1827,7 +1839,7 @@
       <c r="G5" s="14">
         <v>0.35</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>1</v>
       </c>
       <c r="I5" s="15">
@@ -1892,8 +1904,8 @@
       </c>
     </row>
     <row r="6" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>83</v>
+      <c r="A6" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="23">
         <v>0</v>
@@ -1913,7 +1925,7 @@
       <c r="G6" s="23">
         <v>0.45</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
       <c r="I6" s="24">
@@ -1978,8 +1990,8 @@
       </c>
     </row>
     <row r="7" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>84</v>
+      <c r="A7" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="23">
         <v>0</v>
@@ -1999,7 +2011,7 @@
       <c r="G7" s="23">
         <v>0.45</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="24">
@@ -2064,8 +2076,8 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>85</v>
+      <c r="A8" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="23">
         <v>0</v>
@@ -2085,7 +2097,7 @@
       <c r="G8" s="23">
         <v>0.7</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="13">
         <v>2</v>
       </c>
       <c r="I8" s="24">
@@ -2150,8 +2162,8 @@
       </c>
     </row>
     <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>86</v>
+      <c r="A9" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="57">
         <v>0</v>
@@ -2171,7 +2183,7 @@
       <c r="G9" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>2</v>
       </c>
       <c r="I9" s="15">
@@ -2236,8 +2248,8 @@
       </c>
     </row>
     <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>87</v>
+      <c r="A10" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
@@ -2257,7 +2269,7 @@
       <c r="G10" s="19">
         <v>0.35</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
       <c r="I10" s="21">
@@ -2659,11 +2671,758 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2000000</v>
+      </c>
+      <c r="C2" s="32">
+        <f>(B2*4/(3*PI()))^(1/3)/100</f>
+        <v>0.94683205640999235</v>
+      </c>
+      <c r="D2" s="32">
+        <f>C2*3</f>
+        <v>2.8404961692299771</v>
+      </c>
+      <c r="E2" s="33">
+        <f>D2*9.8</f>
+        <v>27.836862458453776</v>
+      </c>
+      <c r="F2" s="31">
+        <f>'PID &amp; Gas Output'!W4</f>
+        <v>2.1061736989799401E-3</v>
+      </c>
+      <c r="G2" s="31">
+        <f>'PID &amp; Gas Output'!T4/10/24/3600</f>
+        <v>4.0133712131912962E-3</v>
+      </c>
+      <c r="H2" s="31">
+        <f>'PID &amp; Gas Output'!Z4</f>
+        <v>5.3139903719532904E-3</v>
+      </c>
+      <c r="J2">
+        <f>29*(100000+E2*1000)/(8.314*298)/1000</f>
+        <v>1.4963314936135699</v>
+      </c>
+      <c r="K2">
+        <f>29*(100000)/(8.314*288)/1000</f>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L2">
+        <f>J2/K2</f>
+        <v>1.2354703485917677</v>
+      </c>
+      <c r="M2" s="31">
+        <f>G2*127133</f>
+        <v>510.23192244664904</v>
+      </c>
+      <c r="N2">
+        <f>E2*0.145</f>
+        <v>4.0363450564757972</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>P2+O2</f>
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <f>Q2+14.7+N2-O2/2</f>
+        <v>21.236345056475798</v>
+      </c>
+      <c r="S2">
+        <f>R2-O2</f>
+        <v>16.236345056475798</v>
+      </c>
+      <c r="T2">
+        <f>M2/963*SQRT(1*537/(R2^2-S2^2))</f>
+        <v>0.89698678406218579</v>
+      </c>
+      <c r="U2">
+        <f>F2/963*SQRT(1*537/(R2^2-S2^2))*127133</f>
+        <v>0.47072893898148516</v>
+      </c>
+      <c r="V2">
+        <f>H2/963*SQRT(1*537/(R2^2-S2^2))*127133</f>
+        <v>1.1876746209293656</v>
+      </c>
+      <c r="W2">
+        <f>V2/U2</f>
+        <v>2.5230541880410704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="31">
+        <v>500000</v>
+      </c>
+      <c r="C3" s="32">
+        <f>(B3*4/(1.5*PI()))^(1/3)/100</f>
+        <v>0.75150110119121716</v>
+      </c>
+      <c r="D3" s="32">
+        <f>C3*1.5</f>
+        <v>1.1272516517868256</v>
+      </c>
+      <c r="E3" s="33">
+        <f>D3*9.8</f>
+        <v>11.047066187510891</v>
+      </c>
+      <c r="F3" s="31">
+        <f>'PID &amp; Gas Output'!W5</f>
+        <v>6.8620111084161499E-5</v>
+      </c>
+      <c r="G3" s="31">
+        <f>'PID &amp; Gas Output'!T5/30/24/3600</f>
+        <v>3.2583983165975121E-3</v>
+      </c>
+      <c r="H3" s="31">
+        <f>'PID &amp; Gas Output'!Z5</f>
+        <v>3.6299908924129301E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="0">29*(100000+E3*1000+E704)/(8.314*298)/1000</f>
+        <v>1.2998067944898537</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="1">29*(100000)/(8.314*288)/1000</f>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="2">J3/K3</f>
+        <v>1.073206545704803</v>
+      </c>
+      <c r="M3" s="31">
+        <f t="shared" ref="M3:M8" si="3">G3*127133</f>
+        <v>414.24995318399152</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="4">E3*0.145</f>
+        <v>1.6018245971890792</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="5">P3+O3</f>
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R8" si="6">Q3+14.7+N3-O3/2</f>
+        <v>18.801824597189079</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="7">R3-O3</f>
+        <v>13.801824597189079</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T8" si="8">M3/963*SQRT(1*537/(R3^2-S3^2))</f>
+        <v>0.78073781653662033</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U8" si="9">F3/963*SQRT(1*537/(R3^2-S3^2))*127133</f>
+        <v>1.6441917314238001E-2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V8" si="10">H3/963*SQRT(1*537/(R3^2-S3^2))*127133</f>
+        <v>0.86977431486942502</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W8" si="11">V3/U3</f>
+        <v>52.899810785220133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="31">
+        <v>20000</v>
+      </c>
+      <c r="C4" s="32">
+        <f>C5</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D4" s="32">
+        <f>B4/1000000/(C4^2*PI()/4)</f>
+        <v>0.13184415301017743</v>
+      </c>
+      <c r="E4" s="33">
+        <f>D4*9.8</f>
+        <v>1.2920726994997389</v>
+      </c>
+      <c r="F4" s="31">
+        <f>'PID &amp; Gas Output'!W6</f>
+        <v>1.43282608221107E-4</v>
+      </c>
+      <c r="G4" s="31">
+        <f>'PID &amp; Gas Output'!T6/'Seed Train'!B11/24/3600</f>
+        <v>3.3716673387102939E-4</v>
+      </c>
+      <c r="H4" s="31">
+        <f>'PID &amp; Gas Output'!Z6</f>
+        <v>9.6507230400850303E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.1856245179899887</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.97893009857234625</v>
+      </c>
+      <c r="M4" s="31">
+        <f t="shared" si="3"/>
+        <v>42.865018377225582</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>0.18735054142746213</v>
+      </c>
+      <c r="O4">
+        <f>O5+N5-N4</f>
+        <v>5.7494021657098475</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>5.7494021657098475</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>17.762051624282389</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>12.012649458572541</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="8"/>
+        <v>7.8836769668161513E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="9"/>
+        <v>3.3502528117443753E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="10"/>
+        <v>0.22565447685400389</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="11"/>
+        <v>6.7354462344742405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="31">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="32">
+        <f>(B5*4/(1.5*PI()))^(1/3)/100</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D5" s="32">
+        <f>C5*1.5</f>
+        <v>0.65922076505088656</v>
+      </c>
+      <c r="E5" s="33">
+        <f>D5*9.8</f>
+        <v>6.4603634974986885</v>
+      </c>
+      <c r="F5" s="31">
+        <f>'PID &amp; Gas Output'!W7</f>
+        <v>2.8072312163671299E-4</v>
+      </c>
+      <c r="G5" s="31">
+        <f>'PID &amp; Gas Output'!T7/'Seed Train'!B12/24/3600</f>
+        <v>4.4621826658897953E-4</v>
+      </c>
+      <c r="H5" s="31">
+        <f>'PID &amp; Gas Output'!Z7</f>
+        <v>9.7531859873896301E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.2461194029588087</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.0288786807811952</v>
+      </c>
+      <c r="M5" s="31">
+        <f t="shared" si="3"/>
+        <v>56.729066886256732</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0.93675270713730974</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>18.136752707137308</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>13.136752707137308</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="8"/>
+        <v>0.10916746154899989</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="9"/>
+        <v>6.8679014020328236E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="10"/>
+        <v>0.23861205064456636</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="11"/>
+        <v>3.47430804079307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="31">
+        <v>20000</v>
+      </c>
+      <c r="C6" s="32">
+        <f>(B6*4/(3*PI()))^(1/3)/100</f>
+        <v>0.20398878279639124</v>
+      </c>
+      <c r="D6" s="32">
+        <f>C6*3</f>
+        <v>0.61196634838917374</v>
+      </c>
+      <c r="E6" s="33">
+        <f>D6*9.8</f>
+        <v>5.9972702142139029</v>
+      </c>
+      <c r="F6" s="31">
+        <f>'PID &amp; Gas Output'!W8</f>
+        <v>3.6123153872598101E-6</v>
+      </c>
+      <c r="G6" s="31">
+        <f>'PID &amp; Gas Output'!T8/'Seed Train'!B8/24/3600</f>
+        <v>2.6205615232805545E-5</v>
+      </c>
+      <c r="H6" s="31">
+        <f>'PID &amp; Gas Output'!Z8</f>
+        <v>1.1611381670112299E-4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.2406988923882749</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.0244031483789797</v>
+      </c>
+      <c r="M6" s="31">
+        <f>G6*127133</f>
+        <v>3.3315984813922674</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.86960418106101589</v>
+      </c>
+      <c r="O6">
+        <f>O7+N7-N6</f>
+        <v>2.5108064107511856</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>P6+O6+N6</f>
+        <v>3.3804105918122014</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>17.694611567497624</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>15.183805156746438</v>
+      </c>
+      <c r="T6">
+        <f>M6/963*SQRT(1*537/(R6^2-S6^2))</f>
+        <v>8.8237145256830785E-3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="9"/>
+        <v>1.2163057219130389E-3</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="10"/>
+        <v>3.9096779905995492E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="11"/>
+        <v>32.143875673381693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="31">
+        <v>80000</v>
+      </c>
+      <c r="C7" s="32">
+        <f>(B7*4/(3*PI()))^(1/3)/100</f>
+        <v>0.32381200840070401</v>
+      </c>
+      <c r="D7" s="32">
+        <f>C7*3</f>
+        <v>0.97143602520211203</v>
+      </c>
+      <c r="E7" s="33">
+        <f>D7*9.8</f>
+        <v>9.5200730469806985</v>
+      </c>
+      <c r="F7" s="31">
+        <f>'PID &amp; Gas Output'!W9</f>
+        <v>2.7738531734872098E-4</v>
+      </c>
+      <c r="G7" s="31">
+        <f>'PID &amp; Gas Output'!T9/'Seed Train'!B9/24/3600</f>
+        <v>3.1820393691348704E-4</v>
+      </c>
+      <c r="H7" s="31">
+        <f>'PID &amp; Gas Output'!Z9</f>
+        <v>4.4930211738727498E-4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.2819333276136637</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.058449028105048</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" si="3"/>
+        <v>40.454221111622346</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1.3804105918122012</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>17.0804105918122</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>15.0804105918122</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>0.12137972161167841</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>0.10580935272371787</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>0.17138746445752598</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>1.6197761355278411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="31">
+        <v>400000</v>
+      </c>
+      <c r="C8" s="32">
+        <f>(B8*4/(3*PI()))^(1/3)/100</f>
+        <v>0.55371074561027633</v>
+      </c>
+      <c r="D8" s="32">
+        <f>C8*3</f>
+        <v>1.661132236830829</v>
+      </c>
+      <c r="E8" s="33">
+        <f>D8*9.8</f>
+        <v>16.279095920942126</v>
+      </c>
+      <c r="F8" s="31">
+        <f>'PID &amp; Gas Output'!W10</f>
+        <v>1.4599157214174199E-3</v>
+      </c>
+      <c r="G8" s="31">
+        <f>'PID &amp; Gas Output'!T10/'Seed Train'!B10/24/3600</f>
+        <v>1.5291703869733961E-3</v>
+      </c>
+      <c r="H8" s="31">
+        <f>'PID &amp; Gas Output'!Z10</f>
+        <v>1.829851947594E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.3610477442057471</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.1237711283634673</v>
+      </c>
+      <c r="M8" s="31">
+        <f t="shared" si="3"/>
+        <v>194.40801880708875</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>2.3604689085366082</v>
+      </c>
+      <c r="O8">
+        <f>O7+N7-N8</f>
+        <v>1.0199416832755932</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>1.0199416832755932</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>17.570439750174405</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>16.550498066898811</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>0.79300674270119698</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>0.75709222511882046</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>0.94893606686892029</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="11"/>
+        <v>1.2533956041088539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43169691-B23A-4265-B676-8F187760D4B1}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,31 +3456,31 @@
         <v>17</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2790,7 +3549,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6" s="23">
         <v>37.200000000000003</v>
@@ -2816,7 +3575,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B7" s="23">
         <v>37</v>
@@ -2842,7 +3601,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B8" s="23">
         <v>37</v>
@@ -2868,7 +3627,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B9" s="23">
         <v>37</v>
@@ -2894,7 +3653,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <v>37</v>
@@ -2924,668 +3683,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
-  <dimension ref="A1:T17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2000000</v>
-      </c>
-      <c r="C2" s="32">
-        <f>(B2*4/(3*PI()))^(1/3)/100</f>
-        <v>0.94683205640999235</v>
-      </c>
-      <c r="D2" s="32">
-        <f>C2*3</f>
-        <v>2.8404961692299771</v>
-      </c>
-      <c r="E2" s="33">
-        <f>D2*9.8</f>
-        <v>27.836862458453776</v>
-      </c>
-      <c r="F2" s="31">
-        <f>'PID &amp; Gas Output'!W4</f>
-        <v>2.1061736989799401E-3</v>
-      </c>
-      <c r="G2" s="31">
-        <f>'PID &amp; Gas Output'!T4/10/24/3600</f>
-        <v>4.0133712131912962E-3</v>
-      </c>
-      <c r="H2" s="31">
-        <f>'PID &amp; Gas Output'!Z4</f>
-        <v>5.3139903719532904E-3</v>
-      </c>
-      <c r="J2">
-        <f>29*(100000+E2*1000)/(8.314*298)/1000</f>
-        <v>1.4963314936135699</v>
-      </c>
-      <c r="K2">
-        <f>29*(100000)/(8.314*288)/1000</f>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L2">
-        <f>J2/K2</f>
-        <v>1.2354703485917677</v>
-      </c>
-      <c r="M2" s="31">
-        <f>G2*127133</f>
-        <v>510.23192244664904</v>
-      </c>
-      <c r="N2">
-        <f>E2*0.145</f>
-        <v>4.0363450564757972</v>
-      </c>
-      <c r="O2">
-        <f>R11</f>
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <f>P2+O2</f>
-        <v>15</v>
-      </c>
-      <c r="R2">
-        <f>Q2+14.7+N2-O2/2</f>
-        <v>31.236345056475798</v>
-      </c>
-      <c r="S2">
-        <f>R2-O2</f>
-        <v>26.236345056475798</v>
-      </c>
-      <c r="T2">
-        <f>M2/963*SQRT(1*537/(R2^2-S2^2))</f>
-        <v>0.72429038067673757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="31">
-        <v>500000</v>
-      </c>
-      <c r="C3" s="32">
-        <f>(B3*4/(1.5*PI()))^(1/3)/100</f>
-        <v>0.75150110119121716</v>
-      </c>
-      <c r="D3" s="32">
-        <f>C3*1.5</f>
-        <v>1.1272516517868256</v>
-      </c>
-      <c r="E3" s="33">
-        <f>D3*9.8</f>
-        <v>11.047066187510891</v>
-      </c>
-      <c r="F3" s="31">
-        <f>'PID &amp; Gas Output'!W5</f>
-        <v>6.8620111084161499E-5</v>
-      </c>
-      <c r="G3" s="31">
-        <f>'PID &amp; Gas Output'!T5/30/24/3600</f>
-        <v>3.2583983165975121E-3</v>
-      </c>
-      <c r="H3" s="31">
-        <f>'PID &amp; Gas Output'!Z5</f>
-        <v>3.6299908924129301E-3</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J8" si="0">29*(100000+E3*1000+E704)/(8.314*298)/1000</f>
-        <v>1.2998067944898537</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K8" si="1">29*(100000)/(8.314*288)/1000</f>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="2">J3/K3</f>
-        <v>1.073206545704803</v>
-      </c>
-      <c r="M3" s="31">
-        <f t="shared" ref="M3:M8" si="3">G3*127133</f>
-        <v>414.24995318399152</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N8" si="4">E3*0.145</f>
-        <v>1.6018245971890792</v>
-      </c>
-      <c r="O3">
-        <f>R11</f>
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="5">P3+O3</f>
-        <v>15</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R8" si="6">Q3+14.7+N3-O3/2</f>
-        <v>28.801824597189079</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S8" si="7">R3-O3</f>
-        <v>23.801824597189079</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T8" si="8">M3/963*SQRT(1*537/(R3^2-S3^2))</f>
-        <v>0.61465353705828785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="31">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="32">
-        <f>C5</f>
-        <v>0.43948051003392441</v>
-      </c>
-      <c r="D4" s="32">
-        <f>B4/1000000/(C4^2*PI()/4)</f>
-        <v>0.13184415301017743</v>
-      </c>
-      <c r="E4" s="33">
-        <f>D4*9.8</f>
-        <v>1.2920726994997389</v>
-      </c>
-      <c r="F4" s="31">
-        <f>'PID &amp; Gas Output'!W6</f>
-        <v>1.43282608221107E-4</v>
-      </c>
-      <c r="G4" s="31">
-        <f>'PID &amp; Gas Output'!T6/'Seed Train'!B11/24/3600</f>
-        <v>3.3716673387102939E-4</v>
-      </c>
-      <c r="H4" s="31">
-        <f>'PID &amp; Gas Output'!Z6</f>
-        <v>9.6507230400850303E-4</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1.1856245179899887</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>0.97893009857234625</v>
-      </c>
-      <c r="M4" s="31">
-        <f t="shared" si="3"/>
-        <v>42.865018377225582</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="4"/>
-        <v>0.18735054142746213</v>
-      </c>
-      <c r="O4">
-        <f>O5+N5-N4</f>
-        <v>5.7494021657098475</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="5"/>
-        <v>15.749402165709848</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="6"/>
-        <v>27.762051624282389</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="7"/>
-        <v>22.01264945857254</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="8"/>
-        <v>6.0974492677692234E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="31">
-        <v>100000</v>
-      </c>
-      <c r="C5" s="32">
-        <f>(B5*4/(1.5*PI()))^(1/3)/100</f>
-        <v>0.43948051003392441</v>
-      </c>
-      <c r="D5" s="32">
-        <f>C5*1.5</f>
-        <v>0.65922076505088656</v>
-      </c>
-      <c r="E5" s="33">
-        <f>D5*9.8</f>
-        <v>6.4603634974986885</v>
-      </c>
-      <c r="F5" s="31">
-        <f>'PID &amp; Gas Output'!W7</f>
-        <v>2.8072312163671299E-4</v>
-      </c>
-      <c r="G5" s="31">
-        <f>'PID &amp; Gas Output'!T7/'Seed Train'!B12/24/3600</f>
-        <v>4.4621826658897953E-4</v>
-      </c>
-      <c r="H5" s="31">
-        <f>'PID &amp; Gas Output'!Z7</f>
-        <v>9.7531859873896301E-4</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1.2461194029588087</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>1.0288786807811952</v>
-      </c>
-      <c r="M5" s="31">
-        <f t="shared" si="3"/>
-        <v>56.729066886256732</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
-        <v>0.93675270713730974</v>
-      </c>
-      <c r="O5">
-        <f>R11</f>
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="6"/>
-        <v>28.136752707137308</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="7"/>
-        <v>23.136752707137308</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="8"/>
-        <v>8.5257970171630115E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="31">
-        <v>20000</v>
-      </c>
-      <c r="C6" s="32">
-        <f>(B6*4/(3*PI()))^(1/3)/100</f>
-        <v>0.20398878279639124</v>
-      </c>
-      <c r="D6" s="32">
-        <f>C6*3</f>
-        <v>0.61196634838917374</v>
-      </c>
-      <c r="E6" s="33">
-        <f>D6*9.8</f>
-        <v>5.9972702142139029</v>
-      </c>
-      <c r="F6" s="31">
-        <f>'PID &amp; Gas Output'!W8</f>
-        <v>3.6123153872598101E-6</v>
-      </c>
-      <c r="G6" s="31">
-        <f>'PID &amp; Gas Output'!T8/'Seed Train'!B8/24/3600</f>
-        <v>2.6205615232805545E-5</v>
-      </c>
-      <c r="H6" s="31">
-        <f>'PID &amp; Gas Output'!Z8</f>
-        <v>1.1611381670112299E-4</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.2406988923882749</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>1.0244031483789797</v>
-      </c>
-      <c r="M6" s="31">
-        <f>G6*127133</f>
-        <v>3.3315984813922674</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>0.86960418106101589</v>
-      </c>
-      <c r="O6">
-        <f>O7+N7-N6</f>
-        <v>2.5108064107511856</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>12.510806410751186</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
-        <v>26.82500738643661</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="7"/>
-        <v>24.314200975685424</v>
-      </c>
-      <c r="T6">
-        <f>M6/963*SQRT(1*537/(R6^2-S6^2))</f>
-        <v>7.0750562382794037E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="31">
-        <v>80000</v>
-      </c>
-      <c r="C7" s="32">
-        <f>(B7*4/(3*PI()))^(1/3)/100</f>
-        <v>0.32381200840070401</v>
-      </c>
-      <c r="D7" s="32">
-        <f>C7*3</f>
-        <v>0.97143602520211203</v>
-      </c>
-      <c r="E7" s="33">
-        <f>D7*9.8</f>
-        <v>9.5200730469806985</v>
-      </c>
-      <c r="F7" s="31">
-        <f>'PID &amp; Gas Output'!W9</f>
-        <v>2.7738531734872098E-4</v>
-      </c>
-      <c r="G7" s="31">
-        <f>'PID &amp; Gas Output'!T9/'Seed Train'!B9/24/3600</f>
-        <v>3.1820393691348704E-4</v>
-      </c>
-      <c r="H7" s="31">
-        <f>'PID &amp; Gas Output'!Z9</f>
-        <v>4.4930211738727498E-4</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1.2819333276136637</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>1.058449028105048</v>
-      </c>
-      <c r="M7" s="31">
-        <f t="shared" si="3"/>
-        <v>40.454221111622346</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>1.3804105918122012</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="6"/>
-        <v>27.0804105918122</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
-        <v>25.0804105918122</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="8"/>
-        <v>9.5309785415149742E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="31">
-        <v>400000</v>
-      </c>
-      <c r="C8" s="32">
-        <f>(B8*4/(3*PI()))^(1/3)/100</f>
-        <v>0.55371074561027633</v>
-      </c>
-      <c r="D8" s="32">
-        <f>C8*3</f>
-        <v>1.661132236830829</v>
-      </c>
-      <c r="E8" s="33">
-        <f>D8*9.8</f>
-        <v>16.279095920942126</v>
-      </c>
-      <c r="F8" s="31">
-        <f>'PID &amp; Gas Output'!W10</f>
-        <v>1.4599157214174199E-3</v>
-      </c>
-      <c r="G8" s="31">
-        <f>'PID &amp; Gas Output'!T10/'Seed Train'!B10/24/3600</f>
-        <v>1.5291703869733961E-3</v>
-      </c>
-      <c r="H8" s="31">
-        <f>'PID &amp; Gas Output'!Z10</f>
-        <v>1.829851947594E-3</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1.3610477442057471</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>1.1237711283634673</v>
-      </c>
-      <c r="M8" s="31">
-        <f t="shared" si="3"/>
-        <v>194.40801880708875</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>2.3604689085366082</v>
-      </c>
-      <c r="O8">
-        <f>O7+N7-N8</f>
-        <v>1.0199416832755932</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>11.019941683275594</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
-        <v>27.570439750174405</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="7"/>
-        <v>26.550498066898811</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="8"/>
-        <v>0.62965796710934518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>117</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>123</v>
-      </c>
-      <c r="R12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B605C52-BEDD-466C-97BC-C32778253A01}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396E429-15B3-4A0A-AF98-325D4D69963F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="4" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="1" activeTab="5" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
     <sheet name="Reactors" sheetId="2" r:id="rId2"/>
     <sheet name="Feed &amp; Media Composition" sheetId="3" r:id="rId3"/>
     <sheet name="PID &amp; Gas Output" sheetId="4" r:id="rId4"/>
-    <sheet name="Reactor Dim" sheetId="5" r:id="rId5"/>
-    <sheet name="Reactor Heating" sheetId="6" r:id="rId6"/>
+    <sheet name="Reactor Heating" sheetId="6" r:id="rId5"/>
+    <sheet name="Valves and Pressure Drop" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <t>Vessel</t>
   </si>
@@ -341,30 +341,9 @@
     <t>specific density</t>
   </si>
   <si>
-    <t>Cv</t>
-  </si>
-  <si>
     <t>hydrostatic drop (psi)</t>
   </si>
   <si>
-    <t>valve drop</t>
-  </si>
-  <si>
-    <t>filter drop</t>
-  </si>
-  <si>
-    <t>total drop</t>
-  </si>
-  <si>
-    <t>Pre Pressure</t>
-  </si>
-  <si>
-    <t>post pressure</t>
-  </si>
-  <si>
-    <t>standard density air</t>
-  </si>
-  <si>
     <t>Max Cv</t>
   </si>
   <si>
@@ -414,6 +393,60 @@
   </si>
   <si>
     <t>average flow air (m^3/s)</t>
+  </si>
+  <si>
+    <t>range expanded 10%</t>
+  </si>
+  <si>
+    <t>equal % 9000/9100 1", size 6 trim</t>
+  </si>
+  <si>
+    <t>linear 0.5-1", C trim</t>
+  </si>
+  <si>
+    <t>linear 0.25-1", F trim</t>
+  </si>
+  <si>
+    <t>equal % 9000/9100 1", size 2 trim</t>
+  </si>
+  <si>
+    <t>half Cv</t>
+  </si>
+  <si>
+    <t>linear 0.25-1", G trim</t>
+  </si>
+  <si>
+    <t>standard density air (g/L)</t>
+  </si>
+  <si>
+    <t>valve drop (psi)</t>
+  </si>
+  <si>
+    <t>line drop (psi)</t>
+  </si>
+  <si>
+    <t>total drop (psi)</t>
+  </si>
+  <si>
+    <t>Pre Pressure (psi)</t>
+  </si>
+  <si>
+    <t>Post pressure (psi)</t>
+  </si>
+  <si>
+    <t>Middle Cv</t>
+  </si>
+  <si>
+    <t>Blower Duty (psi)</t>
+  </si>
+  <si>
+    <t>cgproducts.johnsoncontrols.com/met_pdf/347vb.pdf</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>page 23</t>
   </si>
 </sst>
 </file>
@@ -457,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -621,11 +654,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -685,7 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -713,6 +782,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,10 +1287,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1548,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,47 +1695,47 @@
       <c r="AA1" s="23"/>
     </row>
     <row r="2" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="52" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="56"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="55"/>
     </row>
     <row r="3" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>48</v>
@@ -1698,31 +1777,31 @@
         <v>59</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" s="58" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>113</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>60</v>
@@ -1732,7 +1811,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13">
@@ -1813,12 +1892,12 @@
       <c r="AA4" s="37">
         <v>91.127393678000701</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="58">
         <v>43.261320828720699</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="13">
@@ -1899,12 +1978,12 @@
       <c r="AA5" s="37">
         <v>135.67627158359201</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="58">
         <v>47.171691300973698</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="23">
@@ -1917,7 +1996,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E6" s="23">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F6" s="23">
         <v>7.4999999999999997E-2</v>
@@ -1956,41 +2035,41 @@
         <v>0</v>
       </c>
       <c r="R6" s="25">
-        <v>231.027168398382</v>
+        <v>231.63905500100299</v>
       </c>
       <c r="S6" s="26">
-        <v>18.562111227642902</v>
+        <v>18.550649916405</v>
       </c>
       <c r="T6" s="26">
-        <v>71.517110254851801</v>
+        <v>70.916684963468796</v>
       </c>
       <c r="U6" s="26">
-        <v>4.39050630768603E-4</v>
+        <v>4.3907774064588703E-4</v>
       </c>
       <c r="V6" s="26">
-        <v>7.7179326839200602E-5</v>
+        <v>7.7087816434189097E-5</v>
       </c>
       <c r="W6" s="26">
-        <v>1.43282608221107E-4</v>
+        <v>1.3975285326972201E-4</v>
       </c>
       <c r="X6" s="26">
-        <v>1.29648057193552E-3</v>
+        <v>1.3001018372919199E-3</v>
       </c>
       <c r="Y6" s="26">
         <v>1.13209194699769E-4</v>
       </c>
       <c r="Z6" s="26">
-        <v>9.6507230400850303E-4</v>
+        <v>9.6504309442076695E-4</v>
       </c>
       <c r="AA6" s="37">
-        <v>114.561989290461</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>59.550522390457303</v>
+        <v>133.00291303165599</v>
+      </c>
+      <c r="AB6" s="58">
+        <v>59.6570893210219</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="23">
@@ -2003,7 +2082,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="E7" s="23">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F7" s="23">
         <v>7.0000000000000007E-2</v>
@@ -2042,41 +2121,41 @@
         <v>0</v>
       </c>
       <c r="R7" s="25">
-        <v>206.98110265419101</v>
+        <v>207.50841845156401</v>
       </c>
       <c r="S7" s="26">
-        <v>18.941672151772899</v>
+        <v>18.932098655967501</v>
       </c>
       <c r="T7" s="26">
-        <v>94.455482671555203</v>
+        <v>93.937740369987296</v>
       </c>
       <c r="U7" s="26">
-        <v>4.3598173807550398E-4</v>
+        <v>4.3601274512847601E-4</v>
       </c>
       <c r="V7" s="26">
-        <v>8.0731159677504505E-5</v>
+        <v>8.0653880890455403E-5</v>
       </c>
       <c r="W7" s="26">
-        <v>2.8072312163671299E-4</v>
+        <v>2.7767865134489101E-4</v>
       </c>
       <c r="X7" s="26">
-        <v>1.15548822568161E-3</v>
+        <v>1.1586099747604799E-3</v>
       </c>
       <c r="Y7" s="26">
-        <v>1.05720529760361E-4</v>
+        <v>1.0572667157065701E-4</v>
       </c>
       <c r="Z7" s="26">
-        <v>9.7531859873896301E-4</v>
+        <v>9.7528687521887699E-4</v>
       </c>
       <c r="AA7" s="37">
-        <v>126.547708101365</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>55.2681938511654</v>
+        <v>146.91796047890901</v>
+      </c>
+      <c r="AB7" s="58">
+        <v>55.367097463428401</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="23">
@@ -2157,15 +2236,15 @@
       <c r="AA8" s="37">
         <v>149.87101148453499</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="58">
         <v>41.630397373854798</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>0</v>
       </c>
       <c r="C9" s="17">
@@ -2243,12 +2322,12 @@
       <c r="AA9" s="37">
         <v>118.033332127951</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="58">
         <v>43.3637076844864</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="18">
@@ -2329,7 +2408,7 @@
       <c r="AA10" s="38">
         <v>90.225142255446201</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="59">
         <v>39.515087305645999</v>
       </c>
     </row>
@@ -2671,758 +2750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
-  <dimension ref="A1:X17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" t="s">
-        <v>113</v>
-      </c>
-      <c r="X1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2000000</v>
-      </c>
-      <c r="C2" s="32">
-        <f>(B2*4/(3*PI()))^(1/3)/100</f>
-        <v>0.94683205640999235</v>
-      </c>
-      <c r="D2" s="32">
-        <f>C2*3</f>
-        <v>2.8404961692299771</v>
-      </c>
-      <c r="E2" s="33">
-        <f>D2*9.8</f>
-        <v>27.836862458453776</v>
-      </c>
-      <c r="F2" s="31">
-        <f>'PID &amp; Gas Output'!W4</f>
-        <v>2.1061736989799401E-3</v>
-      </c>
-      <c r="G2" s="31">
-        <f>'PID &amp; Gas Output'!T4/10/24/3600</f>
-        <v>4.0133712131912962E-3</v>
-      </c>
-      <c r="H2" s="31">
-        <f>'PID &amp; Gas Output'!Z4</f>
-        <v>5.3139903719532904E-3</v>
-      </c>
-      <c r="J2">
-        <f>29*(100000+E2*1000)/(8.314*298)/1000</f>
-        <v>1.4963314936135699</v>
-      </c>
-      <c r="K2">
-        <f>29*(100000)/(8.314*288)/1000</f>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L2">
-        <f>J2/K2</f>
-        <v>1.2354703485917677</v>
-      </c>
-      <c r="M2" s="31">
-        <f>G2*127133</f>
-        <v>510.23192244664904</v>
-      </c>
-      <c r="N2">
-        <f>E2*0.145</f>
-        <v>4.0363450564757972</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>P2+O2</f>
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <f>Q2+14.7+N2-O2/2</f>
-        <v>21.236345056475798</v>
-      </c>
-      <c r="S2">
-        <f>R2-O2</f>
-        <v>16.236345056475798</v>
-      </c>
-      <c r="T2">
-        <f>M2/963*SQRT(1*537/(R2^2-S2^2))</f>
-        <v>0.89698678406218579</v>
-      </c>
-      <c r="U2">
-        <f>F2/963*SQRT(1*537/(R2^2-S2^2))*127133</f>
-        <v>0.47072893898148516</v>
-      </c>
-      <c r="V2">
-        <f>H2/963*SQRT(1*537/(R2^2-S2^2))*127133</f>
-        <v>1.1876746209293656</v>
-      </c>
-      <c r="W2">
-        <f>V2/U2</f>
-        <v>2.5230541880410704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="31">
-        <v>500000</v>
-      </c>
-      <c r="C3" s="32">
-        <f>(B3*4/(1.5*PI()))^(1/3)/100</f>
-        <v>0.75150110119121716</v>
-      </c>
-      <c r="D3" s="32">
-        <f>C3*1.5</f>
-        <v>1.1272516517868256</v>
-      </c>
-      <c r="E3" s="33">
-        <f>D3*9.8</f>
-        <v>11.047066187510891</v>
-      </c>
-      <c r="F3" s="31">
-        <f>'PID &amp; Gas Output'!W5</f>
-        <v>6.8620111084161499E-5</v>
-      </c>
-      <c r="G3" s="31">
-        <f>'PID &amp; Gas Output'!T5/30/24/3600</f>
-        <v>3.2583983165975121E-3</v>
-      </c>
-      <c r="H3" s="31">
-        <f>'PID &amp; Gas Output'!Z5</f>
-        <v>3.6299908924129301E-3</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J8" si="0">29*(100000+E3*1000+E704)/(8.314*298)/1000</f>
-        <v>1.2998067944898537</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K8" si="1">29*(100000)/(8.314*288)/1000</f>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="2">J3/K3</f>
-        <v>1.073206545704803</v>
-      </c>
-      <c r="M3" s="31">
-        <f t="shared" ref="M3:M8" si="3">G3*127133</f>
-        <v>414.24995318399152</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N8" si="4">E3*0.145</f>
-        <v>1.6018245971890792</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="5">P3+O3</f>
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R8" si="6">Q3+14.7+N3-O3/2</f>
-        <v>18.801824597189079</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S8" si="7">R3-O3</f>
-        <v>13.801824597189079</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T8" si="8">M3/963*SQRT(1*537/(R3^2-S3^2))</f>
-        <v>0.78073781653662033</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U8" si="9">F3/963*SQRT(1*537/(R3^2-S3^2))*127133</f>
-        <v>1.6441917314238001E-2</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V8" si="10">H3/963*SQRT(1*537/(R3^2-S3^2))*127133</f>
-        <v>0.86977431486942502</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W8" si="11">V3/U3</f>
-        <v>52.899810785220133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="31">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="32">
-        <f>C5</f>
-        <v>0.43948051003392441</v>
-      </c>
-      <c r="D4" s="32">
-        <f>B4/1000000/(C4^2*PI()/4)</f>
-        <v>0.13184415301017743</v>
-      </c>
-      <c r="E4" s="33">
-        <f>D4*9.8</f>
-        <v>1.2920726994997389</v>
-      </c>
-      <c r="F4" s="31">
-        <f>'PID &amp; Gas Output'!W6</f>
-        <v>1.43282608221107E-4</v>
-      </c>
-      <c r="G4" s="31">
-        <f>'PID &amp; Gas Output'!T6/'Seed Train'!B11/24/3600</f>
-        <v>3.3716673387102939E-4</v>
-      </c>
-      <c r="H4" s="31">
-        <f>'PID &amp; Gas Output'!Z6</f>
-        <v>9.6507230400850303E-4</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1.1856245179899887</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>0.97893009857234625</v>
-      </c>
-      <c r="M4" s="31">
-        <f t="shared" si="3"/>
-        <v>42.865018377225582</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="4"/>
-        <v>0.18735054142746213</v>
-      </c>
-      <c r="O4">
-        <f>O5+N5-N4</f>
-        <v>5.7494021657098475</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="5"/>
-        <v>5.7494021657098475</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="6"/>
-        <v>17.762051624282389</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="7"/>
-        <v>12.012649458572541</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="8"/>
-        <v>7.8836769668161513E-2</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="9"/>
-        <v>3.3502528117443753E-2</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="10"/>
-        <v>0.22565447685400389</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="11"/>
-        <v>6.7354462344742405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="31">
-        <v>100000</v>
-      </c>
-      <c r="C5" s="32">
-        <f>(B5*4/(1.5*PI()))^(1/3)/100</f>
-        <v>0.43948051003392441</v>
-      </c>
-      <c r="D5" s="32">
-        <f>C5*1.5</f>
-        <v>0.65922076505088656</v>
-      </c>
-      <c r="E5" s="33">
-        <f>D5*9.8</f>
-        <v>6.4603634974986885</v>
-      </c>
-      <c r="F5" s="31">
-        <f>'PID &amp; Gas Output'!W7</f>
-        <v>2.8072312163671299E-4</v>
-      </c>
-      <c r="G5" s="31">
-        <f>'PID &amp; Gas Output'!T7/'Seed Train'!B12/24/3600</f>
-        <v>4.4621826658897953E-4</v>
-      </c>
-      <c r="H5" s="31">
-        <f>'PID &amp; Gas Output'!Z7</f>
-        <v>9.7531859873896301E-4</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1.2461194029588087</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>1.0288786807811952</v>
-      </c>
-      <c r="M5" s="31">
-        <f t="shared" si="3"/>
-        <v>56.729066886256732</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
-        <v>0.93675270713730974</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="6"/>
-        <v>18.136752707137308</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="7"/>
-        <v>13.136752707137308</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="8"/>
-        <v>0.10916746154899989</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="9"/>
-        <v>6.8679014020328236E-2</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="10"/>
-        <v>0.23861205064456636</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="11"/>
-        <v>3.47430804079307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="31">
-        <v>20000</v>
-      </c>
-      <c r="C6" s="32">
-        <f>(B6*4/(3*PI()))^(1/3)/100</f>
-        <v>0.20398878279639124</v>
-      </c>
-      <c r="D6" s="32">
-        <f>C6*3</f>
-        <v>0.61196634838917374</v>
-      </c>
-      <c r="E6" s="33">
-        <f>D6*9.8</f>
-        <v>5.9972702142139029</v>
-      </c>
-      <c r="F6" s="31">
-        <f>'PID &amp; Gas Output'!W8</f>
-        <v>3.6123153872598101E-6</v>
-      </c>
-      <c r="G6" s="31">
-        <f>'PID &amp; Gas Output'!T8/'Seed Train'!B8/24/3600</f>
-        <v>2.6205615232805545E-5</v>
-      </c>
-      <c r="H6" s="31">
-        <f>'PID &amp; Gas Output'!Z8</f>
-        <v>1.1611381670112299E-4</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.2406988923882749</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>1.0244031483789797</v>
-      </c>
-      <c r="M6" s="31">
-        <f>G6*127133</f>
-        <v>3.3315984813922674</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>0.86960418106101589</v>
-      </c>
-      <c r="O6">
-        <f>O7+N7-N6</f>
-        <v>2.5108064107511856</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>P6+O6+N6</f>
-        <v>3.3804105918122014</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
-        <v>17.694611567497624</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="7"/>
-        <v>15.183805156746438</v>
-      </c>
-      <c r="T6">
-        <f>M6/963*SQRT(1*537/(R6^2-S6^2))</f>
-        <v>8.8237145256830785E-3</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="9"/>
-        <v>1.2163057219130389E-3</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="10"/>
-        <v>3.9096779905995492E-2</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="11"/>
-        <v>32.143875673381693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="31">
-        <v>80000</v>
-      </c>
-      <c r="C7" s="32">
-        <f>(B7*4/(3*PI()))^(1/3)/100</f>
-        <v>0.32381200840070401</v>
-      </c>
-      <c r="D7" s="32">
-        <f>C7*3</f>
-        <v>0.97143602520211203</v>
-      </c>
-      <c r="E7" s="33">
-        <f>D7*9.8</f>
-        <v>9.5200730469806985</v>
-      </c>
-      <c r="F7" s="31">
-        <f>'PID &amp; Gas Output'!W9</f>
-        <v>2.7738531734872098E-4</v>
-      </c>
-      <c r="G7" s="31">
-        <f>'PID &amp; Gas Output'!T9/'Seed Train'!B9/24/3600</f>
-        <v>3.1820393691348704E-4</v>
-      </c>
-      <c r="H7" s="31">
-        <f>'PID &amp; Gas Output'!Z9</f>
-        <v>4.4930211738727498E-4</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1.2819333276136637</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>1.058449028105048</v>
-      </c>
-      <c r="M7" s="31">
-        <f t="shared" si="3"/>
-        <v>40.454221111622346</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>1.3804105918122012</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="6"/>
-        <v>17.0804105918122</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
-        <v>15.0804105918122</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="8"/>
-        <v>0.12137972161167841</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="9"/>
-        <v>0.10580935272371787</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="10"/>
-        <v>0.17138746445752598</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="11"/>
-        <v>1.6197761355278411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="31">
-        <v>400000</v>
-      </c>
-      <c r="C8" s="32">
-        <f>(B8*4/(3*PI()))^(1/3)/100</f>
-        <v>0.55371074561027633</v>
-      </c>
-      <c r="D8" s="32">
-        <f>C8*3</f>
-        <v>1.661132236830829</v>
-      </c>
-      <c r="E8" s="33">
-        <f>D8*9.8</f>
-        <v>16.279095920942126</v>
-      </c>
-      <c r="F8" s="31">
-        <f>'PID &amp; Gas Output'!W10</f>
-        <v>1.4599157214174199E-3</v>
-      </c>
-      <c r="G8" s="31">
-        <f>'PID &amp; Gas Output'!T10/'Seed Train'!B10/24/3600</f>
-        <v>1.5291703869733961E-3</v>
-      </c>
-      <c r="H8" s="31">
-        <f>'PID &amp; Gas Output'!Z10</f>
-        <v>1.829851947594E-3</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1.3610477442057471</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>1.2111431855237487</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>1.1237711283634673</v>
-      </c>
-      <c r="M8" s="31">
-        <f t="shared" si="3"/>
-        <v>194.40801880708875</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>2.3604689085366082</v>
-      </c>
-      <c r="O8">
-        <f>O7+N7-N8</f>
-        <v>1.0199416832755932</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>1.0199416832755932</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
-        <v>17.570439750174405</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="7"/>
-        <v>16.550498066898811</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="8"/>
-        <v>0.79300674270119698</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="9"/>
-        <v>0.75709222511882046</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="10"/>
-        <v>0.94893606686892029</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="11"/>
-        <v>1.2533956041088539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43169691-B23A-4265-B676-8F187760D4B1}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,16 +2775,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -3484,14 +2816,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="23">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="C4" s="23">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="D4" s="23">
         <v>2</v>
@@ -3499,56 +2831,56 @@
       <c r="E4" s="23">
         <v>22</v>
       </c>
-      <c r="F4" s="24">
-        <v>36.592567572438803</v>
-      </c>
-      <c r="G4" s="23">
-        <v>37.2312696208365</v>
-      </c>
-      <c r="H4" s="23">
-        <v>31.1437958420656</v>
-      </c>
-      <c r="I4" s="23">
-        <v>31.445205735232399</v>
+      <c r="F4" s="60">
+        <v>36.230454732068402</v>
+      </c>
+      <c r="G4" s="37">
+        <v>37.663516520014099</v>
+      </c>
+      <c r="H4" s="37">
+        <v>30.449493161173301</v>
+      </c>
+      <c r="I4" s="37">
+        <v>31.176307773105702</v>
       </c>
       <c r="J4" s="3">
-        <v>1167229732.08617</v>
+        <v>2059965786.4955001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="23">
         <v>36.5</v>
       </c>
       <c r="C5" s="23">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="D5" s="23">
-        <v>2</v>
+        <v>2.2666666666666702</v>
       </c>
       <c r="E5" s="23">
-        <v>18</v>
-      </c>
-      <c r="F5" s="24">
-        <v>36.494147107463299</v>
-      </c>
-      <c r="G5" s="23">
-        <v>37.485239175019402</v>
-      </c>
-      <c r="H5" s="23">
-        <v>30.829038979634799</v>
-      </c>
-      <c r="I5" s="23">
-        <v>31.352023482288899</v>
+        <v>15.2</v>
+      </c>
+      <c r="F5" s="60">
+        <v>36.4833465919559</v>
+      </c>
+      <c r="G5" s="37">
+        <v>37.938965531622401</v>
+      </c>
+      <c r="H5" s="37">
+        <v>30.479320114784699</v>
+      </c>
+      <c r="I5" s="37">
+        <v>31.250655093091101</v>
       </c>
       <c r="J5" s="3">
-        <v>3653682032.5007401</v>
+        <v>3660010478.5302801</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="23">
@@ -3556,25 +2888,25 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="23">
-        <v>0.1</v>
+        <v>2.2666666666666702</v>
       </c>
       <c r="E6" s="23">
-        <v>10</v>
-      </c>
-      <c r="F6" s="24">
-        <v>36.806747602328201</v>
-      </c>
-      <c r="G6" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="60">
+        <v>36.815663352033397</v>
+      </c>
+      <c r="G6" s="37">
         <v>37</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="49">
-        <v>-4338596.2089324398</v>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="48">
+        <v>-4337346.4320512097</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="23">
@@ -3582,25 +2914,25 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="23">
-        <v>1</v>
+        <v>2.2666666666666702</v>
       </c>
       <c r="E7" s="23">
-        <v>15</v>
-      </c>
-      <c r="F7" s="24">
-        <v>36.949941360231399</v>
-      </c>
-      <c r="G7" s="23">
-        <v>37.037509595048903</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="49">
-        <v>-683094.04759064899</v>
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="60">
+        <v>36.926701130609899</v>
+      </c>
+      <c r="G7" s="37">
+        <v>37.055635857325903</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="48">
+        <v>-690249.94815891702</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="23">
@@ -3613,20 +2945,20 @@
       <c r="E8" s="23">
         <v>10</v>
       </c>
-      <c r="F8" s="24">
-        <v>36.972840967377103</v>
-      </c>
-      <c r="G8" s="23">
-        <v>37.015757009276101</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="49">
-        <v>-149925.81911568</v>
+      <c r="F8" s="60">
+        <v>36.959347505559599</v>
+      </c>
+      <c r="G8" s="37">
+        <v>37.022325711577103</v>
+      </c>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="48">
+        <v>-152096.762405338</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="23">
@@ -3639,20 +2971,20 @@
       <c r="E9" s="23">
         <v>15</v>
       </c>
-      <c r="F9" s="24">
-        <v>36.983424155856198</v>
-      </c>
-      <c r="G9" s="23">
-        <v>37.049588238855002</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="49">
-        <v>967802.336210376</v>
+      <c r="F9" s="60">
+        <v>36.975144973660498</v>
+      </c>
+      <c r="G9" s="37">
+        <v>37.075061182253897</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="48">
+        <v>959642.12251960603</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="1">
@@ -3665,16 +2997,16 @@
       <c r="E10" s="1">
         <v>18</v>
       </c>
-      <c r="F10" s="45">
-        <v>36.991359445650701</v>
-      </c>
-      <c r="G10" s="1">
-        <v>37.124308429397701</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="50">
-        <v>9557874.4047890399</v>
+      <c r="F10" s="62">
+        <v>36.987937254094902</v>
+      </c>
+      <c r="G10" s="38">
+        <v>37.179911488939098</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="49">
+        <v>9468855.4997045305</v>
       </c>
     </row>
   </sheetData>
@@ -3683,4 +3015,859 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
+  <dimension ref="A1:AA17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="67"/>
+      <c r="V1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="31">
+        <v>2000000</v>
+      </c>
+      <c r="C2" s="32">
+        <f>(B2*4/(3*PI()))^(1/3)/100</f>
+        <v>0.94683205640999235</v>
+      </c>
+      <c r="D2" s="32">
+        <f>C2*3</f>
+        <v>2.8404961692299771</v>
+      </c>
+      <c r="E2" s="33">
+        <f>D2*9.8</f>
+        <v>27.836862458453776</v>
+      </c>
+      <c r="F2" s="31">
+        <f>'PID &amp; Gas Output'!W4</f>
+        <v>2.1061736989799401E-3</v>
+      </c>
+      <c r="G2" s="31">
+        <f>'PID &amp; Gas Output'!T4/10/24/3600</f>
+        <v>4.0133712131912962E-3</v>
+      </c>
+      <c r="H2" s="31">
+        <f>'PID &amp; Gas Output'!Z4</f>
+        <v>5.3139903719532904E-3</v>
+      </c>
+      <c r="J2" s="33">
+        <f>29*(100000+E2*1000)/(8.314*298)/1000</f>
+        <v>1.4963314936135699</v>
+      </c>
+      <c r="K2" s="33">
+        <f>29*(100000)/(8.314*288)/1000</f>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L2" s="33">
+        <f>J2/K2</f>
+        <v>1.2354703485917677</v>
+      </c>
+      <c r="M2" s="31">
+        <f>G2*127133</f>
+        <v>510.23192244664904</v>
+      </c>
+      <c r="N2" s="32">
+        <f>E2*0.145</f>
+        <v>4.0363450564757972</v>
+      </c>
+      <c r="O2" s="32">
+        <v>5</v>
+      </c>
+      <c r="P2" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="32">
+        <f>P2+O2</f>
+        <v>5.5</v>
+      </c>
+      <c r="R2" s="32">
+        <f>Q2+14.7+N2-P2/2</f>
+        <v>23.986345056475798</v>
+      </c>
+      <c r="S2" s="32">
+        <f>R2-O2</f>
+        <v>18.986345056475798</v>
+      </c>
+      <c r="T2" s="65">
+        <f>R2-14.7</f>
+        <v>9.286345056475799</v>
+      </c>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32">
+        <f>M2/963*SQRT(1*537/(R2^2-S2^2))</f>
+        <v>0.83762032944855647</v>
+      </c>
+      <c r="W2" s="32">
+        <f>F2/963*SQRT(1*537/(R2^2-S2^2))*127133*0.95</f>
+        <v>0.41759536389907442</v>
+      </c>
+      <c r="X2" s="32">
+        <f>H2/963*SQRT(1*537/(R2^2-S2^2))*127133*1.05</f>
+        <v>1.1645226509281046</v>
+      </c>
+      <c r="Y2" s="32">
+        <f>X2/W2</f>
+        <v>2.7886388394138151</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2">
+        <f>1.25/2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="31">
+        <v>500000</v>
+      </c>
+      <c r="C3" s="32">
+        <f>(B3*4/(1.5*PI()))^(1/3)/100</f>
+        <v>0.75150110119121716</v>
+      </c>
+      <c r="D3" s="32">
+        <f>C3*1.5</f>
+        <v>1.1272516517868256</v>
+      </c>
+      <c r="E3" s="33">
+        <f>D3*9.8</f>
+        <v>11.047066187510891</v>
+      </c>
+      <c r="F3" s="31">
+        <f>'PID &amp; Gas Output'!W5</f>
+        <v>6.8620111084161499E-5</v>
+      </c>
+      <c r="G3" s="31">
+        <f>'PID &amp; Gas Output'!T5/30/24/3600</f>
+        <v>3.2583983165975121E-3</v>
+      </c>
+      <c r="H3" s="31">
+        <f>'PID &amp; Gas Output'!Z5</f>
+        <v>3.6299908924129301E-3</v>
+      </c>
+      <c r="J3" s="33">
+        <f t="shared" ref="J3:J8" si="0">29*(100000+E3*1000+E704)/(8.314*298)/1000</f>
+        <v>1.2998067944898537</v>
+      </c>
+      <c r="K3" s="33">
+        <f t="shared" ref="K3:K8" si="1">29*(100000)/(8.314*288)/1000</f>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L3" s="33">
+        <f t="shared" ref="L3:L8" si="2">J3/K3</f>
+        <v>1.073206545704803</v>
+      </c>
+      <c r="M3" s="31">
+        <f t="shared" ref="M3:M8" si="3">G3*127133</f>
+        <v>414.24995318399152</v>
+      </c>
+      <c r="N3" s="32">
+        <f t="shared" ref="N3:N8" si="4">E3*0.145</f>
+        <v>1.6018245971890792</v>
+      </c>
+      <c r="O3" s="32">
+        <v>4</v>
+      </c>
+      <c r="P3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="32">
+        <f t="shared" ref="Q3:Q8" si="5">P3+O3</f>
+        <v>4.5</v>
+      </c>
+      <c r="R3" s="32">
+        <f t="shared" ref="R3:R8" si="6">Q3+14.7+N3-P3/2</f>
+        <v>20.551824597189079</v>
+      </c>
+      <c r="S3" s="32">
+        <f t="shared" ref="S3:S8" si="7">R3-O3</f>
+        <v>16.551824597189079</v>
+      </c>
+      <c r="T3" s="65">
+        <f t="shared" ref="T3:T8" si="8">R3-14.7</f>
+        <v>5.8518245971890792</v>
+      </c>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32">
+        <f t="shared" ref="V3:V8" si="9">M3/963*SQRT(1*537/(R3^2-S3^2))</f>
+        <v>0.81824811875100101</v>
+      </c>
+      <c r="W3" s="32">
+        <f t="shared" ref="W3:W8" si="10">F3/963*SQRT(1*537/(R3^2-S3^2))*127133*0.95</f>
+        <v>1.6370270844800982E-2</v>
+      </c>
+      <c r="X3" s="32">
+        <f t="shared" ref="X3:X8" si="11">H3/963*SQRT(1*537/(R3^2-S3^2))*127133*1.05</f>
+        <v>0.95714046494991245</v>
+      </c>
+      <c r="Y3" s="32">
+        <f t="shared" ref="Y3:Y8" si="12">X3/W3</f>
+        <v>58.468211920506477</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="31">
+        <v>20000</v>
+      </c>
+      <c r="C4" s="32">
+        <f>C5</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D4" s="32">
+        <f>B4/1000000/(C4^2*PI()/4)</f>
+        <v>0.13184415301017743</v>
+      </c>
+      <c r="E4" s="33">
+        <f>D4*9.8</f>
+        <v>1.2920726994997389</v>
+      </c>
+      <c r="F4" s="31">
+        <f>'PID &amp; Gas Output'!W6</f>
+        <v>1.3975285326972201E-4</v>
+      </c>
+      <c r="G4" s="31">
+        <f>'PID &amp; Gas Output'!T6/'Seed Train'!B11/24/3600</f>
+        <v>3.3433603456413966E-4</v>
+      </c>
+      <c r="H4" s="31">
+        <f>'PID &amp; Gas Output'!Z6</f>
+        <v>9.6504309442076695E-4</v>
+      </c>
+      <c r="J4" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1856245179899887</v>
+      </c>
+      <c r="K4" s="33">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L4" s="33">
+        <f t="shared" si="2"/>
+        <v>0.97893009857234625</v>
+      </c>
+      <c r="M4" s="31">
+        <f t="shared" si="3"/>
+        <v>42.505143082242768</v>
+      </c>
+      <c r="N4" s="32">
+        <f t="shared" si="4"/>
+        <v>0.18735054142746213</v>
+      </c>
+      <c r="O4" s="32">
+        <f>O5+N5-N4</f>
+        <v>3.7494021657098475</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="32">
+        <f t="shared" si="5"/>
+        <v>4.2494021657098475</v>
+      </c>
+      <c r="R4" s="32">
+        <f t="shared" si="6"/>
+        <v>18.886752707137312</v>
+      </c>
+      <c r="S4" s="32">
+        <f t="shared" si="7"/>
+        <v>15.137350541427464</v>
+      </c>
+      <c r="T4" s="65">
+        <f t="shared" si="8"/>
+        <v>4.1867527071373125</v>
+      </c>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32">
+        <f t="shared" si="9"/>
+        <v>9.0558241670667061E-2</v>
+      </c>
+      <c r="W4" s="32">
+        <f t="shared" si="10"/>
+        <v>3.5960778332525235E-2</v>
+      </c>
+      <c r="X4" s="32">
+        <f t="shared" si="11"/>
+        <v>0.27446110071607782</v>
+      </c>
+      <c r="Y4" s="32">
+        <f t="shared" si="12"/>
+        <v>7.6322347135583994</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="31">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="32">
+        <f>(B5*4/(1.5*PI()))^(1/3)/100</f>
+        <v>0.43948051003392441</v>
+      </c>
+      <c r="D5" s="32">
+        <f>C5*1.5</f>
+        <v>0.65922076505088656</v>
+      </c>
+      <c r="E5" s="33">
+        <f>D5*9.8</f>
+        <v>6.4603634974986885</v>
+      </c>
+      <c r="F5" s="31">
+        <f>'PID &amp; Gas Output'!W7</f>
+        <v>2.7767865134489101E-4</v>
+      </c>
+      <c r="G5" s="31">
+        <f>'PID &amp; Gas Output'!T7/'Seed Train'!B12/24/3600</f>
+        <v>4.4377239403811078E-4</v>
+      </c>
+      <c r="H5" s="31">
+        <f>'PID &amp; Gas Output'!Z7</f>
+        <v>9.7528687521887699E-4</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" si="0"/>
+        <v>1.2461194029588087</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L5" s="33">
+        <f t="shared" si="2"/>
+        <v>1.0288786807811952</v>
+      </c>
+      <c r="M5" s="31">
+        <f t="shared" si="3"/>
+        <v>56.418115771247138</v>
+      </c>
+      <c r="N5" s="32">
+        <f t="shared" si="4"/>
+        <v>0.93675270713730974</v>
+      </c>
+      <c r="O5" s="32">
+        <v>3</v>
+      </c>
+      <c r="P5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="32">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="R5" s="32">
+        <f t="shared" si="6"/>
+        <v>18.886752707137308</v>
+      </c>
+      <c r="S5" s="32">
+        <f t="shared" si="7"/>
+        <v>15.886752707137308</v>
+      </c>
+      <c r="T5" s="65">
+        <f t="shared" si="8"/>
+        <v>4.186752707137309</v>
+      </c>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32">
+        <f t="shared" si="9"/>
+        <v>0.13292129678625048</v>
+      </c>
+      <c r="W5" s="32">
+        <f t="shared" si="10"/>
+        <v>7.9013333358175869E-2</v>
+      </c>
+      <c r="X5" s="32">
+        <f t="shared" si="11"/>
+        <v>0.30672979624471336</v>
+      </c>
+      <c r="Y5" s="32">
+        <f t="shared" si="12"/>
+        <v>3.8820004574958822</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="31">
+        <v>20000</v>
+      </c>
+      <c r="C6" s="32">
+        <f>(B6*4/(3*PI()))^(1/3)/100</f>
+        <v>0.20398878279639124</v>
+      </c>
+      <c r="D6" s="32">
+        <f>C6*3</f>
+        <v>0.61196634838917374</v>
+      </c>
+      <c r="E6" s="33">
+        <f>D6*9.8</f>
+        <v>5.9972702142139029</v>
+      </c>
+      <c r="F6" s="31">
+        <f>'PID &amp; Gas Output'!W8</f>
+        <v>3.6123153872598101E-6</v>
+      </c>
+      <c r="G6" s="31">
+        <f>'PID &amp; Gas Output'!T8/'Seed Train'!B8/24/3600</f>
+        <v>2.6205615232805545E-5</v>
+      </c>
+      <c r="H6" s="31">
+        <f>'PID &amp; Gas Output'!Z8</f>
+        <v>1.1611381670112299E-4</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" si="0"/>
+        <v>1.2406988923882749</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L6" s="33">
+        <f t="shared" si="2"/>
+        <v>1.0244031483789797</v>
+      </c>
+      <c r="M6" s="31">
+        <f>G6*127133</f>
+        <v>3.3315984813922674</v>
+      </c>
+      <c r="N6" s="32">
+        <f t="shared" si="4"/>
+        <v>0.86960418106101589</v>
+      </c>
+      <c r="O6" s="32">
+        <f>O7+N7-N6</f>
+        <v>2.5108064107511856</v>
+      </c>
+      <c r="P6" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="32">
+        <f t="shared" si="5"/>
+        <v>3.0108064107511856</v>
+      </c>
+      <c r="R6" s="32">
+        <f t="shared" si="6"/>
+        <v>18.330410591812203</v>
+      </c>
+      <c r="S6" s="32">
+        <f t="shared" si="7"/>
+        <v>15.819604181061017</v>
+      </c>
+      <c r="T6" s="65">
+        <f t="shared" si="8"/>
+        <v>3.630410591812204</v>
+      </c>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32">
+        <f>M6/963*SQRT(1*537/(R6^2-S6^2))</f>
+        <v>8.6578777413477189E-3</v>
+      </c>
+      <c r="W6" s="32">
+        <f t="shared" si="10"/>
+        <v>1.133773638696575E-3</v>
+      </c>
+      <c r="X6" s="32">
+        <f t="shared" si="11"/>
+        <v>4.0280076661285587E-2</v>
+      </c>
+      <c r="Y6" s="32">
+        <f t="shared" si="12"/>
+        <v>35.527441533737672</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="31">
+        <v>80000</v>
+      </c>
+      <c r="C7" s="32">
+        <f>(B7*4/(3*PI()))^(1/3)/100</f>
+        <v>0.32381200840070401</v>
+      </c>
+      <c r="D7" s="32">
+        <f>C7*3</f>
+        <v>0.97143602520211203</v>
+      </c>
+      <c r="E7" s="33">
+        <f>D7*9.8</f>
+        <v>9.5200730469806985</v>
+      </c>
+      <c r="F7" s="31">
+        <f>'PID &amp; Gas Output'!W9</f>
+        <v>2.7738531734872098E-4</v>
+      </c>
+      <c r="G7" s="31">
+        <f>'PID &amp; Gas Output'!T9/'Seed Train'!B9/24/3600</f>
+        <v>3.1820393691348704E-4</v>
+      </c>
+      <c r="H7" s="31">
+        <f>'PID &amp; Gas Output'!Z9</f>
+        <v>4.4930211738727498E-4</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
+        <v>1.2819333276136637</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="2"/>
+        <v>1.058449028105048</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" si="3"/>
+        <v>40.454221111622346</v>
+      </c>
+      <c r="N7" s="32">
+        <f t="shared" si="4"/>
+        <v>1.3804105918122012</v>
+      </c>
+      <c r="O7" s="32">
+        <v>2</v>
+      </c>
+      <c r="P7" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="32">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="32">
+        <f t="shared" si="6"/>
+        <v>18.3304105918122</v>
+      </c>
+      <c r="S7" s="32">
+        <f t="shared" si="7"/>
+        <v>16.3304105918122</v>
+      </c>
+      <c r="T7" s="65">
+        <f t="shared" si="8"/>
+        <v>3.6304105918122005</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32">
+        <f t="shared" si="9"/>
+        <v>0.11692039606828517</v>
+      </c>
+      <c r="W7" s="32">
+        <f t="shared" si="10"/>
+        <v>9.6825958246767888E-2</v>
+      </c>
+      <c r="X7" s="32">
+        <f t="shared" si="11"/>
+        <v>0.17334546872749079</v>
+      </c>
+      <c r="Y7" s="32">
+        <f t="shared" si="12"/>
+        <v>1.7902788866360346</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="31">
+        <v>400000</v>
+      </c>
+      <c r="C8" s="32">
+        <f>(B8*4/(3*PI()))^(1/3)/100</f>
+        <v>0.55371074561027633</v>
+      </c>
+      <c r="D8" s="32">
+        <f>C8*3</f>
+        <v>1.661132236830829</v>
+      </c>
+      <c r="E8" s="33">
+        <f>D8*9.8</f>
+        <v>16.279095920942126</v>
+      </c>
+      <c r="F8" s="31">
+        <f>'PID &amp; Gas Output'!W10</f>
+        <v>1.4599157214174199E-3</v>
+      </c>
+      <c r="G8" s="31">
+        <f>'PID &amp; Gas Output'!T10/'Seed Train'!B10/24/3600</f>
+        <v>1.5291703869733961E-3</v>
+      </c>
+      <c r="H8" s="31">
+        <f>'PID &amp; Gas Output'!Z10</f>
+        <v>1.829851947594E-3</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3610477442057471</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" si="1"/>
+        <v>1.2111431855237487</v>
+      </c>
+      <c r="L8" s="33">
+        <f t="shared" si="2"/>
+        <v>1.1237711283634673</v>
+      </c>
+      <c r="M8" s="31">
+        <f t="shared" si="3"/>
+        <v>194.40801880708875</v>
+      </c>
+      <c r="N8" s="32">
+        <f t="shared" si="4"/>
+        <v>2.3604689085366082</v>
+      </c>
+      <c r="O8" s="32">
+        <f>O7+N7-N8</f>
+        <v>1.0199416832755932</v>
+      </c>
+      <c r="P8" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="32">
+        <f t="shared" si="5"/>
+        <v>1.5199416832755932</v>
+      </c>
+      <c r="R8" s="32">
+        <f t="shared" si="6"/>
+        <v>18.3304105918122</v>
+      </c>
+      <c r="S8" s="32">
+        <f t="shared" si="7"/>
+        <v>17.310468908536606</v>
+      </c>
+      <c r="T8" s="66">
+        <f t="shared" si="8"/>
+        <v>3.6304105918122005</v>
+      </c>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32">
+        <f t="shared" si="9"/>
+        <v>0.77591322354531012</v>
+      </c>
+      <c r="W8" s="32">
+        <f t="shared" si="10"/>
+        <v>0.70373421235544498</v>
+      </c>
+      <c r="X8" s="32">
+        <f t="shared" si="11"/>
+        <v>0.97490551225124988</v>
+      </c>
+      <c r="Y8" s="32">
+        <f t="shared" si="12"/>
+        <v>1.385331983488733</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA8">
+        <f>1.25/2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W10" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" s="50"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>137</v>
+      </c>
+      <c r="V13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="W10:X10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396E429-15B3-4A0A-AF98-325D4D69963F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA50FD2-F45E-4225-884C-08F92D27B8FF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="1" activeTab="5" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="1" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -760,6 +760,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,20 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,10 +1287,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="62"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1625,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1663,7 @@
     <col min="28" max="28" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
@@ -1694,37 +1694,37 @@
       <c r="Z1" s="23"/>
       <c r="AA1" s="23"/>
     </row>
-    <row r="2" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="51" t="s">
+    <row r="2" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="55"/>
-    </row>
-    <row r="3" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67"/>
+    </row>
+    <row r="3" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>17</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="X3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="51" t="s">
         <v>113</v>
       </c>
       <c r="Z3" s="10" t="s">
@@ -1810,7 +1810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
@@ -1863,40 +1863,81 @@
         <v>0</v>
       </c>
       <c r="R4" s="25">
-        <v>2289.5093864493401</v>
+        <v>2608.173175888986</v>
       </c>
       <c r="S4" s="26">
-        <v>326.38210442599001</v>
+        <v>371.80937317502492</v>
       </c>
       <c r="T4" s="26">
-        <v>3467.55272819728</v>
+        <v>3950.1816700085992</v>
       </c>
       <c r="U4" s="26">
-        <v>1.3034382223609899E-3</v>
+        <v>1.4848563749557619E-3</v>
       </c>
       <c r="V4" s="26">
-        <v>3.11599928943583E-4</v>
+        <v>3.5496975076391545E-4</v>
       </c>
       <c r="W4" s="26">
-        <v>2.1061736989799401E-3</v>
+        <v>2.3993200368405275E-3</v>
       </c>
       <c r="X4" s="26">
-        <v>4.6200570038971199E-3</v>
+        <v>5.2630964607356208E-3</v>
       </c>
       <c r="Y4" s="26">
-        <v>4.2550085526043299E-4</v>
+        <v>4.847238991796286E-4</v>
       </c>
       <c r="Z4" s="26">
-        <v>5.3139903719532904E-3</v>
+        <v>6.0536144674013474E-3</v>
       </c>
       <c r="AA4" s="37">
         <v>91.127393678000701</v>
       </c>
-      <c r="AB4" s="58">
+      <c r="AB4" s="52">
         <v>43.261320828720699</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*R4</f>
+        <v>2971.1899657142376</v>
+      </c>
+      <c r="AE4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*S4</f>
+        <v>423.55940508421031</v>
+      </c>
+      <c r="AF4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*T4</f>
+        <v>4499.9849891782724</v>
+      </c>
+      <c r="AG4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*U4</f>
+        <v>1.691525088356771E-3</v>
+      </c>
+      <c r="AH4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*V4</f>
+        <v>4.0437597140854914E-4</v>
+      </c>
+      <c r="AI4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*W4</f>
+        <v>2.7332677461372377E-3</v>
+      </c>
+      <c r="AJ4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*X4</f>
+        <v>5.9956369221509827E-3</v>
+      </c>
+      <c r="AK4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*Y4</f>
+        <v>5.5218986173857234E-4</v>
+      </c>
+      <c r="AL4" s="26">
+        <f>('Valves and Pressure Drop'!$E2/2+100)/100*Z4</f>
+        <v>6.8961826339291338E-3</v>
+      </c>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+    </row>
+    <row r="5" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
@@ -1949,40 +1990,76 @@
         <v>0</v>
       </c>
       <c r="R5" s="25">
-        <v>2364.7815935950098</v>
+        <v>2495.4010875122676</v>
       </c>
       <c r="S5" s="26">
-        <v>748.10818100301594</v>
+        <v>789.43018395780939</v>
       </c>
       <c r="T5" s="26">
-        <v>8445.7684366207504</v>
+        <v>8912.2732512394487</v>
       </c>
       <c r="U5" s="26">
-        <v>5.1132970210149102E-4</v>
+        <v>5.3957316741526796E-4</v>
       </c>
       <c r="V5" s="26">
-        <v>1.91342629246065E-4</v>
+        <v>2.0191150269493316E-4</v>
       </c>
       <c r="W5" s="26">
-        <v>6.8620111084161499E-5</v>
+        <v>7.2410365628866897E-5</v>
       </c>
       <c r="X5" s="26">
-        <v>7.2247962803913997E-3</v>
+        <v>7.6238602938952307E-3</v>
       </c>
       <c r="Y5" s="26">
-        <v>3.5666642379847098E-4</v>
+        <v>3.7636701175129358E-4</v>
       </c>
       <c r="Z5" s="26">
-        <v>3.6299908924129301E-3</v>
+        <v>3.8304946406556668E-3</v>
       </c>
       <c r="AA5" s="37">
         <v>135.67627158359201</v>
       </c>
-      <c r="AB5" s="58">
+      <c r="AB5" s="52">
         <v>47.171691300973698</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*R5</f>
+        <v>2633.2353924029408</v>
+      </c>
+      <c r="AE5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*S5</f>
+        <v>833.03462142081344</v>
+      </c>
+      <c r="AF5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*T5</f>
+        <v>9404.5456136775738</v>
+      </c>
+      <c r="AG5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*U5</f>
+        <v>5.693766698824747E-4</v>
+      </c>
+      <c r="AH5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*V5</f>
+        <v>2.1306415136638672E-4</v>
+      </c>
+      <c r="AI5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*W5</f>
+        <v>7.6409976137686679E-5</v>
+      </c>
+      <c r="AJ5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*X5</f>
+        <v>8.0449667402502142E-3</v>
+      </c>
+      <c r="AK5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*Y5</f>
+        <v>3.9715576819935472E-4</v>
+      </c>
+      <c r="AL5" s="26">
+        <f>('Valves and Pressure Drop'!$E3/2+100)/100*Z5</f>
+        <v>4.0420732797868111E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>75</v>
       </c>
@@ -2035,40 +2112,76 @@
         <v>0</v>
       </c>
       <c r="R6" s="25">
-        <v>231.63905500100299</v>
+        <v>233.13552749652655</v>
       </c>
       <c r="S6" s="26">
-        <v>18.550649916405</v>
+        <v>18.670493857979821</v>
       </c>
       <c r="T6" s="26">
-        <v>70.916684963468796</v>
+        <v>71.374832526370398</v>
       </c>
       <c r="U6" s="26">
-        <v>4.3907774064588703E-4</v>
+        <v>4.4191434245411992E-4</v>
       </c>
       <c r="V6" s="26">
-        <v>7.7087816434189097E-5</v>
+        <v>7.7585831749582413E-5</v>
       </c>
       <c r="W6" s="26">
-        <v>1.3975285326972201E-4</v>
+        <v>1.4065570750165701E-4</v>
       </c>
       <c r="X6" s="26">
-        <v>1.3001018372919199E-3</v>
+        <v>1.3085009677445917E-3</v>
       </c>
       <c r="Y6" s="26">
-        <v>1.13209194699769E-4</v>
+        <v>1.139405672487886E-4</v>
       </c>
       <c r="Z6" s="26">
-        <v>9.6504309442076695E-4</v>
+        <v>9.71277623601476E-4</v>
       </c>
       <c r="AA6" s="37">
         <v>133.00291303165599</v>
       </c>
-      <c r="AB6" s="58">
+      <c r="AB6" s="52">
         <v>59.6570893210219</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*R6</f>
+        <v>234.64166774833521</v>
+      </c>
+      <c r="AE6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*S6</f>
+        <v>18.791112034980188</v>
+      </c>
+      <c r="AF6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*T6</f>
+        <v>71.835939889063837</v>
+      </c>
+      <c r="AG6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*U6</f>
+        <v>4.4476926974113164E-4</v>
+      </c>
+      <c r="AH6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*V6</f>
+        <v>7.8087064424940493E-5</v>
+      </c>
+      <c r="AI6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*W6</f>
+        <v>1.4156439450011557E-4</v>
+      </c>
+      <c r="AJ6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*X6</f>
+        <v>1.3169543596330505E-3</v>
+      </c>
+      <c r="AK6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*Y6</f>
+        <v>1.1467666473032697E-4</v>
+      </c>
+      <c r="AL6" s="26">
+        <f>('Valves and Pressure Drop'!$E4/2+100)/100*Z6</f>
+        <v>9.7755243010692818E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>76</v>
       </c>
@@ -2121,40 +2234,76 @@
         <v>0</v>
       </c>
       <c r="R7" s="25">
-        <v>207.50841845156401</v>
+        <v>214.21131751150483</v>
       </c>
       <c r="S7" s="26">
-        <v>18.932098655967501</v>
+        <v>19.543639851407782</v>
       </c>
       <c r="T7" s="26">
-        <v>93.937740369987296</v>
+        <v>96.972100114606164</v>
       </c>
       <c r="U7" s="26">
-        <v>4.3601274512847601E-4</v>
+        <v>4.5009674924383704E-4</v>
       </c>
       <c r="V7" s="26">
-        <v>8.0653880890455403E-5</v>
+        <v>8.325914783063693E-5</v>
       </c>
       <c r="W7" s="26">
-        <v>2.7767865134489101E-4</v>
+        <v>2.8664817646080698E-4</v>
       </c>
       <c r="X7" s="26">
-        <v>1.1586099747604799E-3</v>
+        <v>1.1960351827043822E-3</v>
       </c>
       <c r="Y7" s="26">
-        <v>1.0572667157065701E-4</v>
+        <v>1.0914183521929252E-4</v>
       </c>
       <c r="Z7" s="26">
-        <v>9.7528687521887699E-4</v>
+        <v>1.006790413860145E-3</v>
       </c>
       <c r="AA7" s="37">
         <v>146.91796047890901</v>
       </c>
-      <c r="AB7" s="58">
+      <c r="AB7" s="52">
         <v>55.367097463428401</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*R7</f>
+        <v>221.13073239351695</v>
+      </c>
+      <c r="AE7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*S7</f>
+        <v>20.174934938929258</v>
+      </c>
+      <c r="AF7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*T7</f>
+        <v>100.10447519388711</v>
+      </c>
+      <c r="AG7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*U7</f>
+        <v>4.6463569228962555E-4</v>
+      </c>
+      <c r="AH7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*V7</f>
+        <v>8.59485696280264E-5</v>
+      </c>
+      <c r="AI7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*W7</f>
+        <v>2.9590743353996677E-4</v>
+      </c>
+      <c r="AJ7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*X7</f>
+        <v>1.23466929288472E-3</v>
+      </c>
+      <c r="AK7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*Y7</f>
+        <v>1.1266731486079619E-4</v>
+      </c>
+      <c r="AL7" s="26">
+        <f>('Valves and Pressure Drop'!$E5/2+100)/100*Z7</f>
+        <v>1.0393115740568134E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>77</v>
       </c>
@@ -2207,44 +2356,80 @@
         <v>0</v>
       </c>
       <c r="R8" s="25">
-        <v>56.595457845619002</v>
+        <v>58.292549113605645</v>
       </c>
       <c r="S8" s="26">
-        <v>7.4111384019514297</v>
+        <v>7.6333713999086292</v>
       </c>
       <c r="T8" s="26">
-        <v>5.5585254582608501</v>
+        <v>5.725205354089737</v>
       </c>
       <c r="U8" s="26">
-        <v>1.7180629264130099E-4</v>
+        <v>1.7695813644866192E-4</v>
       </c>
       <c r="V8" s="26">
-        <v>3.3294606441974197E-5</v>
+        <v>3.4292990199516325E-5</v>
       </c>
       <c r="W8" s="26">
-        <v>3.6123153872598101E-6</v>
+        <v>3.7206355446416086E-6</v>
       </c>
       <c r="X8" s="26">
-        <v>3.2326829091540899E-4</v>
+        <v>3.3296192737694303E-4</v>
       </c>
       <c r="Y8" s="26">
-        <v>3.9102757678946303E-5</v>
+        <v>4.0275306698554143E-5</v>
       </c>
       <c r="Z8" s="26">
-        <v>1.1611381670112299E-4</v>
+        <v>1.1959564637292466E-4</v>
       </c>
       <c r="AA8" s="37">
         <v>149.87101148453499</v>
       </c>
-      <c r="AB8" s="58">
+      <c r="AB8" s="52">
         <v>41.630397373854798</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*R8</f>
+        <v>60.040529956153776</v>
+      </c>
+      <c r="AE8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*S8</f>
+        <v>7.8622683545621497</v>
+      </c>
+      <c r="AF8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*T8</f>
+        <v>5.8968833717914384</v>
+      </c>
+      <c r="AG8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*U8</f>
+        <v>1.8226446525309369E-4</v>
+      </c>
+      <c r="AH8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*V8</f>
+        <v>3.5321311842915764E-5</v>
+      </c>
+      <c r="AI8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*W8</f>
+        <v>3.8322038282907316E-6</v>
+      </c>
+      <c r="AJ8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*X8</f>
+        <v>3.4294624062456797E-4</v>
+      </c>
+      <c r="AK8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*Y8</f>
+        <v>4.148301618471198E-5</v>
+      </c>
+      <c r="AL8" s="26">
+        <f>('Valves and Pressure Drop'!$E6/2+100)/100*Z8</f>
+        <v>1.2318188341163466E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="50">
         <v>0</v>
       </c>
       <c r="C9" s="17">
@@ -2293,40 +2478,76 @@
         <v>0</v>
       </c>
       <c r="R9" s="25">
-        <v>81.108840781181698</v>
+        <v>84.969651226145587</v>
       </c>
       <c r="S9" s="26">
-        <v>11.0640495696386</v>
+        <v>11.590702370130474</v>
       </c>
       <c r="T9" s="26">
-        <v>58.284778716569598</v>
+        <v>61.05915547111384</v>
       </c>
       <c r="U9" s="26">
-        <v>3.0865755229728998E-4</v>
+        <v>3.2334976451915231E-4</v>
       </c>
       <c r="V9" s="26">
-        <v>5.8318507985541198E-5</v>
+        <v>6.1094490265607593E-5</v>
       </c>
       <c r="W9" s="26">
-        <v>2.7738531734872098E-4</v>
+        <v>2.9058895976531973E-4</v>
       </c>
       <c r="X9" s="26">
-        <v>4.8767018199222001E-4</v>
+        <v>5.1088346076922156E-4</v>
       </c>
       <c r="Y9" s="26">
-        <v>6.55786696603339E-5</v>
+        <v>6.8700238287784879E-5</v>
       </c>
       <c r="Z9" s="26">
-        <v>4.4930211738727498E-4</v>
+        <v>4.7068906227572477E-4</v>
       </c>
       <c r="AA9" s="37">
         <v>118.033332127951</v>
       </c>
-      <c r="AB9" s="58">
+      <c r="AB9" s="52">
         <v>43.3637076844864</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*R9</f>
+        <v>89.014237658392489</v>
+      </c>
+      <c r="AE9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*S9</f>
+        <v>12.142424036277747</v>
+      </c>
+      <c r="AF9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*T9</f>
+        <v>63.965593572473615</v>
+      </c>
+      <c r="AG9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*U9</f>
+        <v>3.3874133140888399E-4</v>
+      </c>
+      <c r="AH9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*V9</f>
+        <v>6.4002610316090771E-5</v>
+      </c>
+      <c r="AI9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*W9</f>
+        <v>3.0442110038337965E-4</v>
+      </c>
+      <c r="AJ9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*X9</f>
+        <v>5.3520170009430806E-4</v>
+      </c>
+      <c r="AK9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*Y9</f>
+        <v>7.1970394722008338E-5</v>
+      </c>
+      <c r="AL9" s="26">
+        <f>('Valves and Pressure Drop'!$E7/2+100)/100*Z9</f>
+        <v>4.9309403355212356E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
@@ -2379,51 +2600,87 @@
         <v>0</v>
       </c>
       <c r="R10" s="27">
-        <v>152.93776307011899</v>
+        <v>165.38620564488301</v>
       </c>
       <c r="S10" s="28">
-        <v>32.431468898795202</v>
+        <v>35.071243864097902</v>
       </c>
       <c r="T10" s="28">
-        <v>324.35538912170102</v>
+        <v>350.756451581634</v>
       </c>
       <c r="U10" s="28">
-        <v>4.2164027955509699E-4</v>
+        <v>4.5595989233014801E-4</v>
       </c>
       <c r="V10" s="28">
-        <v>1.4939739392426301E-4</v>
+        <v>1.61557666454422E-4</v>
       </c>
       <c r="W10" s="28">
-        <v>1.4599157214174199E-3</v>
+        <v>1.5787462617446401E-3</v>
       </c>
       <c r="X10" s="28">
-        <v>7.9868301603877503E-4</v>
+        <v>8.6369220318138805E-4</v>
       </c>
       <c r="Y10" s="28">
-        <v>1.5977092882234E-4</v>
+        <v>1.7277556020072501E-4</v>
       </c>
       <c r="Z10" s="28">
-        <v>1.829851947594E-3</v>
+        <v>1.9787936244740202E-3</v>
       </c>
       <c r="AA10" s="38">
         <v>90.225142255446201</v>
       </c>
-      <c r="AB10" s="59">
+      <c r="AB10" s="53">
         <v>39.515087305645999</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*R10</f>
+        <v>178.84789517335156</v>
+      </c>
+      <c r="AE10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*S10</f>
+        <v>37.925884578749915</v>
+      </c>
+      <c r="AF10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*T10</f>
+        <v>379.3064411825676</v>
+      </c>
+      <c r="AG10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*U10</f>
+        <v>4.9307296644687261E-4</v>
+      </c>
+      <c r="AH10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*V10</f>
+        <v>1.7470773019929756E-4</v>
+      </c>
+      <c r="AI10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*W10</f>
+        <v>1.7072490708934893E-3</v>
+      </c>
+      <c r="AJ10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*X10</f>
+        <v>9.339928442901864E-4</v>
+      </c>
+      <c r="AK10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*Y10</f>
+        <v>1.8683870978723559E-4</v>
+      </c>
+      <c r="AL10" s="26">
+        <f>('Valves and Pressure Drop'!$E8/2+100)/100*Z10</f>
+        <v>2.1398584805768267E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="X12" s="31"/>
       <c r="Z12" s="31"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="X13" s="31"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -2438,7 +2695,7 @@
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -2775,13 +3032,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
@@ -2831,7 +3088,7 @@
       <c r="E4" s="23">
         <v>22</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="54">
         <v>36.230454732068402</v>
       </c>
       <c r="G4" s="37">
@@ -2863,7 +3120,7 @@
       <c r="E5" s="23">
         <v>15.2</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="54">
         <v>36.4833465919559</v>
       </c>
       <c r="G5" s="37">
@@ -2893,14 +3150,14 @@
       <c r="E6" s="23">
         <v>4.5</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="54">
         <v>36.815663352033397</v>
       </c>
       <c r="G6" s="37">
         <v>37</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="48">
         <v>-4337346.4320512097</v>
       </c>
@@ -2919,14 +3176,14 @@
       <c r="E7" s="23">
         <v>4.5</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="54">
         <v>36.926701130609899</v>
       </c>
       <c r="G7" s="37">
         <v>37.055635857325903</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="48">
         <v>-690249.94815891702</v>
       </c>
@@ -2945,14 +3202,14 @@
       <c r="E8" s="23">
         <v>10</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="54">
         <v>36.959347505559599</v>
       </c>
       <c r="G8" s="37">
         <v>37.022325711577103</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="48">
         <v>-152096.762405338</v>
       </c>
@@ -2971,14 +3228,14 @@
       <c r="E9" s="23">
         <v>15</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="54">
         <v>36.975144973660498</v>
       </c>
       <c r="G9" s="37">
         <v>37.075061182253897</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="48">
         <v>959642.12251960603</v>
       </c>
@@ -2997,14 +3254,14 @@
       <c r="E10" s="1">
         <v>18</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="56">
         <v>36.987937254094902</v>
       </c>
       <c r="G10" s="38">
         <v>37.179911488939098</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="49">
         <v>9468855.4997045305</v>
       </c>
@@ -3021,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,10 +3364,10 @@
       <c r="S1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="U1" s="67"/>
+      <c r="U1" s="61"/>
       <c r="V1" t="s">
         <v>134</v>
       </c>
@@ -3146,20 +3403,20 @@
         <v>2.8404961692299771</v>
       </c>
       <c r="E2" s="33">
-        <f>D2*9.8</f>
+        <f t="shared" ref="E2:E8" si="0">D2*9.8</f>
         <v>27.836862458453776</v>
       </c>
       <c r="F2" s="31">
         <f>'PID &amp; Gas Output'!W4</f>
-        <v>2.1061736989799401E-3</v>
+        <v>2.3993200368405275E-3</v>
       </c>
       <c r="G2" s="31">
         <f>'PID &amp; Gas Output'!T4/10/24/3600</f>
-        <v>4.0133712131912962E-3</v>
+        <v>4.5719695254729164E-3</v>
       </c>
       <c r="H2" s="31">
         <f>'PID &amp; Gas Output'!Z4</f>
-        <v>5.3139903719532904E-3</v>
+        <v>6.0536144674013474E-3</v>
       </c>
       <c r="J2" s="33">
         <f>29*(100000+E2*1000)/(8.314*298)/1000</f>
@@ -3175,7 +3432,7 @@
       </c>
       <c r="M2" s="31">
         <f>G2*127133</f>
-        <v>510.23192244664904</v>
+        <v>581.24820168194833</v>
       </c>
       <c r="N2" s="32">
         <f>E2*0.145</f>
@@ -3199,26 +3456,26 @@
         <f>R2-O2</f>
         <v>18.986345056475798</v>
       </c>
-      <c r="T2" s="65">
+      <c r="T2" s="59">
         <f>R2-14.7</f>
         <v>9.286345056475799</v>
       </c>
       <c r="U2" s="32"/>
       <c r="V2" s="32">
         <f>M2/963*SQRT(1*537/(R2^2-S2^2))</f>
-        <v>0.83762032944855647</v>
+        <v>0.95420393896487787</v>
       </c>
       <c r="W2" s="32">
         <f>F2/963*SQRT(1*537/(R2^2-S2^2))*127133*0.95</f>
-        <v>0.41759536389907442</v>
+        <v>0.47571808743980704</v>
       </c>
       <c r="X2" s="32">
         <f>H2/963*SQRT(1*537/(R2^2-S2^2))*127133*1.05</f>
-        <v>1.1645226509281046</v>
+        <v>1.3266059352463029</v>
       </c>
       <c r="Y2" s="32">
         <f>X2/W2</f>
-        <v>2.7886388394138151</v>
+        <v>2.7886388394138142</v>
       </c>
       <c r="Z2" t="s">
         <v>123</v>
@@ -3244,39 +3501,39 @@
         <v>1.1272516517868256</v>
       </c>
       <c r="E3" s="33">
-        <f>D3*9.8</f>
+        <f t="shared" si="0"/>
         <v>11.047066187510891</v>
       </c>
       <c r="F3" s="31">
         <f>'PID &amp; Gas Output'!W5</f>
-        <v>6.8620111084161499E-5</v>
+        <v>7.2410365628866897E-5</v>
       </c>
       <c r="G3" s="31">
         <f>'PID &amp; Gas Output'!T5/30/24/3600</f>
-        <v>3.2583983165975121E-3</v>
+        <v>3.4383770259411453E-3</v>
       </c>
       <c r="H3" s="31">
         <f>'PID &amp; Gas Output'!Z5</f>
-        <v>3.6299908924129301E-3</v>
+        <v>3.8304946406556668E-3</v>
       </c>
       <c r="J3" s="33">
-        <f t="shared" ref="J3:J8" si="0">29*(100000+E3*1000+E704)/(8.314*298)/1000</f>
+        <f t="shared" ref="J3:J8" si="1">29*(100000+E3*1000+E704)/(8.314*298)/1000</f>
         <v>1.2998067944898537</v>
       </c>
       <c r="K3" s="33">
-        <f t="shared" ref="K3:K8" si="1">29*(100000)/(8.314*288)/1000</f>
+        <f t="shared" ref="K3:K8" si="2">29*(100000)/(8.314*288)/1000</f>
         <v>1.2111431855237487</v>
       </c>
       <c r="L3" s="33">
-        <f t="shared" ref="L3:L8" si="2">J3/K3</f>
+        <f t="shared" ref="L3:L8" si="3">J3/K3</f>
         <v>1.073206545704803</v>
       </c>
       <c r="M3" s="31">
-        <f t="shared" ref="M3:M8" si="3">G3*127133</f>
-        <v>414.24995318399152</v>
+        <f t="shared" ref="M3:M8" si="4">G3*127133</f>
+        <v>437.13118643897565</v>
       </c>
       <c r="N3" s="32">
-        <f t="shared" ref="N3:N8" si="4">E3*0.145</f>
+        <f t="shared" ref="N3:N8" si="5">E3*0.145</f>
         <v>1.6018245971890792</v>
       </c>
       <c r="O3" s="32">
@@ -3286,37 +3543,37 @@
         <v>0.5</v>
       </c>
       <c r="Q3" s="32">
-        <f t="shared" ref="Q3:Q8" si="5">P3+O3</f>
+        <f t="shared" ref="Q3:Q8" si="6">P3+O3</f>
         <v>4.5</v>
       </c>
       <c r="R3" s="32">
-        <f t="shared" ref="R3:R8" si="6">Q3+14.7+N3-P3/2</f>
+        <f t="shared" ref="R3:R8" si="7">Q3+14.7+N3-P3/2</f>
         <v>20.551824597189079</v>
       </c>
       <c r="S3" s="32">
-        <f t="shared" ref="S3:S8" si="7">R3-O3</f>
+        <f t="shared" ref="S3:S8" si="8">R3-O3</f>
         <v>16.551824597189079</v>
       </c>
-      <c r="T3" s="65">
-        <f t="shared" ref="T3:T8" si="8">R3-14.7</f>
+      <c r="T3" s="59">
+        <f t="shared" ref="T3:T8" si="9">R3-14.7</f>
         <v>5.8518245971890792</v>
       </c>
       <c r="U3" s="32"/>
       <c r="V3" s="32">
-        <f t="shared" ref="V3:V8" si="9">M3/963*SQRT(1*537/(R3^2-S3^2))</f>
-        <v>0.81824811875100101</v>
+        <f t="shared" ref="V3:V8" si="10">M3/963*SQRT(1*537/(R3^2-S3^2))</f>
+        <v>0.86344432437924368</v>
       </c>
       <c r="W3" s="32">
-        <f t="shared" ref="W3:W8" si="10">F3/963*SQRT(1*537/(R3^2-S3^2))*127133*0.95</f>
-        <v>1.6370270844800982E-2</v>
+        <f t="shared" ref="W3:W8" si="11">F3/963*SQRT(1*537/(R3^2-S3^2))*127133*0.95</f>
+        <v>1.7274488172450964E-2</v>
       </c>
       <c r="X3" s="32">
-        <f t="shared" ref="X3:X8" si="11">H3/963*SQRT(1*537/(R3^2-S3^2))*127133*1.05</f>
-        <v>0.95714046494991245</v>
+        <f t="shared" ref="X3:X8" si="12">H3/963*SQRT(1*537/(R3^2-S3^2))*127133*1.05</f>
+        <v>1.0100084352851455</v>
       </c>
       <c r="Y3" s="32">
-        <f t="shared" ref="Y3:Y8" si="12">X3/W3</f>
-        <v>58.468211920506477</v>
+        <f t="shared" ref="Y3:Y8" si="13">X3/W3</f>
+        <v>58.468211920506469</v>
       </c>
       <c r="Z3" t="s">
         <v>122</v>
@@ -3341,39 +3598,39 @@
         <v>0.13184415301017743</v>
       </c>
       <c r="E4" s="33">
-        <f>D4*9.8</f>
+        <f t="shared" si="0"/>
         <v>1.2920726994997389</v>
       </c>
       <c r="F4" s="31">
         <f>'PID &amp; Gas Output'!W6</f>
-        <v>1.3975285326972201E-4</v>
+        <v>1.4065570750165701E-4</v>
       </c>
       <c r="G4" s="31">
         <f>'PID &amp; Gas Output'!T6/'Seed Train'!B11/24/3600</f>
-        <v>3.3433603456413966E-4</v>
+        <v>3.3649596687773626E-4</v>
       </c>
       <c r="H4" s="31">
         <f>'PID &amp; Gas Output'!Z6</f>
-        <v>9.6504309442076695E-4</v>
+        <v>9.71277623601476E-4</v>
       </c>
       <c r="J4" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1856245179899887</v>
       </c>
       <c r="K4" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2111431855237487</v>
       </c>
       <c r="L4" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97893009857234625</v>
       </c>
       <c r="M4" s="31">
-        <f t="shared" si="3"/>
-        <v>42.505143082242768</v>
+        <f t="shared" si="4"/>
+        <v>42.779741757067242</v>
       </c>
       <c r="N4" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18735054142746213</v>
       </c>
       <c r="O4" s="32">
@@ -3384,37 +3641,37 @@
         <v>0.5</v>
       </c>
       <c r="Q4" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2494021657098475</v>
       </c>
       <c r="R4" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.886752707137312</v>
       </c>
       <c r="S4" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.137350541427464</v>
       </c>
-      <c r="T4" s="65">
-        <f t="shared" si="8"/>
+      <c r="T4" s="59">
+        <f t="shared" si="9"/>
         <v>4.1867527071373125</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="32">
-        <f t="shared" si="9"/>
-        <v>9.0558241670667061E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.1143280829553891E-2</v>
       </c>
       <c r="W4" s="32">
-        <f t="shared" si="10"/>
-        <v>3.5960778332525235E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.6193098032206314E-2</v>
       </c>
       <c r="X4" s="32">
-        <f t="shared" si="11"/>
-        <v>0.27446110071607782</v>
+        <f t="shared" si="12"/>
+        <v>0.27623421919262725</v>
       </c>
       <c r="Y4" s="32">
-        <f t="shared" si="12"/>
-        <v>7.6322347135583994</v>
+        <f t="shared" si="13"/>
+        <v>7.6322347135584003</v>
       </c>
       <c r="Z4" t="s">
         <v>124</v>
@@ -3439,39 +3696,39 @@
         <v>0.65922076505088656</v>
       </c>
       <c r="E5" s="33">
-        <f>D5*9.8</f>
+        <f t="shared" si="0"/>
         <v>6.4603634974986885</v>
       </c>
       <c r="F5" s="31">
         <f>'PID &amp; Gas Output'!W7</f>
-        <v>2.7767865134489101E-4</v>
+        <v>2.8664817646080698E-4</v>
       </c>
       <c r="G5" s="31">
         <f>'PID &amp; Gas Output'!T7/'Seed Train'!B12/24/3600</f>
-        <v>4.4377239403811078E-4</v>
+        <v>4.5810704891631785E-4</v>
       </c>
       <c r="H5" s="31">
         <f>'PID &amp; Gas Output'!Z7</f>
-        <v>9.7528687521887699E-4</v>
+        <v>1.006790413860145E-3</v>
       </c>
       <c r="J5" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2461194029588087</v>
       </c>
       <c r="K5" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2111431855237487</v>
       </c>
       <c r="L5" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0288786807811952</v>
       </c>
       <c r="M5" s="31">
-        <f t="shared" si="3"/>
-        <v>56.418115771247138</v>
+        <f t="shared" si="4"/>
+        <v>58.240523449878239</v>
       </c>
       <c r="N5" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93675270713730974</v>
       </c>
       <c r="O5" s="32">
@@ -3481,37 +3738,37 @@
         <v>0.5</v>
       </c>
       <c r="Q5" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="R5" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.886752707137308</v>
       </c>
       <c r="S5" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.886752707137308</v>
       </c>
-      <c r="T5" s="65">
-        <f t="shared" si="8"/>
+      <c r="T5" s="59">
+        <f t="shared" si="9"/>
         <v>4.186752707137309</v>
       </c>
       <c r="U5" s="32"/>
       <c r="V5" s="32">
-        <f t="shared" si="9"/>
-        <v>0.13292129678625048</v>
+        <f t="shared" si="10"/>
+        <v>0.13721489625524089</v>
       </c>
       <c r="W5" s="32">
-        <f t="shared" si="10"/>
-        <v>7.9013333358175869E-2</v>
+        <f t="shared" si="11"/>
+        <v>8.1565607631390133E-2</v>
       </c>
       <c r="X5" s="32">
-        <f t="shared" si="11"/>
-        <v>0.30672979624471336</v>
+        <f t="shared" si="12"/>
+        <v>0.31663772614098606</v>
       </c>
       <c r="Y5" s="32">
-        <f t="shared" si="12"/>
-        <v>3.8820004574958822</v>
+        <f t="shared" si="13"/>
+        <v>3.8820004574958817</v>
       </c>
       <c r="Z5" t="s">
         <v>124</v>
@@ -3536,39 +3793,39 @@
         <v>0.61196634838917374</v>
       </c>
       <c r="E6" s="33">
-        <f>D6*9.8</f>
+        <f t="shared" si="0"/>
         <v>5.9972702142139029</v>
       </c>
       <c r="F6" s="31">
         <f>'PID &amp; Gas Output'!W8</f>
-        <v>3.6123153872598101E-6</v>
+        <v>3.7206355446416086E-6</v>
       </c>
       <c r="G6" s="31">
         <f>'PID &amp; Gas Output'!T8/'Seed Train'!B8/24/3600</f>
-        <v>2.6205615232805545E-5</v>
+        <v>2.6991426011209819E-5</v>
       </c>
       <c r="H6" s="31">
         <f>'PID &amp; Gas Output'!Z8</f>
-        <v>1.1611381670112299E-4</v>
+        <v>1.1959564637292466E-4</v>
       </c>
       <c r="J6" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2406988923882749</v>
       </c>
       <c r="K6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2111431855237487</v>
       </c>
       <c r="L6" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0244031483789797</v>
       </c>
       <c r="M6" s="31">
         <f>G6*127133</f>
-        <v>3.3315984813922674</v>
+        <v>3.4315009630831379</v>
       </c>
       <c r="N6" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86960418106101589</v>
       </c>
       <c r="O6" s="32">
@@ -3579,37 +3836,37 @@
         <v>0.5</v>
       </c>
       <c r="Q6" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0108064107511856</v>
       </c>
       <c r="R6" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.330410591812203</v>
       </c>
       <c r="S6" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.819604181061017</v>
       </c>
-      <c r="T6" s="65">
-        <f t="shared" si="8"/>
+      <c r="T6" s="59">
+        <f t="shared" si="9"/>
         <v>3.630410591812204</v>
       </c>
       <c r="U6" s="32"/>
       <c r="V6" s="32">
         <f>M6/963*SQRT(1*537/(R6^2-S6^2))</f>
-        <v>8.6578777413477189E-3</v>
+        <v>8.9174959028301675E-3</v>
       </c>
       <c r="W6" s="32">
-        <f t="shared" si="10"/>
-        <v>1.133773638696575E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.1677713730616544E-3</v>
       </c>
       <c r="X6" s="32">
-        <f t="shared" si="11"/>
-        <v>4.0280076661285587E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.1487929181220483E-2</v>
       </c>
       <c r="Y6" s="32">
-        <f t="shared" si="12"/>
-        <v>35.527441533737672</v>
+        <f t="shared" si="13"/>
+        <v>35.527441533737665</v>
       </c>
       <c r="Z6" t="s">
         <v>125</v>
@@ -3634,39 +3891,39 @@
         <v>0.97143602520211203</v>
       </c>
       <c r="E7" s="33">
-        <f>D7*9.8</f>
+        <f t="shared" si="0"/>
         <v>9.5200730469806985</v>
       </c>
       <c r="F7" s="31">
         <f>'PID &amp; Gas Output'!W9</f>
-        <v>2.7738531734872098E-4</v>
+        <v>2.9058895976531973E-4</v>
       </c>
       <c r="G7" s="31">
         <f>'PID &amp; Gas Output'!T9/'Seed Train'!B9/24/3600</f>
-        <v>3.1820393691348704E-4</v>
+        <v>3.333505605297532E-4</v>
       </c>
       <c r="H7" s="31">
         <f>'PID &amp; Gas Output'!Z9</f>
-        <v>4.4930211738727498E-4</v>
+        <v>4.7068906227572477E-4</v>
       </c>
       <c r="J7" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2819333276136637</v>
       </c>
       <c r="K7" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2111431855237487</v>
       </c>
       <c r="L7" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.058449028105048</v>
       </c>
       <c r="M7" s="31">
-        <f t="shared" si="3"/>
-        <v>40.454221111622346</v>
+        <f t="shared" si="4"/>
+        <v>42.379856811829114</v>
       </c>
       <c r="N7" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3804105918122012</v>
       </c>
       <c r="O7" s="32">
@@ -3676,37 +3933,37 @@
         <v>0.5</v>
       </c>
       <c r="Q7" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="R7" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.3304105918122</v>
       </c>
       <c r="S7" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.3304105918122</v>
       </c>
-      <c r="T7" s="65">
-        <f t="shared" si="8"/>
+      <c r="T7" s="59">
+        <f t="shared" si="9"/>
         <v>3.6304105918122005</v>
       </c>
       <c r="U7" s="32"/>
       <c r="V7" s="32">
-        <f t="shared" si="9"/>
-        <v>0.11692039606828517</v>
+        <f t="shared" si="10"/>
+        <v>0.12248584962454512</v>
       </c>
       <c r="W7" s="32">
-        <f t="shared" si="10"/>
-        <v>9.6825958246767888E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.10143490922353357</v>
       </c>
       <c r="X7" s="32">
-        <f t="shared" si="11"/>
-        <v>0.17334546872749079</v>
+        <f t="shared" si="12"/>
+        <v>0.18159677635073487</v>
       </c>
       <c r="Y7" s="32">
-        <f t="shared" si="12"/>
-        <v>1.7902788866360346</v>
+        <f t="shared" si="13"/>
+        <v>1.7902788866360342</v>
       </c>
       <c r="Z7" t="s">
         <v>127</v>
@@ -3731,39 +3988,39 @@
         <v>1.661132236830829</v>
       </c>
       <c r="E8" s="33">
-        <f>D8*9.8</f>
+        <f t="shared" si="0"/>
         <v>16.279095920942126</v>
       </c>
       <c r="F8" s="31">
         <f>'PID &amp; Gas Output'!W10</f>
-        <v>1.4599157214174199E-3</v>
+        <v>1.5787462617446401E-3</v>
       </c>
       <c r="G8" s="31">
         <f>'PID &amp; Gas Output'!T10/'Seed Train'!B10/24/3600</f>
-        <v>1.5291703869733961E-3</v>
+        <v>1.6536379440184148E-3</v>
       </c>
       <c r="H8" s="31">
         <f>'PID &amp; Gas Output'!Z10</f>
-        <v>1.829851947594E-3</v>
+        <v>1.9787936244740202E-3</v>
       </c>
       <c r="J8" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3610477442057471</v>
       </c>
       <c r="K8" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2111431855237487</v>
       </c>
       <c r="L8" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1237711283634673</v>
       </c>
       <c r="M8" s="31">
-        <f t="shared" si="3"/>
-        <v>194.40801880708875</v>
+        <f t="shared" si="4"/>
+        <v>210.23195273689313</v>
       </c>
       <c r="N8" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3604689085366082</v>
       </c>
       <c r="O8" s="32">
@@ -3774,37 +4031,37 @@
         <v>0.5</v>
       </c>
       <c r="Q8" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5199416832755932</v>
       </c>
       <c r="R8" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.3304105918122</v>
       </c>
       <c r="S8" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.310468908536606</v>
       </c>
-      <c r="T8" s="66">
-        <f t="shared" si="8"/>
+      <c r="T8" s="60">
+        <f t="shared" si="9"/>
         <v>3.6304105918122005</v>
       </c>
       <c r="U8" s="32"/>
       <c r="V8" s="32">
-        <f t="shared" si="9"/>
-        <v>0.77591322354531012</v>
+        <f t="shared" si="10"/>
+        <v>0.83906905250741692</v>
       </c>
       <c r="W8" s="32">
-        <f t="shared" si="10"/>
-        <v>0.70373421235544498</v>
+        <f t="shared" si="11"/>
+        <v>0.76101499608435608</v>
       </c>
       <c r="X8" s="32">
-        <f t="shared" si="11"/>
-        <v>0.97490551225124988</v>
+        <f t="shared" si="12"/>
+        <v>1.0542584139902125</v>
       </c>
       <c r="Y8" s="32">
-        <f t="shared" si="12"/>
-        <v>1.385331983488733</v>
+        <f t="shared" si="13"/>
+        <v>1.3853319834887345</v>
       </c>
       <c r="Z8" t="s">
         <v>123</v>
@@ -3815,10 +4072,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W10" s="50" t="s">
+      <c r="W10" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="X10" s="50"/>
+      <c r="X10" s="62"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA50FD2-F45E-4225-884C-08F92D27B8FF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C23D1-9548-4F1F-B3D6-D0B0ACD2E274}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="1" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,42 +1895,15 @@
       <c r="AB4" s="52">
         <v>43.261320828720699</v>
       </c>
-      <c r="AD4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*R4</f>
-        <v>2971.1899657142376</v>
-      </c>
-      <c r="AE4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*S4</f>
-        <v>423.55940508421031</v>
-      </c>
-      <c r="AF4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*T4</f>
-        <v>4499.9849891782724</v>
-      </c>
-      <c r="AG4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*U4</f>
-        <v>1.691525088356771E-3</v>
-      </c>
-      <c r="AH4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*V4</f>
-        <v>4.0437597140854914E-4</v>
-      </c>
-      <c r="AI4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*W4</f>
-        <v>2.7332677461372377E-3</v>
-      </c>
-      <c r="AJ4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*X4</f>
-        <v>5.9956369221509827E-3</v>
-      </c>
-      <c r="AK4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*Y4</f>
-        <v>5.5218986173857234E-4</v>
-      </c>
-      <c r="AL4" s="26">
-        <f>('Valves and Pressure Drop'!$E2/2+100)/100*Z4</f>
-        <v>6.8961826339291338E-3</v>
-      </c>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
       <c r="AM4" s="26"/>
       <c r="AN4" s="26"/>
       <c r="AO4" s="26"/>
@@ -2022,42 +1995,15 @@
       <c r="AB5" s="52">
         <v>47.171691300973698</v>
       </c>
-      <c r="AD5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*R5</f>
-        <v>2633.2353924029408</v>
-      </c>
-      <c r="AE5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*S5</f>
-        <v>833.03462142081344</v>
-      </c>
-      <c r="AF5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*T5</f>
-        <v>9404.5456136775738</v>
-      </c>
-      <c r="AG5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*U5</f>
-        <v>5.693766698824747E-4</v>
-      </c>
-      <c r="AH5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*V5</f>
-        <v>2.1306415136638672E-4</v>
-      </c>
-      <c r="AI5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*W5</f>
-        <v>7.6409976137686679E-5</v>
-      </c>
-      <c r="AJ5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*X5</f>
-        <v>8.0449667402502142E-3</v>
-      </c>
-      <c r="AK5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*Y5</f>
-        <v>3.9715576819935472E-4</v>
-      </c>
-      <c r="AL5" s="26">
-        <f>('Valves and Pressure Drop'!$E3/2+100)/100*Z5</f>
-        <v>4.0420732797868111E-3</v>
-      </c>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
     </row>
     <row r="6" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
@@ -2144,42 +2090,15 @@
       <c r="AB6" s="52">
         <v>59.6570893210219</v>
       </c>
-      <c r="AD6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*R6</f>
-        <v>234.64166774833521</v>
-      </c>
-      <c r="AE6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*S6</f>
-        <v>18.791112034980188</v>
-      </c>
-      <c r="AF6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*T6</f>
-        <v>71.835939889063837</v>
-      </c>
-      <c r="AG6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*U6</f>
-        <v>4.4476926974113164E-4</v>
-      </c>
-      <c r="AH6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*V6</f>
-        <v>7.8087064424940493E-5</v>
-      </c>
-      <c r="AI6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*W6</f>
-        <v>1.4156439450011557E-4</v>
-      </c>
-      <c r="AJ6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*X6</f>
-        <v>1.3169543596330505E-3</v>
-      </c>
-      <c r="AK6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*Y6</f>
-        <v>1.1467666473032697E-4</v>
-      </c>
-      <c r="AL6" s="26">
-        <f>('Valves and Pressure Drop'!$E4/2+100)/100*Z6</f>
-        <v>9.7755243010692818E-4</v>
-      </c>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
     </row>
     <row r="7" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
@@ -2266,42 +2185,15 @@
       <c r="AB7" s="52">
         <v>55.367097463428401</v>
       </c>
-      <c r="AD7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*R7</f>
-        <v>221.13073239351695</v>
-      </c>
-      <c r="AE7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*S7</f>
-        <v>20.174934938929258</v>
-      </c>
-      <c r="AF7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*T7</f>
-        <v>100.10447519388711</v>
-      </c>
-      <c r="AG7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*U7</f>
-        <v>4.6463569228962555E-4</v>
-      </c>
-      <c r="AH7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*V7</f>
-        <v>8.59485696280264E-5</v>
-      </c>
-      <c r="AI7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*W7</f>
-        <v>2.9590743353996677E-4</v>
-      </c>
-      <c r="AJ7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*X7</f>
-        <v>1.23466929288472E-3</v>
-      </c>
-      <c r="AK7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*Y7</f>
-        <v>1.1266731486079619E-4</v>
-      </c>
-      <c r="AL7" s="26">
-        <f>('Valves and Pressure Drop'!$E5/2+100)/100*Z7</f>
-        <v>1.0393115740568134E-3</v>
-      </c>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
     </row>
     <row r="8" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
@@ -2388,42 +2280,15 @@
       <c r="AB8" s="52">
         <v>41.630397373854798</v>
       </c>
-      <c r="AD8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*R8</f>
-        <v>60.040529956153776</v>
-      </c>
-      <c r="AE8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*S8</f>
-        <v>7.8622683545621497</v>
-      </c>
-      <c r="AF8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*T8</f>
-        <v>5.8968833717914384</v>
-      </c>
-      <c r="AG8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*U8</f>
-        <v>1.8226446525309369E-4</v>
-      </c>
-      <c r="AH8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*V8</f>
-        <v>3.5321311842915764E-5</v>
-      </c>
-      <c r="AI8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*W8</f>
-        <v>3.8322038282907316E-6</v>
-      </c>
-      <c r="AJ8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*X8</f>
-        <v>3.4294624062456797E-4</v>
-      </c>
-      <c r="AK8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*Y8</f>
-        <v>4.148301618471198E-5</v>
-      </c>
-      <c r="AL8" s="26">
-        <f>('Valves and Pressure Drop'!$E6/2+100)/100*Z8</f>
-        <v>1.2318188341163466E-4</v>
-      </c>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
     </row>
     <row r="9" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
@@ -2510,42 +2375,15 @@
       <c r="AB9" s="52">
         <v>43.3637076844864</v>
       </c>
-      <c r="AD9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*R9</f>
-        <v>89.014237658392489</v>
-      </c>
-      <c r="AE9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*S9</f>
-        <v>12.142424036277747</v>
-      </c>
-      <c r="AF9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*T9</f>
-        <v>63.965593572473615</v>
-      </c>
-      <c r="AG9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*U9</f>
-        <v>3.3874133140888399E-4</v>
-      </c>
-      <c r="AH9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*V9</f>
-        <v>6.4002610316090771E-5</v>
-      </c>
-      <c r="AI9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*W9</f>
-        <v>3.0442110038337965E-4</v>
-      </c>
-      <c r="AJ9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*X9</f>
-        <v>5.3520170009430806E-4</v>
-      </c>
-      <c r="AK9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*Y9</f>
-        <v>7.1970394722008338E-5</v>
-      </c>
-      <c r="AL9" s="26">
-        <f>('Valves and Pressure Drop'!$E7/2+100)/100*Z9</f>
-        <v>4.9309403355212356E-4</v>
-      </c>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
     </row>
     <row r="10" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
@@ -2632,42 +2470,15 @@
       <c r="AB10" s="53">
         <v>39.515087305645999</v>
       </c>
-      <c r="AD10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*R10</f>
-        <v>178.84789517335156</v>
-      </c>
-      <c r="AE10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*S10</f>
-        <v>37.925884578749915</v>
-      </c>
-      <c r="AF10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*T10</f>
-        <v>379.3064411825676</v>
-      </c>
-      <c r="AG10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*U10</f>
-        <v>4.9307296644687261E-4</v>
-      </c>
-      <c r="AH10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*V10</f>
-        <v>1.7470773019929756E-4</v>
-      </c>
-      <c r="AI10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*W10</f>
-        <v>1.7072490708934893E-3</v>
-      </c>
-      <c r="AJ10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*X10</f>
-        <v>9.339928442901864E-4</v>
-      </c>
-      <c r="AK10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*Y10</f>
-        <v>1.8683870978723559E-4</v>
-      </c>
-      <c r="AL10" s="26">
-        <f>('Valves and Pressure Drop'!$E8/2+100)/100*Z10</f>
-        <v>2.1398584805768267E-3</v>
-      </c>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="X12" s="31"/>
@@ -3278,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,8 +3264,7 @@
         <v>23.986345056475798</v>
       </c>
       <c r="S2" s="32">
-        <f>R2-O2</f>
-        <v>18.986345056475798</v>
+        <v>0</v>
       </c>
       <c r="T2" s="59">
         <f>R2-14.7</f>
@@ -3463,19 +3273,19 @@
       <c r="U2" s="32"/>
       <c r="V2" s="32">
         <f>M2/963*SQRT(1*537/(R2^2-S2^2))</f>
-        <v>0.95420393896487787</v>
+        <v>0.58312062273158605</v>
       </c>
       <c r="W2" s="32">
         <f>F2/963*SQRT(1*537/(R2^2-S2^2))*127133*0.95</f>
-        <v>0.47571808743980704</v>
+        <v>0.29071461148389777</v>
       </c>
       <c r="X2" s="32">
         <f>H2/963*SQRT(1*537/(R2^2-S2^2))*127133*1.05</f>
-        <v>1.3266059352463029</v>
+        <v>0.81069805676909468</v>
       </c>
       <c r="Y2" s="32">
         <f>X2/W2</f>
-        <v>2.7886388394138142</v>
+        <v>2.7886388394138146</v>
       </c>
       <c r="Z2" t="s">
         <v>123</v>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C23D1-9548-4F1F-B3D6-D0B0ACD2E274}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDEECA-E471-4796-958F-66650E933DC9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" firstSheet="1" activeTab="3" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="4" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
   <si>
     <t>Vessel</t>
   </si>
@@ -447,6 +447,24 @@
   </si>
   <si>
     <t>page 23</t>
+  </si>
+  <si>
+    <t>Hot Flow Before Shift (L/s)</t>
+  </si>
+  <si>
+    <t>Cold Flow Before Shift (L/s)</t>
+  </si>
+  <si>
+    <t>Hot Flow After Shift (L/s)</t>
+  </si>
+  <si>
+    <t>Cold Flow After Shift (L/s)</t>
+  </si>
+  <si>
+    <t>Total Flow Hot (L)</t>
+  </si>
+  <si>
+    <t>Total Flow Cold (L)</t>
   </si>
 </sst>
 </file>
@@ -695,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -792,6 +810,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,7 +1343,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A37:A38"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1412,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B9B371-BB26-4257-BB8E-9B4539DEEA9A}">
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4:AL10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,7 +2515,9 @@
       <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="W13" s="31"/>
       <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="X14" s="31"/>
@@ -2819,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43169691-B23A-4265-B676-8F187760D4B1}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O14" sqref="N14:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,27 +2863,33 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="F2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>17</v>
       </c>
@@ -2864,222 +2902,396 @@
       <c r="D3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="J3" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="L3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="M3" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="N3" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="70">
         <v>36</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="71">
         <v>29</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="71">
         <v>2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="72">
+        <f>D4-F4</f>
+        <v>1.9142857142857144</v>
+      </c>
+      <c r="F4" s="72">
+        <f>(37.5-B4)/(37.5-2.5)*D4</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G4" s="72">
+        <f>D4-H4</f>
+        <v>1.5142857142857142</v>
+      </c>
+      <c r="H4" s="72">
+        <f>(37.5-C4)/(37.5-2.5)*D4</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="I4" s="71">
         <v>22</v>
       </c>
-      <c r="F4" s="54">
+      <c r="J4" s="73">
         <v>36.230454732068402</v>
       </c>
-      <c r="G4" s="37">
+      <c r="K4" s="74">
         <v>37.663516520014099</v>
       </c>
-      <c r="H4" s="37">
+      <c r="L4" s="74">
         <v>30.449493161173301</v>
       </c>
-      <c r="I4" s="37">
+      <c r="M4" s="74">
         <v>31.176307773105702</v>
       </c>
-      <c r="J4" s="3">
+      <c r="N4" s="76">
+        <f>E4*3600*24*4+G4*6*3600*24</f>
+        <v>1446582.8571428573</v>
+      </c>
+      <c r="O4" s="76">
+        <f>F4*3600*24*4+H4*6*3600*24</f>
+        <v>281417.14285714284</v>
+      </c>
+      <c r="P4" s="7">
         <v>2059965786.4955001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="24">
         <v>36.5</v>
       </c>
       <c r="C5" s="23">
         <v>28.5</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>2.2666666666666702</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="14">
+        <f t="shared" ref="E5:E10" si="0">D5-F5</f>
+        <v>2.2019047619047654</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F10" si="1">(37.5-B5)/(37.5-2.5)*D5</f>
+        <v>6.4761904761904854E-2</v>
+      </c>
+      <c r="G5" s="14">
+        <f>D5-H5</f>
+        <v>1.6838095238095265</v>
+      </c>
+      <c r="H5" s="14">
+        <f>(37.5-C5)/(37.5-2.5)*D5</f>
+        <v>0.58285714285714374</v>
+      </c>
+      <c r="I5" s="23">
         <v>15.2</v>
       </c>
-      <c r="F5" s="54">
+      <c r="J5" s="54">
         <v>36.4833465919559</v>
       </c>
-      <c r="G5" s="37">
+      <c r="K5" s="37">
         <v>37.938965531622401</v>
       </c>
-      <c r="H5" s="37">
+      <c r="L5" s="37">
         <v>30.479320114784699</v>
       </c>
-      <c r="I5" s="37">
+      <c r="M5" s="37">
         <v>31.250655093091101</v>
       </c>
-      <c r="J5" s="3">
+      <c r="N5" s="13">
+        <f>E5*3600*24*4+G5*6*3600*24</f>
+        <v>1633865.1428571455</v>
+      </c>
+      <c r="O5" s="13">
+        <f>F5*3600*24*4+H5*6*3600*24</f>
+        <v>324534.85714285768</v>
+      </c>
+      <c r="P5" s="3">
         <v>3660010478.5302801</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="24">
         <v>37.200000000000003</v>
       </c>
       <c r="C6" s="43"/>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <v>2.2666666666666702</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.247238095238099</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>1.9428571428571274E-2</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="23">
         <v>4.5</v>
       </c>
-      <c r="F6" s="54">
+      <c r="J6" s="54">
         <v>36.815663352033397</v>
       </c>
-      <c r="G6" s="37">
+      <c r="K6" s="37">
         <v>37</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="48">
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="77">
+        <f>E6*3600*24*'Seed Train'!$B11</f>
+        <v>476666.16685714369</v>
+      </c>
+      <c r="O6" s="77">
+        <f>F6*3600*24*'Seed Train'!$B11</f>
+        <v>4121.0331428571099</v>
+      </c>
+      <c r="P6" s="48">
         <v>-4337346.4320512097</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="24">
         <v>37</v>
       </c>
       <c r="C7" s="43"/>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>2.2666666666666702</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>2.2342857142857175</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>3.2380952380952427E-2</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="23">
         <v>4.5</v>
       </c>
-      <c r="F7" s="54">
+      <c r="J7" s="54">
         <v>36.926701130609899</v>
       </c>
-      <c r="G7" s="37">
+      <c r="K7" s="37">
         <v>37.055635857325903</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="48">
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="77">
+        <f>E7*3600*24*'Seed Train'!$B12</f>
+        <v>472953.60000000073</v>
+      </c>
+      <c r="O7" s="77">
+        <f>F7*3600*24*'Seed Train'!$B12</f>
+        <v>6854.4000000000106</v>
+      </c>
+      <c r="P7" s="48">
         <v>-690249.94815891702</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="24">
         <v>37</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="23">
         <v>0.1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>9.8571428571428574E-2</v>
+      </c>
+      <c r="F8" s="14">
+        <f>(37.5-B8)/(37.5-2.5)*D8</f>
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="23">
         <v>10</v>
       </c>
-      <c r="F8" s="54">
+      <c r="J8" s="54">
         <v>36.959347505559599</v>
       </c>
-      <c r="G8" s="37">
+      <c r="K8" s="37">
         <v>37.022325711577103</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="48">
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="77">
+        <f>3600*24*E7*'Seed Train'!$B8</f>
+        <v>473918.81142857217</v>
+      </c>
+      <c r="O8" s="77">
+        <f>3600*24*F7*'Seed Train'!$B8</f>
+        <v>6868.3885714285816</v>
+      </c>
+      <c r="P8" s="48">
         <v>-152096.762405338</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="24">
         <v>37</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="23">
         <v>15</v>
       </c>
-      <c r="F9" s="54">
+      <c r="J9" s="54">
         <v>36.975144973660498</v>
       </c>
-      <c r="G9" s="37">
+      <c r="K9" s="37">
         <v>37.075061182253897</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="48">
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="77">
+        <f>3600*24*E8*'Seed Train'!$B9</f>
+        <v>18055.131428571432</v>
+      </c>
+      <c r="O9" s="77">
+        <f>3600*24*F8*'Seed Train'!$B9</f>
+        <v>261.66857142857145</v>
+      </c>
+      <c r="P9" s="48">
         <v>959642.12251960603</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="75">
         <v>37</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="1">
         <v>18</v>
       </c>
-      <c r="F10" s="56">
+      <c r="J10" s="56">
         <v>36.987937254094902</v>
       </c>
-      <c r="G10" s="38">
+      <c r="K10" s="38">
         <v>37.179911488939098</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="49">
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="78">
+        <f>3600*24*E9*'Seed Train'!$B10</f>
+        <v>209081.82857142857</v>
+      </c>
+      <c r="O10" s="78">
+        <f>3600*24*F9*'Seed Train'!$B10</f>
+        <v>3030.1714285714284</v>
+      </c>
+      <c r="P10" s="49">
         <v>9468855.4997045305</v>
       </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="79"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="79"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="79"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="79"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="79"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="J2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3089,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC2659-451F-4A9A-A90E-79F819C9DD82}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,12 +3446,12 @@
         <v>1.4963314936135699</v>
       </c>
       <c r="K2" s="33">
-        <f>29*(100000)/(8.314*288)/1000</f>
-        <v>1.2111431855237487</v>
+        <f>29*(100000)/(8.314*298)/1000</f>
+        <v>1.1705007967477836</v>
       </c>
       <c r="L2" s="33">
         <f>J2/K2</f>
-        <v>1.2354703485917677</v>
+        <v>1.2783686245845378</v>
       </c>
       <c r="M2" s="31">
         <f>G2*127133</f>
@@ -3331,12 +3543,12 @@
         <v>1.2998067944898537</v>
       </c>
       <c r="K3" s="33">
-        <f t="shared" ref="K3:K8" si="2">29*(100000)/(8.314*288)/1000</f>
-        <v>1.2111431855237487</v>
+        <f t="shared" ref="K3:K8" si="2">29*(100000)/(8.314*298)/1000</f>
+        <v>1.1705007967477836</v>
       </c>
       <c r="L3" s="33">
         <f t="shared" ref="L3:L8" si="3">J3/K3</f>
-        <v>1.073206545704803</v>
+        <v>1.110470661875109</v>
       </c>
       <c r="M3" s="31">
         <f t="shared" ref="M3:M8" si="4">G3*127133</f>
@@ -3424,16 +3636,16 @@
         <v>9.71277623601476E-4</v>
       </c>
       <c r="J4" s="33">
-        <f t="shared" si="1"/>
+        <f>29*(100000+E4*1000+E705)/(8.314*298)/1000</f>
         <v>1.1856245179899887</v>
       </c>
       <c r="K4" s="33">
         <f t="shared" si="2"/>
-        <v>1.2111431855237487</v>
+        <v>1.1705007967477836</v>
       </c>
       <c r="L4" s="33">
         <f t="shared" si="3"/>
-        <v>0.97893009857234625</v>
+        <v>1.0129207269949974</v>
       </c>
       <c r="M4" s="31">
         <f t="shared" si="4"/>
@@ -3527,11 +3739,11 @@
       </c>
       <c r="K5" s="33">
         <f t="shared" si="2"/>
-        <v>1.2111431855237487</v>
+        <v>1.1705007967477836</v>
       </c>
       <c r="L5" s="33">
         <f t="shared" si="3"/>
-        <v>1.0288786807811952</v>
+        <v>1.0646036349749868</v>
       </c>
       <c r="M5" s="31">
         <f t="shared" si="4"/>
@@ -3624,11 +3836,11 @@
       </c>
       <c r="K6" s="33">
         <f t="shared" si="2"/>
-        <v>1.2111431855237487</v>
+        <v>1.1705007967477836</v>
       </c>
       <c r="L6" s="33">
         <f t="shared" si="3"/>
-        <v>1.0244031483789797</v>
+        <v>1.059972702142139</v>
       </c>
       <c r="M6" s="31">
         <f>G6*127133</f>
@@ -3722,11 +3934,11 @@
       </c>
       <c r="K7" s="33">
         <f t="shared" si="2"/>
-        <v>1.2111431855237487</v>
+        <v>1.1705007967477836</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="3"/>
-        <v>1.058449028105048</v>
+        <v>1.095200730469807</v>
       </c>
       <c r="M7" s="31">
         <f t="shared" si="4"/>
@@ -3819,11 +4031,11 @@
       </c>
       <c r="K8" s="33">
         <f t="shared" si="2"/>
-        <v>1.2111431855237487</v>
+        <v>1.1705007967477836</v>
       </c>
       <c r="L8" s="33">
         <f t="shared" si="3"/>
-        <v>1.1237711283634673</v>
+        <v>1.1627909592094212</v>
       </c>
       <c r="M8" s="31">
         <f t="shared" si="4"/>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDEECA-E471-4796-958F-66650E933DC9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C934FF-F705-47FB-8C5E-4F03F75BABD1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="4" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="1" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D2CE3-3D89-4AB3-BA7A-E3A4CFD9BA85}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43169691-B23A-4265-B676-8F187760D4B1}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O14" sqref="N14:O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/K1/FinalCodeV1/Final_OutputV3.xlsx
+++ b/K1/FinalCodeV1/Final_OutputV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Thomson\Documents\School Docs\College\Senior Year\Second Semester\Design\DesignCode\K1\FinalCodeV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C934FF-F705-47FB-8C5E-4F03F75BABD1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BF9A5-3957-4DF1-99BC-3F4DBB70A7F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="1" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" xr2:uid="{246BD7EC-0C2E-4070-B711-658E9931285D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seed Train" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Reactor Heating" sheetId="6" r:id="rId5"/>
     <sheet name="Valves and Pressure Drop" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -792,6 +792,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,18 +822,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDBD7ED-5FE1-4A26-8155-C2FD3E504F3F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,10 +1317,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="74"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1342,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D2CE3-3D89-4AB3-BA7A-E3A4CFD9BA85}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1725,34 +1725,34 @@
       <c r="AA1" s="23"/>
     </row>
     <row r="2" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="63" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="63" t="s">
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="79"/>
     </row>
     <row r="3" spans="1:43" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
@@ -2879,15 +2879,15 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
@@ -2943,51 +2943,51 @@
       <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="64">
         <v>36</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="65">
         <v>29</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="65">
         <v>2</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="66">
         <f>D4-F4</f>
         <v>1.9142857142857144</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="66">
         <f>(37.5-B4)/(37.5-2.5)*D4</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="66">
         <f>D4-H4</f>
         <v>1.5142857142857142</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="66">
         <f>(37.5-C4)/(37.5-2.5)*D4</f>
         <v>0.48571428571428571</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="65">
         <v>22</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="67">
         <v>36.230454732068402</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="68">
         <v>37.663516520014099</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="68">
         <v>30.449493161173301</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="68">
         <v>31.176307773105702</v>
       </c>
-      <c r="N4" s="76">
+      <c r="N4" s="70">
         <f>E4*3600*24*4+G4*6*3600*24</f>
         <v>1446582.8571428573</v>
       </c>
-      <c r="O4" s="76">
+      <c r="O4" s="70">
         <f>F4*3600*24*4+H4*6*3600*24</f>
         <v>281417.14285714284</v>
       </c>
@@ -3070,8 +3070,8 @@
         <f t="shared" si="1"/>
         <v>1.9428571428571274E-2</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="23">
         <v>4.5</v>
       </c>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
-      <c r="N6" s="77">
+      <c r="N6" s="71">
         <f>E6*3600*24*'Seed Train'!$B11</f>
         <v>476666.16685714369</v>
       </c>
-      <c r="O6" s="77">
+      <c r="O6" s="71">
         <f>F6*3600*24*'Seed Train'!$B11</f>
         <v>4121.0331428571099</v>
       </c>
@@ -3114,8 +3114,8 @@
         <f t="shared" si="1"/>
         <v>3.2380952380952427E-2</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="23">
         <v>4.5</v>
       </c>
@@ -3127,11 +3127,11 @@
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
-      <c r="N7" s="77">
+      <c r="N7" s="71">
         <f>E7*3600*24*'Seed Train'!$B12</f>
         <v>472953.60000000073</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="71">
         <f>F7*3600*24*'Seed Train'!$B12</f>
         <v>6854.4000000000106</v>
       </c>
@@ -3158,8 +3158,8 @@
         <f>(37.5-B8)/(37.5-2.5)*D8</f>
         <v>1.4285714285714286E-3</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="23">
         <v>10</v>
       </c>
@@ -3171,11 +3171,11 @@
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
-      <c r="N8" s="77">
+      <c r="N8" s="71">
         <f>3600*24*E7*'Seed Train'!$B8</f>
         <v>473918.81142857217</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="71">
         <f>3600*24*F7*'Seed Train'!$B8</f>
         <v>6868.3885714285816</v>
       </c>
@@ -3202,8 +3202,8 @@
         <f t="shared" si="1"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="23">
         <v>15</v>
       </c>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
-      <c r="N9" s="77">
+      <c r="N9" s="71">
         <f>3600*24*E8*'Seed Train'!$B9</f>
         <v>18055.131428571432</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="71">
         <f>3600*24*F8*'Seed Train'!$B9</f>
         <v>261.66857142857145</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="69">
         <v>37</v>
       </c>
       <c r="C10" s="44"/>
@@ -3246,8 +3246,8 @@
         <f t="shared" si="1"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="1">
         <v>18</v>
       </c>
@@ -3259,11 +3259,11 @@
       </c>
       <c r="L10" s="57"/>
       <c r="M10" s="57"/>
-      <c r="N10" s="78">
+      <c r="N10" s="72">
         <f>3600*24*E9*'Seed Train'!$B10</f>
         <v>209081.82857142857</v>
       </c>
-      <c r="O10" s="78">
+      <c r="O10" s="72">
         <f>3600*24*F9*'Seed Train'!$B10</f>
         <v>3030.1714285714284</v>
       </c>
@@ -3272,22 +3272,22 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N14" s="79"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N15" s="79"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="79"/>
+      <c r="N16" s="73"/>
     </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N17" s="79"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="18" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N18" s="79"/>
+      <c r="N18" s="73"/>
     </row>
     <row r="19" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="79"/>
+      <c r="N19" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4094,10 +4094,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W10" s="62" t="s">
+      <c r="W10" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="X10" s="62"/>
+      <c r="X10" s="74"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
